--- a/Data/Output/Nikki.xlsx
+++ b/Data/Output/Nikki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Panda\Documents\UiPath\Final Project\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF65B0A0-2C25-4CD3-A3AF-BAE0472FCE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A89898C-8B49-4D2E-A115-7608182AC4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="2430" windowWidth="12120" windowHeight="15555" xr2:uid="{84DB11E6-FB2D-4FAC-9E36-3EE30C623523}"/>
+    <workbookView xWindow="1335" yWindow="2430" windowWidth="12120" windowHeight="15555" xr2:uid="{4CBDB09E-411A-4B64-8E63-A14B23CD9272}"/>
   </bookViews>
   <sheets>
     <sheet name="Vaseline Lip Therapy" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="146">
   <si>
     <t>Name</t>
   </si>
@@ -60,7 +60,7 @@
     <t>4.2 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Kiehls-Eliminator-24-Hour-Anti-Shing-Moisturizer/dp/B00K592YQO/ref=sr_1_24?crid=2HBVS1V0LA4WH&amp;dib=eyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpSs9o_t3QHLWBaxspjS5lAKiDmRMP-eVIwnVZYnaGkksVXAv9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZKG3g7ADm48Rwzbx5jzA3ZE8glvJWG7oSK_mEfMGGqUMQ1aUrPNKnXk0rdDFOWbXY9trpPT66IneayRvI9gpAGYxNLfz__dJ3RIXiBcIegWg.p657uqHHMMCCOEdLp_5F-AkccD9nOynePOJX4H2WN3s&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711015984&amp;sprefix=kie%2Caps%2C309&amp;sr=8-24</t>
+    <t>https://www.amazon.com/Kiehls-Eliminator-24-Hour-Anti-Shing-Moisturizer/dp/B00K592YQO/ref=sr_1_23?crid=3AHLI3EMS6CUT&amp;dib=eyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On63Av9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZesr-8ynFMzyxSsLDbWtsKFAJ80qf2hOSq2rlUMi3wSDirF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.xe8xm1CFl5reNC8TgUEOmdJMlnCEEfmhmh1t1bZGOO0&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711016608&amp;sprefix=kieh%2Caps%2C318&amp;sr=8-23</t>
   </si>
   <si>
     <t>Ultra Facial Oil-Free Moisturizer, Shine-Reducing Gel Cream for Oily to Normal Skin, Hydrates Skin for 24 Hours, Visibly Minimizes Pores, Non-comedogenic, Alcohol-free, Fragrance-free</t>
@@ -69,7 +69,7 @@
     <t>4.7 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Kiehls-Ultra-Facial-Oil-Free-Normal/dp/B007L7SPA2/ref=sr_1_10?crid=2HBVS1V0LA4WH&amp;dib=eyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpSs9o_t3QHLWBaxspjS5lAKiDmRMP-eVIwnVZYnaGkksVXAv9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZKG3g7ADm48Rwzbx5jzA3ZE8glvJWG7oSK_mEfMGGqUMQ1aUrPNKnXk0rdDFOWbXY9trpPT66IneayRvI9gpAGYxNLfz__dJ3RIXiBcIegWg.p657uqHHMMCCOEdLp_5F-AkccD9nOynePOJX4H2WN3s&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711015984&amp;sprefix=kie%2Caps%2C309&amp;sr=8-10</t>
+    <t>https://www.amazon.com/Kiehls-Ultra-Facial-Oil-Free-Normal/dp/B007L7SPA2/ref=sr_1_9?crid=3AHLI3EMS6CUT&amp;dib=eyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On63Av9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZesr-8ynFMzyxSsLDbWtsKFAJ80qf2hOSq2rlUMi3wSDirF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.xe8xm1CFl5reNC8TgUEOmdJMlnCEEfmhmh1t1bZGOO0&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711016608&amp;sprefix=kieh%2Caps%2C318&amp;sr=8-9</t>
   </si>
   <si>
     <t>Clearly Corrective Brightening &amp; Smoothing Moisture Treatment, 24HR Hydrating Face Moisturizer, Corrects Discoloration &amp; Rough Texture, with Vitamin C &amp; Glycolic Acid - 1.7 fl oz</t>
@@ -78,13 +78,13 @@
     <t>4.4 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Kiehls-Brightening-Smoothing-Moisture-Treatment/dp/B01N1ICJUS/ref=sr_1_22?crid=2HBVS1V0LA4WH&amp;dib=eyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpSs9o_t3QHLWBaxspjS5lAKiDmRMP-eVIwnVZYnaGkksVXAv9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZKG3g7ADm48Rwzbx5jzA3ZE8glvJWG7oSK_mEfMGGqUMQ1aUrPNKnXk0rdDFOWbXY9trpPT66IneayRvI9gpAGYxNLfz__dJ3RIXiBcIegWg.p657uqHHMMCCOEdLp_5F-AkccD9nOynePOJX4H2WN3s&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711015984&amp;sprefix=kie%2Caps%2C309&amp;sr=8-22</t>
+    <t>https://www.amazon.com/Kiehls-Brightening-Smoothing-Moisture-Treatment/dp/B01N1ICJUS/ref=sr_1_22?crid=3AHLI3EMS6CUT&amp;dib=eyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On63Av9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZesr-8ynFMzyxSsLDbWtsKFAJ80qf2hOSq2rlUMi3wSDirF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.xe8xm1CFl5reNC8TgUEOmdJMlnCEEfmhmh1t1bZGOO0&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711016608&amp;sprefix=kieh%2Caps%2C318&amp;sr=8-22</t>
   </si>
   <si>
     <t>Ultra Facial Oil Free Gel Cream Moisturizer for Normal &amp; Oily Skin 1.7oz</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Kiehls-Ultra-Facial-Moisturizer-Normal/dp/B09DGF47WH/ref=sr_1_6?crid=2HBVS1V0LA4WH&amp;dib=eyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpSs9o_t3QHLWBaxspjS5lAKiDmRMP-eVIwnVZYnaGkksVXAv9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZKG3g7ADm48Rwzbx5jzA3ZE8glvJWG7oSK_mEfMGGqUMQ1aUrPNKnXk0rdDFOWbXY9trpPT66IneayRvI9gpAGYxNLfz__dJ3RIXiBcIegWg.p657uqHHMMCCOEdLp_5F-AkccD9nOynePOJX4H2WN3s&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711015984&amp;sprefix=kie%2Caps%2C309&amp;sr=8-6</t>
+    <t>https://www.amazon.com/Kiehls-Ultra-Facial-Moisturizer-Normal/dp/B09DGF47WH/ref=sr_1_6?crid=3AHLI3EMS6CUT&amp;dib=eyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On63Av9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZesr-8ynFMzyxSsLDbWtsKFAJ80qf2hOSq2rlUMi3wSDirF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.xe8xm1CFl5reNC8TgUEOmdJMlnCEEfmhmh1t1bZGOO0&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711016608&amp;sprefix=kieh%2Caps%2C318&amp;sr=8-6</t>
   </si>
   <si>
     <t>Firm &amp; Smooth Collagen Peptide Face Moisturizer, 2 oz Fragrance Free Firming Face Cream for Hydration and Skin Renewal, Recyclable Eco Jar Packaging</t>
@@ -93,28 +93,22 @@
     <t>4.5 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NzQ2MTExNjU3NjQwMDgwOjE3MTEwMTU5ODQ6c3BfYXRmOjMwMDA5MzIwMTQ2MzUwMjo6MDo6&amp;url=%2FOlay-Moisturizer-Fragrance-Hydration-Recyclable%2Fdp%2FB0C44J6JDB%2Fref%3Dsr_1_1_sspa%3Fcrid%3D2HBVS1V0LA4WH%26dib%3DeyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpSs9o_t3QHLWBaxspjS5lAKiDmRMP-eVIwnVZYnaGkksVXAv9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZKG3g7ADm48Rwzbx5jzA3ZE8glvJWG7oSK_mEfMGGqUMQ1aUrPNKnXk0rdDFOWbXY9trpPT66IneayRvI9gpAGYxNLfz__dJ3RIXiBcIegWg.p657uqHHMMCCOEdLp_5F-AkccD9nOynePOJX4H2WN3s%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711015984%26sprefix%3Dkie%252Caps%252C309%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MzIyODkwMDUyOTY3MDgwOjE3MTEwMTY2MDg6c3BfYXRmOjMwMDA5MzIwMTQ2MzUwMjo6MDo6&amp;url=%2FOlay-Moisturizer-Fragrance-Hydration-Recyclable%2Fdp%2FB0C44J6JDB%2Fref%3Dsr_1_1_sspa%3Fcrid%3D3AHLI3EMS6CUT%26dib%3DeyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On63Av9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZesr-8ynFMzyxSsLDbWtsKFAJ80qf2hOSq2rlUMi3wSDirF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.xe8xm1CFl5reNC8TgUEOmdJMlnCEEfmhmh1t1bZGOO0%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711016608%26sprefix%3Dkieh%252Caps%252C318%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Bright &amp; Even Vitamin C with Lactic Acid Face Moisturizer, 2 oz Lightweight Brightening Face Cream for Uneven Skin Tone, Recyclable Eco Jar Packaging, Value Size</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NzQ2MTExNjU3NjQwMDgwOjE3MTEwMTU5ODQ6c3BfbXRmOjMwMDA5MzI0OTA5NzMwMjo6MDo6&amp;url=%2FOlay-Moisturizer-Lightweight-Brightening-Recyclable%2Fdp%2FB0C443Q1JF%2Fref%3Dsr_1_17_sspa%3Fcrid%3D2HBVS1V0LA4WH%26dib%3DeyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpSs9o_t3QHLWBaxspjS5lAKiDmRMP-eVIwnVZYnaGkksVXAv9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZKG3g7ADm48Rwzbx5jzA3ZE8glvJWG7oSK_mEfMGGqUMQ1aUrPNKnXk0rdDFOWbXY9trpPT66IneayRvI9gpAGYxNLfz__dJ3RIXiBcIegWg.p657uqHHMMCCOEdLp_5F-AkccD9nOynePOJX4H2WN3s%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711015984%26sprefix%3Dkie%252Caps%252C309%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Smooth &amp; Renew Retinol Face Moisturizer, 2 oz Fragrance Free Night Cream for Fine Lines and Wrinkles with Retinoid Complex, Recyclable Eco Jar Packaging, Value Size</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MzIyODkwMDUyOTY3MDgwOjE3MTEwMTY2MDg6c3BfbXRmOjMwMDA5MzI0OTA5NzMwMjo6MDo6&amp;url=%2FOlay-Moisturizer-Lightweight-Brightening-Recyclable%2Fdp%2FB0C443Q1JF%2Fref%3Dsr_1_17_sspa%3Fcrid%3D3AHLI3EMS6CUT%26dib%3DeyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On63Av9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZesr-8ynFMzyxSsLDbWtsKFAJ80qf2hOSq2rlUMi3wSDirF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.xe8xm1CFl5reNC8TgUEOmdJMlnCEEfmhmh1t1bZGOO0%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711016608%26sprefix%3Dkieh%252Caps%252C318%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Kiehls - Ultra Facial Moisturizer - 4.2 fl. oz.</t>
   </si>
   <si>
     <t>4.6 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NzQ2MTExNjU3NjQwMDgwOjE3MTEwMTU5ODQ6c3BfbXRmOjMwMDAyMDYwMzM4NDQwMjo6MDo6&amp;url=%2FOlay-Moisturizer-Fragrance-Recyclable-Packaging%2Fdp%2FB0C442SWJ7%2Fref%3Dsr_1_18_sspa%3Fcrid%3D2HBVS1V0LA4WH%26dib%3DeyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpSs9o_t3QHLWBaxspjS5lAKiDmRMP-eVIwnVZYnaGkksVXAv9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZKG3g7ADm48Rwzbx5jzA3ZE8glvJWG7oSK_mEfMGGqUMQ1aUrPNKnXk0rdDFOWbXY9trpPT66IneayRvI9gpAGYxNLfz__dJ3RIXiBcIegWg.p657uqHHMMCCOEdLp_5F-AkccD9nOynePOJX4H2WN3s%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711015984%26sprefix%3Dkie%252Caps%252C309%26sr%3D8-18-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Kiehls - Ultra Facial Moisturizer - 4.2 fl. oz.</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Kiehls-Ultra-Facial-Moisturizer-4-2/dp/B002LK0GAQ/ref=sr_1_2?crid=2HBVS1V0LA4WH&amp;dib=eyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpSs9o_t3QHLWBaxspjS5lAKiDmRMP-eVIwnVZYnaGkksVXAv9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZKG3g7ADm48Rwzbx5jzA3ZE8glvJWG7oSK_mEfMGGqUMQ1aUrPNKnXk0rdDFOWbXY9trpPT66IneayRvI9gpAGYxNLfz__dJ3RIXiBcIegWg.p657uqHHMMCCOEdLp_5F-AkccD9nOynePOJX4H2WN3s&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711015984&amp;sprefix=kie%2Caps%2C309&amp;sr=8-2</t>
+    <t>https://www.amazon.com/Kiehls-Ultra-Facial-Moisturizer-4-2/dp/B002LK0GAQ/ref=sr_1_2?crid=3AHLI3EMS6CUT&amp;dib=eyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On63Av9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZesr-8ynFMzyxSsLDbWtsKFAJ80qf2hOSq2rlUMi3wSDirF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.xe8xm1CFl5reNC8TgUEOmdJMlnCEEfmhmh1t1bZGOO0&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711016608&amp;sprefix=kieh%2Caps%2C318&amp;sr=8-2</t>
   </si>
   <si>
     <t>Men's Face Moisturizer Cream - Anti Aging &amp; Wrinkle - Made in USA - Collagen, Hyaluronic Acid, Vitamins E &amp; A, Avocado Oil - After Shave Lotion - Age Facial Skin Care, Day &amp; Night Moisturizing, 2 oz</t>
@@ -123,97 +117,97 @@
     <t>4.3 out of 5 stars</t>
   </si>
   <si>
-    <t>https://aax-us-iad.amazon.com/x/c/RJUG1aEOFcR8gQiJuZPKWpwAAAGOYH_8EgEAAAH2AQBvbm9fdHhuX2JpZDcgICBvbm9fdHhuX2ltcDEgICCU_C-H/https://www.amazon.com/Mens-Face-Moisturizer-Cream-Moisturizing/dp/B09M7CV35V/ref=sxin_15_sbv_search_btf?content-id=amzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f%3Aamzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;crid=2HBVS1V0LA4WH&amp;cv_ct_cx=Kiehls+Moisturizer&amp;dib=eyJ2IjoiMSJ9.Hiwi-zPDol8eY6DFk84oNA.dWPlm9a9XP1PqF3-cv0d9xQABRWnIak03kQtvEWO3As&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;pd_rd_i=B09M7CV35V&amp;pd_rd_r=57c1ed39-064e-4799-8858-f959e2e92fd7&amp;pd_rd_w=Ppboc&amp;pd_rd_wg=EBs5Y&amp;pf_rd_p=c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;pf_rd_r=AK0CP3X5WY9PV7NB8Q2H&amp;qid=1711015984&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=kie%2Caps%2C309&amp;sr=1-1-5190daf0-67e3-427c-bea6-c72c1df98776</t>
+    <t>https://aax-us-iad.amazon.com/x/c/RPoQlShV-r_Px2TQj7TgU10AAAGOYImDsAEAAAH2AQBvbm9fdHhuX2JpZDQgICBvbm9fdHhuX2ltcDEgICAahBbQ/https://www.amazon.com/Mens-Face-Moisturizer-Cream-Moisturizing/dp/B09M7CV35V/ref=sxin_15_sbv_search_btf?content-id=amzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f%3Aamzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;crid=3AHLI3EMS6CUT&amp;cv_ct_cx=Kiehls+Moisturizer&amp;dib=eyJ2IjoiMSJ9.Hiwi-zPDol8eY6DFk84oNA.dWPlm9a9XP1PqF3-cv0d9xQABRWnIak03kQtvEWO3As&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;pd_rd_i=B09M7CV35V&amp;pd_rd_r=91ebc846-c5f7-4fb1-9455-888195fb1bb9&amp;pd_rd_w=YttLh&amp;pd_rd_wg=CbGfL&amp;pf_rd_p=c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;pf_rd_r=Q12M3XRSG7TQTT95JR90&amp;qid=1711016608&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=kieh%2Caps%2C318&amp;sr=1-1-5190daf0-67e3-427c-bea6-c72c1df98776</t>
   </si>
   <si>
     <t>Creme De Corps Body Moisturizer 250ml/8.4oz</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Creme-Corps-Moisturizer-250ml-8-4oz/dp/B00BLZN8R0/ref=sr_1_13?crid=2HBVS1V0LA4WH&amp;dib=eyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpSs9o_t3QHLWBaxspjS5lAKiDmRMP-eVIwnVZYnaGkksVXAv9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZKG3g7ADm48Rwzbx5jzA3ZE8glvJWG7oSK_mEfMGGqUMQ1aUrPNKnXk0rdDFOWbXY9trpPT66IneayRvI9gpAGYxNLfz__dJ3RIXiBcIegWg.p657uqHHMMCCOEdLp_5F-AkccD9nOynePOJX4H2WN3s&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711015984&amp;sprefix=kie%2Caps%2C309&amp;sr=8-13</t>
-  </si>
-  <si>
-    <t>Rapid Wrinkle Repair Retinol Face Moisturizer, Daily Anti-Aging Face Cream with Retinol &amp; Hyaluronic Acid to Fight Fine Lines, Wrinkles, &amp; Dark Spots, 1.7 oz</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NzQ2MTExNjU3NjQwMDgwOjE3MTEwMTU5ODQ6c3BfbXRmOjMwMDE1MDQ5NDM1NDMwMjo6MDo6&amp;url=%2FNeutrogena-Wrinkle-Retinol-Anti-Wrinkle-Regenerating%2Fdp%2FB01HOHBS6G%2Fref%3Dsr_1_28_sspa%3Fcrid%3D2HBVS1V0LA4WH%26dib%3DeyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpSs9o_t3QHLWBaxspjS5lAKiDmRMP-eVIwnVZYnaGkksVXAv9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZKG3g7ADm48Rwzbx5jzA3ZE8glvJWG7oSK_mEfMGGqUMQ1aUrPNKnXk0rdDFOWbXY9trpPT66IneayRvI9gpAGYxNLfz__dJ3RIXiBcIegWg.p657uqHHMMCCOEdLp_5F-AkccD9nOynePOJX4H2WN3s%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711015984%26sprefix%3Dkie%252Caps%252C309%26sr%3D8-28-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/Creme-Corps-Moisturizer-250ml-8-4oz/dp/B00BLZN8R0/ref=sr_1_13?crid=3AHLI3EMS6CUT&amp;dib=eyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On63Av9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZesr-8ynFMzyxSsLDbWtsKFAJ80qf2hOSq2rlUMi3wSDirF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.xe8xm1CFl5reNC8TgUEOmdJMlnCEEfmhmh1t1bZGOO0&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711016608&amp;sprefix=kieh%2Caps%2C318&amp;sr=8-13</t>
+  </si>
+  <si>
+    <t>Dynasty Cream Hydrating Face Moisturizer for Dry, Sensitive Skin, Korean Skincare for Men and Women 50ml, 1.69 fl.oz</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MzIyODkwMDUyOTY3MDgwOjE3MTEwMTY2MDg6c3BfbXRmOjMwMDE1MzkzMjkwODYwMjo6MDo6&amp;url=%2FBeauty-Joseon-Dynasty-renewed-version%2Fdp%2FB08WJQ3XJD%2Fref%3Dsr_1_26_sspa%3Fcrid%3D3AHLI3EMS6CUT%26dib%3DeyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On63Av9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZesr-8ynFMzyxSsLDbWtsKFAJ80qf2hOSq2rlUMi3wSDirF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.xe8xm1CFl5reNC8TgUEOmdJMlnCEEfmhmh1t1bZGOO0%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711016608%26sprefix%3Dkieh%252Caps%252C318%26sr%3D8-26-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Triple Age Repair Anti-Aging Daily Facial Moisturizer with SPF 25 Sunscreen &amp; Vitamin C, Firming Anti-Wrinkle Face &amp; Neck Cream for Dark Spots, Glycerin &amp; Shea Butter, 1.7 oz</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NzQ2MTExNjU3NjQwMDgwOjE3MTEwMTU5ODQ6c3BfbXRmOjMwMDEwNDY1NDQxNjMwMjo6MDo6&amp;url=%2FNeutrogena-Moisturizer-Sunscreen-Corrector-Glycerin%2Fdp%2FB00HNSSPHC%2Fref%3Dsr_1_27_sspa%3Fcrid%3D2HBVS1V0LA4WH%26dib%3DeyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpSs9o_t3QHLWBaxspjS5lAKiDmRMP-eVIwnVZYnaGkksVXAv9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZKG3g7ADm48Rwzbx5jzA3ZE8glvJWG7oSK_mEfMGGqUMQ1aUrPNKnXk0rdDFOWbXY9trpPT66IneayRvI9gpAGYxNLfz__dJ3RIXiBcIegWg.p657uqHHMMCCOEdLp_5F-AkccD9nOynePOJX4H2WN3s%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711015984%26sprefix%3Dkie%252Caps%252C309%26sr%3D8-27-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MzIyODkwMDUyOTY3MDgwOjE3MTEwMTY2MDg6c3BfbXRmOjMwMDEwNDY1NDQxNjMwMjo6MDo6&amp;url=%2FNeutrogena-Moisturizer-Sunscreen-Corrector-Glycerin%2Fdp%2FB00HNSSPHC%2Fref%3Dsr_1_25_sspa%3Fcrid%3D3AHLI3EMS6CUT%26dib%3DeyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On63Av9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZesr-8ynFMzyxSsLDbWtsKFAJ80qf2hOSq2rlUMi3wSDirF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.xe8xm1CFl5reNC8TgUEOmdJMlnCEEfmhmh1t1bZGOO0%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711016608%26sprefix%3Dkieh%252Caps%252C318%26sr%3D8-25-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Rapid Wrinkle Repair Retinol Face Moisturizer with SPF 30 Sunscreen, Daily Anti-Aging Face Cream with Retinol &amp; Hyaluronic Acid to Fight Fine Lines, Wrinkles, &amp; Dark Spots, 1 fl. oz</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MzIyODkwMDUyOTY3MDgwOjE3MTEwMTY2MDg6c3BfbXRmOjMwMDEwNDY1NDQxNjQwMjo6MDo6&amp;url=%2FNeutrogena-Wrinkle-Anti-Wrinkle-Moisturizer-Sunscreen%2Fdp%2FB004D2C57M%2Fref%3Dsr_1_27_sspa%3Fcrid%3D3AHLI3EMS6CUT%26dib%3DeyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On63Av9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZesr-8ynFMzyxSsLDbWtsKFAJ80qf2hOSq2rlUMi3wSDirF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.xe8xm1CFl5reNC8TgUEOmdJMlnCEEfmhmh1t1bZGOO0%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711016608%26sprefix%3Dkieh%252Caps%252C318%26sr%3D8-27-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Facial Moisturizers Clear Complexion Daily Moisturizer Pump,4 fl oz</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NzQ2MTExNjU3NjQwMDgwOjE3MTEwMTU5ODQ6c3BfbXRmOjMwMDA4MjEzMzk4MTcwMjo6MDo6&amp;url=%2FAveeno-Acne-Fighting-Moisturizer-Breakout-Prone-Hypoallergenic%2Fdp%2FB00006FRW7%2Fref%3Dsr_1_26_sspa%3Fcrid%3D2HBVS1V0LA4WH%26dib%3DeyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpSs9o_t3QHLWBaxspjS5lAKiDmRMP-eVIwnVZYnaGkksVXAv9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZKG3g7ADm48Rwzbx5jzA3ZE8glvJWG7oSK_mEfMGGqUMQ1aUrPNKnXk0rdDFOWbXY9trpPT66IneayRvI9gpAGYxNLfz__dJ3RIXiBcIegWg.p657uqHHMMCCOEdLp_5F-AkccD9nOynePOJX4H2WN3s%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711015984%26sprefix%3Dkie%252Caps%252C309%26sr%3D8-26-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MzIyODkwMDUyOTY3MDgwOjE3MTEwMTY2MDg6c3BfbXRmOjMwMDA4MjEzMzk4MTcwMjo6MDo6&amp;url=%2FAveeno-Acne-Fighting-Moisturizer-Breakout-Prone-Hypoallergenic%2Fdp%2FB00006FRW7%2Fref%3Dsr_1_24_sspa%3Fcrid%3D3AHLI3EMS6CUT%26dib%3DeyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On63Av9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZesr-8ynFMzyxSsLDbWtsKFAJ80qf2hOSq2rlUMi3wSDirF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.xe8xm1CFl5reNC8TgUEOmdJMlnCEEfmhmh1t1bZGOO0%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711016608%26sprefix%3Dkieh%252Caps%252C318%26sr%3D8-24-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Positively Radiant Daily Facial Moisturizer with Broad Spectrum SPF 30 Sunscreen &amp; Soy, Helps Improves Skin Tone &amp; Texture, Hypoallergenic, Oil-Free &amp; Non-Comedogenic, 2.3 fl. oz</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NzQ2MTExNjU3NjQwMDgwOjE3MTEwMTU5ODQ6c3BfbXRmOjIwMDA3ODY5NzgyMTA5ODo6MDo6&amp;url=%2FAveeno-Positively-Moisturizer-Hypoallergenic-Non-Comedogenic%2Fdp%2FB0B7YQBVS1%2Fref%3Dsr_1_25_sspa%3Fcrid%3D2HBVS1V0LA4WH%26dib%3DeyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpSs9o_t3QHLWBaxspjS5lAKiDmRMP-eVIwnVZYnaGkksVXAv9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZKG3g7ADm48Rwzbx5jzA3ZE8glvJWG7oSK_mEfMGGqUMQ1aUrPNKnXk0rdDFOWbXY9trpPT66IneayRvI9gpAGYxNLfz__dJ3RIXiBcIegWg.p657uqHHMMCCOEdLp_5F-AkccD9nOynePOJX4H2WN3s%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711015984%26sprefix%3Dkie%252Caps%252C309%26sr%3D8-25-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Crema S Nourishing Face Moisturizer for Women, Skin Care Facial Moisturizer Cream for Dry to Very Dry Skin, Nourishes for up to 24 hours 14.1 oz</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NzQ2MTExNjU3NjQwMDgwOjE3MTEwMTU5ODQ6c3BfbXRmOjMwMDE0MDgwMDgwMjkwMjo6MDo6&amp;url=%2FPonds-Nourishing-Moisturizer-Facial-Nourishes%2Fdp%2FB001F0H77I%2Fref%3Dsr_1_20_sspa%3Fcrid%3D2HBVS1V0LA4WH%26dib%3DeyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpSs9o_t3QHLWBaxspjS5lAKiDmRMP-eVIwnVZYnaGkksVXAv9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZKG3g7ADm48Rwzbx5jzA3ZE8glvJWG7oSK_mEfMGGqUMQ1aUrPNKnXk0rdDFOWbXY9trpPT66IneayRvI9gpAGYxNLfz__dJ3RIXiBcIegWg.p657uqHHMMCCOEdLp_5F-AkccD9nOynePOJX4H2WN3s%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711015984%26sprefix%3Dkie%252Caps%252C309%26sr%3D8-20-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MzIyODkwMDUyOTY3MDgwOjE3MTEwMTY2MDg6c3BfbXRmOjIwMDA3ODY5NzgyMTA5ODo6MDo6&amp;url=%2FAveeno-Positively-Moisturizer-Hypoallergenic-Non-Comedogenic%2Fdp%2FB0B7YQBVS1%2Fref%3Dsr_1_19_sspa%3Fcrid%3D3AHLI3EMS6CUT%26dib%3DeyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On63Av9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZesr-8ynFMzyxSsLDbWtsKFAJ80qf2hOSq2rlUMi3wSDirF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.xe8xm1CFl5reNC8TgUEOmdJMlnCEEfmhmh1t1bZGOO0%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711016608%26sprefix%3Dkieh%252Caps%252C318%26sr%3D8-19-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Moisturizing Lotion (20 fl. oz., 2 pk.)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Cetaphil-Moisturizing-Lotion-fl-oz/dp/B01M61GS64/ref=sr_1_12?crid=39O9G8RS55T4C&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetZW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.wtAUZiRiSEqVsV5pxgOTWT45nRlIzx-CRuuwyF9c43E&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711015990&amp;sprefix=ceta%2Caps%2C293&amp;sr=8-12</t>
+    <t>https://www.amazon.com/Cetaphil-Moisturizing-Lotion-fl-oz/dp/B01M61GS64/ref=sr_1_11?crid=6HAP8MFM1QSO&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711016613&amp;sprefix=ceta%2Caps%2C300&amp;sr=8-11</t>
+  </si>
+  <si>
+    <t>Advanced Relief Lotion with Shea Butter, 2 Pack - 16 oz, For Dry, Sensitive Skin, 48-Hr Moisture, Restores Skin Barrier, Fragrance Free, Dermatologist Recommended Sensitive Skincare Brand</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/CETAPHIL-Advanced-Relief-Lotion-Butter/dp/B07GFG4Y55/ref=sr_1_13?crid=6HAP8MFM1QSO&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711016613&amp;sprefix=ceta%2Caps%2C300&amp;sr=8-13</t>
   </si>
   <si>
     <t>Intensive Repair Body Lotion, Lotion for Very Dry Skin, 8.4 Fl Oz (Pack of 3)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NTkxMTM2MDY1NzA4MDgwOjE3MTEwMTU5OTA6c3BfbXRmOjMwMDA1OTY4NTI5ODkwMjo6MDo6&amp;url=%2FEucerin-Intensive-Repair-Lotion-Bottle%2Fdp%2FB000O3SS9S%2Fref%3Dsr_1_19_sspa%3Fcrid%3D39O9G8RS55T4C%26dib%3DeyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetZW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.wtAUZiRiSEqVsV5pxgOTWT45nRlIzx-CRuuwyF9c43E%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711015990%26sprefix%3Dceta%252Caps%252C293%26sr%3D8-19-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Advanced Relief Lotion with Shea Butter, 2 Pack - 16 oz, For Dry, Sensitive Skin, 48-Hr Moisture, Restores Skin Barrier, Fragrance Free, Dermatologist Recommended Sensitive Skincare Brand</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/CETAPHIL-Advanced-Relief-Lotion-Butter/dp/B07GFG4Y55/ref=sr_1_13?crid=39O9G8RS55T4C&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetZW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.wtAUZiRiSEqVsV5pxgOTWT45nRlIzx-CRuuwyF9c43E&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711015990&amp;sprefix=ceta%2Caps%2C293&amp;sr=8-13</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxODI2Mzk1ODc0NTcwODA6MTcxMTAxNjYxMzpzcF9tdGY6MzAwMDU5Njg1Mjk4OTAyOjowOjo&amp;url=%2FEucerin-Intensive-Repair-Lotion-Bottle%2Fdp%2FB000O3SS9S%2Fref%3Dsr_1_19_sspa%3Fcrid%3D6HAP8MFM1QSO%26dib%3DeyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711016613%26sprefix%3Dceta%252Caps%252C300%26sr%3D8-19-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Cetaphil Body Lotion, Advanced Relief Lotion With Shea Butter For Dry, Sensitive Skin, 16 Oz Pack of 2, Fragrance Free, Hypoallergenic, Non-Comedogenic</t>
   </si>
   <si>
-    <t>https://www.amazon.com/CETAPHIL-Sensitive-Fragrance-Hypoallergenic-Non-Comedogenic/dp/B099N1CHF5/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=39O9G8RS55T4C&amp;cv_ct_cx=Cetaphil+Lotion&amp;dib=eyJ2IjoiMSJ9.Qz4goJSy43pzZDk4Tn-8-X0bu1oTS4vCsgFuzRMKQ3HYWFoN2y6AUzyi_kliU4YnyIGehde6DspkB-BesQSFeQ.n4Zp4fKhCaw5LmRdfoiTvxWMWWwW139oEkCpa3wl-gc&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;pd_rd_i=B099N1CHF5&amp;pd_rd_r=ba5b7c19-78a5-415e-a912-5908af746dc5&amp;pd_rd_w=c7o5E&amp;pd_rd_wg=WH69R&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=5CB0TY2W2YK6931QZSRA&amp;qid=1711015990&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=ceta%2Caps%2C293&amp;sr=1-5-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
+    <t>https://www.amazon.com/CETAPHIL-Sensitive-Fragrance-Hypoallergenic-Non-Comedogenic/dp/B099N1CHF5/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=6HAP8MFM1QSO&amp;cv_ct_cx=Cetaphil+Lotion&amp;dib=eyJ2IjoiMSJ9.Qz4goJSy43pzZDk4Tn-8-X0bu1oTS4vCsgFuzRMKQ3HYWFoN2y6AUzyi_kliU4YnyIGehde6DspkB-BesQSFeQ.n4Zp4fKhCaw5LmRdfoiTvxWMWWwW139oEkCpa3wl-gc&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;pd_rd_i=B099N1CHF5&amp;pd_rd_r=58aa9419-c65c-4671-9e50-33036a184eed&amp;pd_rd_w=De1lQ&amp;pd_rd_wg=4wIIa&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=C3CPR00593MJHKTE9STF&amp;qid=1711016613&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=ceta%2Caps%2C300&amp;sr=1-5-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
   </si>
   <si>
     <t>Body Lotion, Advanced Relief Lotion With Shea Butter For Dry, Sensitive Skin, 16 Oz Pack of 2, Fragrance Free, Hypoallergenic, Non-Comedogenic</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NTkxMTM2MDY1NzA4MDgwOjE3MTEwMTU5OTA6c3BfbXRmOjIwMDA3MDc2NTczODg5ODo6MDo6&amp;url=%2FCETAPHIL-Sensitive-Fragrance-Hypoallergenic-Non-Comedogenic%2Fdp%2FB099N1CHF5%2Fref%3Dsr_1_18_sspa%3Fcrid%3D39O9G8RS55T4C%26dib%3DeyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetZW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.wtAUZiRiSEqVsV5pxgOTWT45nRlIzx-CRuuwyF9c43E%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711015990%26sprefix%3Dceta%252Caps%252C293%26sr%3D8-18-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxODI2Mzk1ODc0NTcwODA6MTcxMTAxNjYxMzpzcF9tdGY6MjAwMDcwNzY1NzM4ODk4OjowOjo&amp;url=%2FCETAPHIL-Sensitive-Fragrance-Hypoallergenic-Non-Comedogenic%2Fdp%2FB099N1CHF5%2Fref%3Dsr_1_18_sspa%3Fcrid%3D6HAP8MFM1QSO%26dib%3DeyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711016613%26sprefix%3Dceta%252Caps%252C300%26sr%3D8-18-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Moisturizing Lotion 20oz</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Cetaphil-Moisturizing-Lotion-20oz/dp/B07B2B7P6F/ref=sr_1_10?crid=39O9G8RS55T4C&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetZW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.wtAUZiRiSEqVsV5pxgOTWT45nRlIzx-CRuuwyF9c43E&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711015990&amp;sprefix=ceta%2Caps%2C293&amp;sr=8-10</t>
+    <t>https://www.amazon.com/Cetaphil-Moisturizing-Lotion-20oz/dp/B07B2B7P6F/ref=sr_1_10?crid=6HAP8MFM1QSO&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711016613&amp;sprefix=ceta%2Caps%2C300&amp;sr=8-10</t>
   </si>
   <si>
     <t>Intensive Healing Lotion with Ceramides 16 oz For Dry, Rough, Flaky Sensitive Skin 24-Hour Hydration Fragrance, Paraben &amp; Gluten Free</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Intensive-Ceramides-Sensitive-Hydration-Dermatologist/dp/B07S7FRWKR/ref=sr_1_9?crid=39O9G8RS55T4C&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetZW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.wtAUZiRiSEqVsV5pxgOTWT45nRlIzx-CRuuwyF9c43E&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711015990&amp;sprefix=ceta%2Caps%2C293&amp;sr=8-9</t>
+    <t>https://www.amazon.com/Intensive-Ceramides-Sensitive-Hydration-Dermatologist/dp/B07S7FRWKR/ref=sr_1_9?crid=6HAP8MFM1QSO&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711016613&amp;sprefix=ceta%2Caps%2C300&amp;sr=8-9</t>
   </si>
   <si>
     <t>Moisturizing Lotion, 8 fl oz (Pack of 3), Hydrating Moisturizer For All Skin Types, Instant Hydration lasting up to 24 Hours, Non-Greasy, Lotion for Even the Most Sensitive Skin</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Moisturizing-Hydrating-Moisturizer-Hydration-Non-Greasy/dp/B001ET734C/ref=sr_1_22?crid=39O9G8RS55T4C&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetZW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.wtAUZiRiSEqVsV5pxgOTWT45nRlIzx-CRuuwyF9c43E&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711015990&amp;sprefix=ceta%2Caps%2C293&amp;sr=8-22</t>
+    <t>https://www.amazon.com/Moisturizing-Hydrating-Moisturizer-Hydration-Non-Greasy/dp/B001ET734C/ref=sr_1_22?crid=6HAP8MFM1QSO&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711016613&amp;sprefix=ceta%2Caps%2C300&amp;sr=8-22</t>
   </si>
   <si>
     <t>Cetaphil Body Moisturizer, Hydrating Moisturizing Lotion for All Skin Types, Suitable for Sensitive Skin, NEW 16 oz Pack of 2, Fragrance Free, Hypoallergenic, Non-Comedogenic</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Moisturizer-Hydrating-Moisturizing-Hypoallergenic-Non-Comedogenic/dp/B099MYSH3X/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=39O9G8RS55T4C&amp;cv_ct_cx=Cetaphil+Lotion&amp;dib=eyJ2IjoiMSJ9.Qz4goJSy43pzZDk4Tn-8-X0bu1oTS4vCsgFuzRMKQ3HYWFoN2y6AUzyi_kliU4YnyIGehde6DspkB-BesQSFeQ.n4Zp4fKhCaw5LmRdfoiTvxWMWWwW139oEkCpa3wl-gc&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;pd_rd_i=B099MYSH3X&amp;pd_rd_r=ba5b7c19-78a5-415e-a912-5908af746dc5&amp;pd_rd_w=c7o5E&amp;pd_rd_wg=WH69R&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=5CB0TY2W2YK6931QZSRA&amp;qid=1711015990&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=ceta%2Caps%2C293&amp;sr=1-4-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
+    <t>https://www.amazon.com/Moisturizer-Hydrating-Moisturizing-Hypoallergenic-Non-Comedogenic/dp/B099MYSH3X/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=6HAP8MFM1QSO&amp;cv_ct_cx=Cetaphil+Lotion&amp;dib=eyJ2IjoiMSJ9.Qz4goJSy43pzZDk4Tn-8-X0bu1oTS4vCsgFuzRMKQ3HYWFoN2y6AUzyi_kliU4YnyIGehde6DspkB-BesQSFeQ.n4Zp4fKhCaw5LmRdfoiTvxWMWWwW139oEkCpa3wl-gc&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;pd_rd_i=B099MYSH3X&amp;pd_rd_r=58aa9419-c65c-4671-9e50-33036a184eed&amp;pd_rd_w=De1lQ&amp;pd_rd_wg=4wIIa&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=C3CPR00593MJHKTE9STF&amp;qid=1711016613&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=ceta%2Caps%2C300&amp;sr=1-4-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
   </si>
   <si>
     <t>Daily Moisturizing Lotion for Dry Skin | Body Lotion &amp; Face Moisturizer with Hyaluronic Acid and Ceramides | Daily Moisturizer | Fragrance Free | Oil-Free | 19 Ounce</t>
@@ -222,88 +216,91 @@
     <t>4.8 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NTkxMTM2MDY1NzA4MDgwOjE3MTEwMTU5OTA6c3BfYXRmOjIwMDAyNzMyMzMxMjIxMTo6MDo6&amp;url=%2FCeraVe-Moisturizing-Lotion-Hyaluronic-Fragrance%2Fdp%2FB07RK4HST7%2Fref%3Dsr_1_1_sspa%3Fcrid%3D39O9G8RS55T4C%26dib%3DeyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetZW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.wtAUZiRiSEqVsV5pxgOTWT45nRlIzx-CRuuwyF9c43E%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711015990%26sprefix%3Dceta%252Caps%252C293%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxODI2Mzk1ODc0NTcwODA6MTcxMTAxNjYxMzpzcF9hdGY6MjAwMDI3MzIzMzEyMjExOjowOjo&amp;url=%2FCeraVe-Moisturizing-Lotion-Hyaluronic-Fragrance%2Fdp%2FB07RK4HST7%2Fref%3Dsr_1_1_sspa%3Fcrid%3D6HAP8MFM1QSO%26dib%3DeyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711016613%26sprefix%3Dceta%252Caps%252C300%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Restoring Body Lotion with Antioxidants for Aging Skin, Great for Neck and Chest Areas, Fragrance and Paraben Free, Suitable for Sensitve Skin 16 oz. Bottle</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Cetaphil-Restoring-Lotion-Antioxidants-Bottle/dp/B07S6CPWH4/ref=sr_1_11?crid=39O9G8RS55T4C&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetZW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.wtAUZiRiSEqVsV5pxgOTWT45nRlIzx-CRuuwyF9c43E&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711015990&amp;sprefix=ceta%2Caps%2C293&amp;sr=8-11</t>
+    <t>https://www.amazon.com/Cetaphil-Restoring-Lotion-Antioxidants-Bottle/dp/B07S6CPWH4/ref=sr_1_12?crid=6HAP8MFM1QSO&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711016613&amp;sprefix=ceta%2Caps%2C300&amp;sr=8-12</t>
   </si>
   <si>
     <t>Cetaphil Face Cream, Healthy Radiance Renewing Cream, Visbily Reduces Look of Dark Spots, Brightening Lotion, Designed for Sensitive Skin, Hypoallergenic, Fragrance Free, 1.7oz</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Cetaphil-Brightening-Sensitive-Hypoallergenic-Fragrance/dp/B093VNVYJT/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=39O9G8RS55T4C&amp;cv_ct_cx=Cetaphil+Lotion&amp;dib=eyJ2IjoiMSJ9.Qz4goJSy43pzZDk4Tn-8-X0bu1oTS4vCsgFuzRMKQ3HYWFoN2y6AUzyi_kliU4YnyIGehde6DspkB-BesQSFeQ.n4Zp4fKhCaw5LmRdfoiTvxWMWWwW139oEkCpa3wl-gc&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;pd_rd_i=B093VNVYJT&amp;pd_rd_r=ba5b7c19-78a5-415e-a912-5908af746dc5&amp;pd_rd_w=c7o5E&amp;pd_rd_wg=WH69R&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=5CB0TY2W2YK6931QZSRA&amp;qid=1711015990&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=ceta%2Caps%2C293&amp;sr=1-3-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
+    <t>https://www.amazon.com/Cetaphil-Brightening-Sensitive-Hypoallergenic-Fragrance/dp/B093VNVYJT/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=6HAP8MFM1QSO&amp;cv_ct_cx=Cetaphil+Lotion&amp;dib=eyJ2IjoiMSJ9.Qz4goJSy43pzZDk4Tn-8-X0bu1oTS4vCsgFuzRMKQ3HYWFoN2y6AUzyi_kliU4YnyIGehde6DspkB-BesQSFeQ.n4Zp4fKhCaw5LmRdfoiTvxWMWWwW139oEkCpa3wl-gc&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;pd_rd_i=B093VNVYJT&amp;pd_rd_r=58aa9419-c65c-4671-9e50-33036a184eed&amp;pd_rd_w=De1lQ&amp;pd_rd_wg=4wIIa&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=C3CPR00593MJHKTE9STF&amp;qid=1711016613&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=ceta%2Caps%2C300&amp;sr=1-3-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
   </si>
   <si>
     <t>Body Lotion, Advanced Relief Lotion with Shea Butter for Dry, Sensitive Skin, NEW 20oz, Fragrance Free, Hypoallergenic, Non-Comedogenic</t>
   </si>
   <si>
-    <t>https://www.amazon.com/CETAPHIL-Sensitive-Fragrance-Hypoallergenic-Non-Comedogenic/dp/B099MJ4Q9V/ref=sr_1_5?crid=39O9G8RS55T4C&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetZW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.wtAUZiRiSEqVsV5pxgOTWT45nRlIzx-CRuuwyF9c43E&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711015990&amp;sprefix=ceta%2Caps%2C293&amp;sr=8-5</t>
+    <t>https://www.amazon.com/CETAPHIL-Sensitive-Fragrance-Hypoallergenic-Non-Comedogenic/dp/B099MJ4Q9V/ref=sr_1_5?crid=6HAP8MFM1QSO&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711016613&amp;sprefix=ceta%2Caps%2C300&amp;sr=8-5</t>
   </si>
   <si>
     <t>Daily Advance Ultra Hydrating Lotion - White 100 Grams</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Cetaphil-Daily-Advance-Hydrating-Lotion/dp/B01ER4HUWU/ref=sr_1_21?crid=39O9G8RS55T4C&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetZW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.wtAUZiRiSEqVsV5pxgOTWT45nRlIzx-CRuuwyF9c43E&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711015990&amp;sprefix=ceta%2Caps%2C293&amp;sr=8-21</t>
+    <t>https://www.amazon.com/Cetaphil-Daily-Advance-Hydrating-Lotion/dp/B01ER4HUWU/ref=sr_1_21?crid=6HAP8MFM1QSO&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711016613&amp;sprefix=ceta%2Caps%2C300&amp;sr=8-21</t>
   </si>
   <si>
     <t>Cetaphil Face Moisturizer, Daily Oil Free Facial Moisturizer with SPF 35, For Dry or Oily Combination Sensitive Skin, Fragrance Free Face Lotion (Packaging May Vary)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Cetaphil-Moisturizer-Sunscreen-Sensitive-Combination/dp/B08LR42YZG/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=39O9G8RS55T4C&amp;cv_ct_cx=Cetaphil+Lotion&amp;dib=eyJ2IjoiMSJ9.Qz4goJSy43pzZDk4Tn-8-X0bu1oTS4vCsgFuzRMKQ3HYWFoN2y6AUzyi_kliU4YnyIGehde6DspkB-BesQSFeQ.n4Zp4fKhCaw5LmRdfoiTvxWMWWwW139oEkCpa3wl-gc&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;pd_rd_i=B08LR42YZG&amp;pd_rd_r=ba5b7c19-78a5-415e-a912-5908af746dc5&amp;pd_rd_w=c7o5E&amp;pd_rd_wg=WH69R&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=5CB0TY2W2YK6931QZSRA&amp;qid=1711015990&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=ceta%2Caps%2C293&amp;sr=1-2-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
+    <t>https://www.amazon.com/Cetaphil-Moisturizer-Sunscreen-Sensitive-Combination/dp/B08LR42YZG/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=6HAP8MFM1QSO&amp;cv_ct_cx=Cetaphil+Lotion&amp;dib=eyJ2IjoiMSJ9.Qz4goJSy43pzZDk4Tn-8-X0bu1oTS4vCsgFuzRMKQ3HYWFoN2y6AUzyi_kliU4YnyIGehde6DspkB-BesQSFeQ.n4Zp4fKhCaw5LmRdfoiTvxWMWWwW139oEkCpa3wl-gc&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;pd_rd_i=B08LR42YZG&amp;pd_rd_r=58aa9419-c65c-4671-9e50-33036a184eed&amp;pd_rd_w=De1lQ&amp;pd_rd_wg=4wIIa&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=C3CPR00593MJHKTE9STF&amp;qid=1711016613&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=ceta%2Caps%2C300&amp;sr=1-2-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
   </si>
   <si>
     <t>Cetaphil Daily Hydrating Lotion for Face, With Hyaluronic Acid, 3 fl oz, Lasting 24 Hr Hydration, for Combination Skin, No Added Fragrance, Non-Comedogenic</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Hyaluronic-Combination-Non-Comedogenic-Dermatologist-Recommended/dp/B01MG4PSK4/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=39O9G8RS55T4C&amp;cv_ct_cx=Cetaphil+Lotion&amp;dib=eyJ2IjoiMSJ9.Qz4goJSy43pzZDk4Tn-8-X0bu1oTS4vCsgFuzRMKQ3HYWFoN2y6AUzyi_kliU4YnyIGehde6DspkB-BesQSFeQ.n4Zp4fKhCaw5LmRdfoiTvxWMWWwW139oEkCpa3wl-gc&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;pd_rd_i=B01MG4PSK4&amp;pd_rd_r=ba5b7c19-78a5-415e-a912-5908af746dc5&amp;pd_rd_w=c7o5E&amp;pd_rd_wg=WH69R&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=5CB0TY2W2YK6931QZSRA&amp;qid=1711015990&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=ceta%2Caps%2C293&amp;sr=1-1-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
+    <t>https://www.amazon.com/Hyaluronic-Combination-Non-Comedogenic-Dermatologist-Recommended/dp/B01MG4PSK4/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=6HAP8MFM1QSO&amp;cv_ct_cx=Cetaphil+Lotion&amp;dib=eyJ2IjoiMSJ9.Qz4goJSy43pzZDk4Tn-8-X0bu1oTS4vCsgFuzRMKQ3HYWFoN2y6AUzyi_kliU4YnyIGehde6DspkB-BesQSFeQ.n4Zp4fKhCaw5LmRdfoiTvxWMWWwW139oEkCpa3wl-gc&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;pd_rd_i=B01MG4PSK4&amp;pd_rd_r=58aa9419-c65c-4671-9e50-33036a184eed&amp;pd_rd_w=De1lQ&amp;pd_rd_wg=4wIIa&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=C3CPR00593MJHKTE9STF&amp;qid=1711016613&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=ceta%2Caps%2C300&amp;sr=1-1-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
   </si>
   <si>
     <t>Cracked Skin Repair Lotion, 16 oz, For Very Rough &amp; Cracked, Sensitive Skin, 24 Hour Hydration, Protects &amp; Hydrates Cracked Skin, Hypoallergenic, Fragrance Free Packaging may vary</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Cetaphil-16oz-Cracked-Repair-Lotion/dp/B093VRHLP5/ref=sr_1_6?crid=39O9G8RS55T4C&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetZW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.wtAUZiRiSEqVsV5pxgOTWT45nRlIzx-CRuuwyF9c43E&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711015990&amp;sprefix=ceta%2Caps%2C293&amp;sr=8-6</t>
+    <t>https://www.amazon.com/Cetaphil-16oz-Cracked-Repair-Lotion/dp/B093VRHLP5/ref=sr_1_6?crid=6HAP8MFM1QSO&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711016613&amp;sprefix=ceta%2Caps%2C300&amp;sr=8-6</t>
   </si>
   <si>
     <t>Daily Hydrating Lotion for Face, With Hyaluronic Acid, 3 fl oz, Lasting 24 Hr Hydration, for Combination Skin, No Added Fragrance, Non-Comedogenic</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Hyaluronic-Combination-Non-Comedogenic-Dermatologist-Recommended/dp/B01MG4PSK4/ref=sr_1_7?crid=39O9G8RS55T4C&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetZW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.wtAUZiRiSEqVsV5pxgOTWT45nRlIzx-CRuuwyF9c43E&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711015990&amp;sprefix=ceta%2Caps%2C293&amp;sr=8-7</t>
+    <t>https://www.amazon.com/Hyaluronic-Combination-Non-Comedogenic-Dermatologist-Recommended/dp/B01MG4PSK4/ref=sr_1_7?crid=6HAP8MFM1QSO&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711016613&amp;sprefix=ceta%2Caps%2C300&amp;sr=8-7</t>
   </si>
   <si>
     <t>Original Healing Rich Body Lotion, Body Lotion for Dry Skin, 16.9 Fl Oz Pump Bottle</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NTkxMTM2MDY1NzA4MDgwOjE3MTEwMTU5OTA6c3BfbXRmOjMwMDA1OTY4NTI5OTEwMjo6MDo6&amp;url=%2FEucerin-Original-Healing-Lotion-packaging%2Fdp%2FB00BPF3LN2%2Fref%3Dsr_1_20_sspa%3Fcrid%3D39O9G8RS55T4C%26dib%3DeyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetZW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.wtAUZiRiSEqVsV5pxgOTWT45nRlIzx-CRuuwyF9c43E%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711015990%26sprefix%3Dceta%252Caps%252C293%26sr%3D8-20-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxODI2Mzk1ODc0NTcwODA6MTcxMTAxNjYxMzpzcF9tdGY6MzAwMDU5Njg1Mjk5MTAyOjowOjo&amp;url=%2FEucerin-Original-Healing-Lotion-packaging%2Fdp%2FB00BPF3LN2%2Fref%3Dsr_1_20_sspa%3Fcrid%3D6HAP8MFM1QSO%26dib%3DeyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711016613%26sprefix%3Dceta%252Caps%252C300%26sr%3D8-20-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Baby Eczema Soothing Lotion, Colloidal Oatmeal, Paraben Free, Hypoallergenic, Dry Skin, 10 Fluid Ounce</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Cetaphil-Baby-Soothing-Colloidal-Hypoallergenic/dp/B07ZZTTDWP/ref=sr_1_24?crid=39O9G8RS55T4C&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetZW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.wtAUZiRiSEqVsV5pxgOTWT45nRlIzx-CRuuwyF9c43E&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711015990&amp;sprefix=ceta%2Caps%2C293&amp;sr=8-24</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NTkxMTM2MDY1NzA4MDgwOjE3MTEwMTU5OTA6c3BfbXRmOjIwMDAyNDI2NzU2Mzg3MTo6MDo6&amp;url=%2FCetaphil-Baby-Soothing-Colloidal-Hypoallergenic%2Fdp%2FB07ZZTTDWP%2Fref%3Dsr_1_26_sspa%3Fcrid%3D39O9G8RS55T4C%26dib%3DeyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetZW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.wtAUZiRiSEqVsV5pxgOTWT45nRlIzx-CRuuwyF9c43E%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711015990%26sprefix%3Dceta%252Caps%252C293%26sr%3D8-26-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/Cetaphil-Baby-Soothing-Colloidal-Hypoallergenic/dp/B07ZZTTDWP/ref=sr_1_24?crid=6HAP8MFM1QSO&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711016613&amp;sprefix=ceta%2Caps%2C300&amp;sr=8-24</t>
   </si>
   <si>
     <t>Sheer Hydration Fragrance Free Replenishing Body Lotion for Dry Skin, 16 fl oz, 48Hr Sensitive Skin Body Moisturizer, With Hyaluronic Acid, Vitamin E &amp; B5</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Cetaphil-NULL/dp/B09B1L339V/ref=sr_1_15?crid=39O9G8RS55T4C&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetZW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.wtAUZiRiSEqVsV5pxgOTWT45nRlIzx-CRuuwyF9c43E&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711015990&amp;sprefix=ceta%2Caps%2C293&amp;sr=8-15</t>
+    <t>https://www.amazon.com/Cetaphil-NULL/dp/B09B1L339V/ref=sr_1_15?crid=6HAP8MFM1QSO&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711016613&amp;sprefix=ceta%2Caps%2C300&amp;sr=8-15</t>
+  </si>
+  <si>
+    <t>Daily Moisturizer, Body Lotion, For Dry Skin, Prebiotic Oat Fragrance Free, 18 fl. oz, Pack of 1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxODI2Mzk1ODc0NTcwODA6MTcxMTAxNjYxMzpzcF9tdGY6MjAwMTM0NDg4NDc1Njk4OjowOjo&amp;url=%2FAveeno-Moisturizing-Soothing-Emollients-Fragrance-Free%2Fdp%2FB001459IEE%2Fref%3Dsr_1_27_sspa%3Fcrid%3D6HAP8MFM1QSO%26dib%3DeyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711016613%26sprefix%3Dceta%252Caps%252C300%26sr%3D8-27-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Baby Daily Lotion, 13.5oz - With Organic Calendula, Vitamin E &amp; Oils, Mineral Oil &amp; Paraben Free, For Sensitive Skin</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Cetaphil-Baby-Calendula-Dermatologist-Clinically/dp/B09JLBDDLD/ref=sr_1_14?crid=39O9G8RS55T4C&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetZW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.wtAUZiRiSEqVsV5pxgOTWT45nRlIzx-CRuuwyF9c43E&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711015990&amp;sprefix=ceta%2Caps%2C293&amp;sr=8-14</t>
+    <t>https://www.amazon.com/Cetaphil-Baby-Calendula-Dermatologist-Clinically/dp/B09JLBDDLD/ref=sr_1_14?crid=6HAP8MFM1QSO&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711016613&amp;sprefix=ceta%2Caps%2C300&amp;sr=8-14</t>
   </si>
   <si>
     <t>Daily Moisture Lotion + Pro-Ceramide with Shea Butter &amp; Glycerin Helps Moisturize Dry Skin, Hydrating Face, Hand &amp; Body Lotion is Lightly Scented &amp; Non-Greasy, 24 fl. oz</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NTkxMTM2MDY1NzA4MDgwOjE3MTEwMTU5OTA6c3BfbXRmOjMwMDA4NzU1MjU5MjQwMjo6MDo6&amp;url=%2FLubriderm-Moisture-Hydrating-Vitamin-Non-Greasy%2Fdp%2FB003JT8PKQ%2Fref%3Dsr_1_17_sspa%3Fcrid%3D39O9G8RS55T4C%26dib%3DeyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetZW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.wtAUZiRiSEqVsV5pxgOTWT45nRlIzx-CRuuwyF9c43E%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711015990%26sprefix%3Dceta%252Caps%252C293%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxODI2Mzk1ODc0NTcwODA6MTcxMTAxNjYxMzpzcF9tdGY6MzAwMDg3NTUyNTkyNDAyOjowOjo&amp;url=%2FLubriderm-Moisture-Hydrating-Vitamin-Non-Greasy%2Fdp%2FB003JT8PKQ%2Fref%3Dsr_1_17_sspa%3Fcrid%3D6HAP8MFM1QSO%26dib%3DeyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711016613%26sprefix%3Dceta%252Caps%252C300%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>The PLASMA Tinted Lip Compound - Shimmery Peach Plumping Lip Gloss, Hyaluronic Acid &amp; Shea Butter Deeply Hydrate - Salicylic Acid &amp; Peptides Visibly Smooth and Improve Lines, Bellini - 15 mL</t>
@@ -312,169 +309,172 @@
     <t>3.9 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MTM2OTI0MjYzMDkxMDgwOjE3MTEwMTU5OTQ6c3BfbXRmOjMwMDAzODMxMzY1MTMwMjo6MDo6&amp;url=%2FBeauty-PLASMA-Tinted-Lip-Compound%2Fdp%2FB0CDPV7RWR%2Fref%3Dsr_1_27_sspa%3Fcrid%3D3TCY7I6DPSQNK%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3DktFpcM2IgAbsZt2riFrCk68OczVITMnRtOscVGqGtxqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.9KULVxkSkk7zC60RqkzPOKi2BEYaFh6F0NlZLOAUgBU%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711015994%26sprefix%3Dvas%252Caps%252C298%26sr%3D8-27-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>The PLASMA Tinted Lip Compound - Sheer Pink Lip Gloss Plumping Treatment, Hyaluronic Acid &amp; Ceramides Deeply Hydrate - Peptides &amp; Salicylic Acid Visibly Smooth and Improve Lines, Rose - 15 mL</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MTM2OTI0MjYzMDkxMDgwOjE3MTEwMTU5OTQ6c3BfbXRmOjMwMDAwNDMzMjE5NzMwMjo6MDo6&amp;url=%2FBeauty-PLASMA-Tinted-Lip-Compound%2Fdp%2FB0C74565W3%2Fref%3Dsr_1_28_sspa%3Fcrid%3D3TCY7I6DPSQNK%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3DktFpcM2IgAbsZt2riFrCk68OczVITMnRtOscVGqGtxqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.9KULVxkSkk7zC60RqkzPOKi2BEYaFh6F0NlZLOAUgBU%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711015994%26sprefix%3Dvas%252Caps%252C298%26sr%3D8-28-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNzQ2NzM2ODIzMDEyMDgwOjE3MTEwMTY2MTg6c3BfbXRmOjMwMDAzODMxMzY1MTMwMjo6MDo6&amp;url=%2FBeauty-PLASMA-Tinted-Lip-Compound%2Fdp%2FB0CDPV7RWR%2Fref%3Dsr_1_28_sspa%3Fcrid%3D23I69FL2MKBIK%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711016618%26sprefix%3Dvas%252Caps%252C314%26sr%3D8-28-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Lip Therapy Original, .25 oz (Pack of 12)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vaseline-Lip-Therapy-Original-Pack/dp/B00PR903YW/ref=sr_1_21?crid=3TCY7I6DPSQNK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3DktFpcM2IgAbsZt2riFrCk68OczVITMnRtOscVGqGtxqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.9KULVxkSkk7zC60RqkzPOKi2BEYaFh6F0NlZLOAUgBU&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711015994&amp;sprefix=vas%2Caps%2C298&amp;sr=8-21</t>
+    <t>https://www.amazon.com/Vaseline-Lip-Therapy-Original-Pack/dp/B00PR903YW/ref=sr_1_21?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-21</t>
   </si>
   <si>
     <t>Lip Therapy Original - Hydrating Lip Balm Pack, Vaseline Stick, Lip Moisturizer for Dry Lips, 0.16 Oz Each (Pack of 12)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vaseline-Therapy-0-16-Original-Pack/dp/B07WTNTWPR/ref=sr_1_16?crid=3TCY7I6DPSQNK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3DktFpcM2IgAbsZt2riFrCk68OczVITMnRtOscVGqGtxqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.9KULVxkSkk7zC60RqkzPOKi2BEYaFh6F0NlZLOAUgBU&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711015994&amp;sprefix=vas%2Caps%2C298&amp;sr=8-16</t>
-  </si>
-  <si>
-    <t>Kissu Lip Mask Scrub | Plumps The Look of Fine Lines &amp; Wrinkles, 9.0 G | 0.32 oz</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MTM2OTI0MjYzMDkxMDgwOjE3MTEwMTU5OTQ6c3BfbXRmOjMwMDEwODQ0Njk2ODUwMjo6MDo6&amp;url=%2FTatcha-Kissu-Lip-Mask-Wrinkles%2Fdp%2FB08D3FXF64%2Fref%3Dsr_1_25_sspa%3Fcrid%3D3TCY7I6DPSQNK%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3DktFpcM2IgAbsZt2riFrCk68OczVITMnRtOscVGqGtxqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.9KULVxkSkk7zC60RqkzPOKi2BEYaFh6F0NlZLOAUgBU%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711015994%26sprefix%3Dvas%252Caps%252C298%26sr%3D8-25-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/Vaseline-Therapy-0-16-Original-Pack/dp/B07WTNTWPR/ref=sr_1_16?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-16</t>
   </si>
   <si>
     <t>Lip Therapy Petroleum Jelly 20g With Rose &amp; Almond Oil Rosy Lips</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vaseline-Therapy-Petroleum-Jelly-Almond/dp/B00PHUC9SO/ref=sr_1_22?crid=3TCY7I6DPSQNK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3DktFpcM2IgAbsZt2riFrCk68OczVITMnRtOscVGqGtxqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.9KULVxkSkk7zC60RqkzPOKi2BEYaFh6F0NlZLOAUgBU&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711015994&amp;sprefix=vas%2Caps%2C298&amp;sr=8-22</t>
+    <t>https://www.amazon.com/Vaseline-Therapy-Petroleum-Jelly-Almond/dp/B00PHUC9SO/ref=sr_1_22?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-22</t>
   </si>
   <si>
     <t>Lip Therapy Tinted Lip Balm Mini, Rosy,0.25 Ounce (Pack of 8)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vaseline-Therapy-Rosy-0-25-Pack/dp/B00HC47QBI/ref=sr_1_23?crid=3TCY7I6DPSQNK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3DktFpcM2IgAbsZt2riFrCk68OczVITMnRtOscVGqGtxqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.9KULVxkSkk7zC60RqkzPOKi2BEYaFh6F0NlZLOAUgBU&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711015994&amp;sprefix=vas%2Caps%2C298&amp;sr=8-23</t>
+    <t>https://www.amazon.com/Vaseline-Therapy-Rosy-0-25-Pack/dp/B00HC47QBI/ref=sr_1_23?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-23</t>
   </si>
   <si>
     <t>Lip Therapy Rosy Lips, Cocoa Butter, Creme Brulee, Original - Vaseline Lip Balm, Tinted and Clear Lip Gloss Set, 2 of Each, 0.25 Oz Ea (8 Piece Set)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vaseline-Lip-Therapy-Original-Pack/dp/B0167K3UOO/ref=sr_1_9?crid=3TCY7I6DPSQNK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3DktFpcM2IgAbsZt2riFrCk68OczVITMnRtOscVGqGtxqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.9KULVxkSkk7zC60RqkzPOKi2BEYaFh6F0NlZLOAUgBU&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711015994&amp;sprefix=vas%2Caps%2C298&amp;sr=8-9</t>
+    <t>https://www.amazon.com/Vaseline-Lip-Therapy-Original-Pack/dp/B0167K3UOO/ref=sr_1_9?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-9</t>
   </si>
   <si>
     <t>Lip Therapy Original – Mini Vaseline Lip Balm, Hydrating Petroleum Jelly, Clear Lip Gloss, Travel-Size, 0.25 Oz Ea (Pack of 6)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MTM2OTI0MjYzMDkxMDgwOjE3MTEwMTU5OTQ6c3BfYXRmOjMwMDEzNDQzNTE2NDgwMjo6MDo6&amp;url=%2FVaseline-Original-Petrolatum-Moisturizer-Petroleum%2Fdp%2FB0BLP85Y75%2Fref%3Dsr_1_1_sspa%3Fcrid%3D3TCY7I6DPSQNK%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3DktFpcM2IgAbsZt2riFrCk68OczVITMnRtOscVGqGtxqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.9KULVxkSkk7zC60RqkzPOKi2BEYaFh6F0NlZLOAUgBU%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711015994%26sprefix%3Dvas%252Caps%252C298%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNzQ2NzM2ODIzMDEyMDgwOjE3MTEwMTY2MTg6c3BfYXRmOjMwMDEzNDQzNTE2NDgwMjo6MDo6&amp;url=%2FVaseline-Original-Petrolatum-Moisturizer-Petroleum%2Fdp%2FB0BLP85Y75%2Fref%3Dsr_1_1_sspa%3Fcrid%3D23I69FL2MKBIK%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711016618%26sprefix%3Dvas%252Caps%252C314%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Vaseline Lip Therapy Original – Mini Vaseline Lip Balm, Hydrating Petroleum Jelly, Clear Lip Gloss, Travel-Size, 0.25 Oz Ea (Pack of 6)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4NzMzMDE0OTIxMjEwODA6MTcxMTAxNTk5NTpzcF9zZWFyY2hfdGhlbWF0aWM6MzAwMTM0NDM1MTY0ODAyOjowOjo&amp;url=%2FVaseline-Original-Petrolatum-Moisturizer-Petroleum%2Fdp%2FB0BLP85Y75%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%253Aamzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%26crid%3D3TCY7I6DPSQNK%26cv_ct_cx%3DVaseline%2BLip%2BTherapy%26dib%3DeyJ2IjoiMSJ9.Tp_ojQz1RPvNkBx97gE-q6TKdOJwiBUXNO0z7M1atz28nQzrsCwj-TNlQWCeIWsR.P36yaMEksZJqvOSRH-jCd_Kgq67gcpaw95U2MmHyn50%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26pd_rd_i%3DB0BLP85Y75%26pd_rd_r%3D28af8999-d116-4f89-b91e-6384bd2ec593%26pd_rd_w%3DoeZsS%26pd_rd_wg%3D8nkBo%26pf_rd_p%3Dd4fdc453-1595-4f7b-ba6a-eb2ac554591f%26pf_rd_r%3DRDVETXGJEWW9177P757K%26qid%3D1711015994%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dvas%252Caps%252C298%26sr%3D1-1-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4NzQ1NjI1MTg4MTU5MDgwOjE3MTEwMTY2MTg6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDEzNDQzNTE2NDgwMjo6MDo6&amp;url=%2FVaseline-Original-Petrolatum-Moisturizer-Petroleum%2Fdp%2FB0BLP85Y75%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%253Aamzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%26crid%3D23I69FL2MKBIK%26cv_ct_cx%3DVaseline%2BLip%2BTherapy%26dib%3DeyJ2IjoiMSJ9.Y8Vc9MU8hvoApKGi8BevQJ_LW5rLDVpds6ScmzGbzRm8nQzrsCwj-TNlQWCeIWsR.dm5dNlqzBBALKeD9h-Ud9NBkMPWr8c1VkmnWmW3vTs0%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26pd_rd_i%3DB0BLP85Y75%26pd_rd_r%3D7b9f4952-7f09-483c-9ad7-c7f039e0a75c%26pd_rd_w%3DN5yZM%26pd_rd_wg%3Di8Vrn%26pf_rd_p%3Dd4fdc453-1595-4f7b-ba6a-eb2ac554591f%26pf_rd_r%3DXTCHQ7QAEVK2GH7ENZFH%26qid%3D1711016618%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dvas%252Caps%252C314%26sr%3D1-1-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
   </si>
   <si>
     <t>Lip Rosy, Fast-Acting Nourishment, Ideal for Chapped, Dry, Cracked, or Damaged Lips, Lip Balm,12 Sticks, 1 Box</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vaseline-Fast-Acting-Nourishment-Chapped-Cracked/dp/B09RXYJB5N/ref=sr_1_30?crid=3TCY7I6DPSQNK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3DktFpcM2IgAbsZt2riFrCk68OczVITMnRtOscVGqGtxqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.9KULVxkSkk7zC60RqkzPOKi2BEYaFh6F0NlZLOAUgBU&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711015994&amp;sprefix=vas%2Caps%2C298&amp;sr=8-30</t>
+    <t>https://www.amazon.com/Vaseline-Fast-Acting-Nourishment-Chapped-Cracked/dp/B09RXYJB5N/ref=sr_1_30?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-30</t>
+  </si>
+  <si>
+    <t>Rescue Lip Relief Lip Balm, With Shea Butter and Echinacea, Tint-Free, Natural Origin Lip Care, 3 Tubes, 0.35 oz.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNzQ2NzM2ODIzMDEyMDgwOjE3MTEwMTY2MTg6c3BfbXRmOjMwMDEzODk0NDYzNTAwMjo6MDo6&amp;url=%2FBurts-Bees-Balm-Rescue-Relief%2Fdp%2FB0B8F38RGD%2Fref%3Dsr_1_20_sspa%3Fcrid%3D23I69FL2MKBIK%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711016618%26sprefix%3Dvas%252Caps%252C314%26sr%3D8-20-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Sunright Lip Balm SPF 15</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNzQ2NzM2ODIzMDEyMDgwOjE3MTEwMTY2MTg6c3BfbXRmOjMwMDE0OTQ0MDA1MDAwMjo6MDo6&amp;url=%2FNuskin-Nu-Skin-Sunright-Balm%2Fdp%2FB00FU5FEC4%2Fref%3Dsr_1_26_sspa%3Fcrid%3D23I69FL2MKBIK%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711016618%26sprefix%3Dvas%252Caps%252C314%26sr%3D8-26-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Lip Therapy Lip Balm, Creme Brulee 0.25 oz (Pack of 4)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vaseline-Therapy-Balm-Creme-Brulee/dp/B01IAF03MG/ref=sr_1_14?crid=3TCY7I6DPSQNK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3DktFpcM2IgAbsZt2riFrCk68OczVITMnRtOscVGqGtxqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.9KULVxkSkk7zC60RqkzPOKi2BEYaFh6F0NlZLOAUgBU&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711015994&amp;sprefix=vas%2Caps%2C298&amp;sr=8-14</t>
+    <t>https://www.amazon.com/Vaseline-Therapy-Balm-Creme-Brulee/dp/B01IAF03MG/ref=sr_1_15?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-15</t>
   </si>
   <si>
     <t>Lip Mask, Overnight Lip Treatment Enriched With Skin Softening Coconut Oil and Hydrating Shea Butter</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MTM2OTI0MjYzMDkxMDgwOjE3MTEwMTU5OTQ6c3BfbXRmOjIwMDEyODQzMzcyOTM5ODo6MDo6&amp;url=%2FMario-Badescu-Overnight-Treatment-Softening%2Fdp%2FB0B7VSL515%2Fref%3Dsr_1_17_sspa%3Fcrid%3D3TCY7I6DPSQNK%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3DktFpcM2IgAbsZt2riFrCk68OczVITMnRtOscVGqGtxqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.9KULVxkSkk7zC60RqkzPOKi2BEYaFh6F0NlZLOAUgBU%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711015994%26sprefix%3Dvas%252Caps%252C298%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNzQ2NzM2ODIzMDEyMDgwOjE3MTEwMTY2MTg6c3BfbXRmOjIwMDEyODQzMzcyOTM5ODo6MDo6&amp;url=%2FMario-Badescu-Overnight-Treatment-Softening%2Fdp%2FB0B7VSL515%2Fref%3Dsr_1_18_sspa%3Fcrid%3D23I69FL2MKBIK%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711016618%26sprefix%3Dvas%252Caps%252C314%26sr%3D8-18-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Lip Sunscreen Moisturizing and Repair Package SPF 30 - Summer Long Lasting Moisturized, Smooth and Repaired Lips - 3 Flavors (Pack of 6: 2 moisturizing+ 2 repairing+ 2 SPF)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MTM2OTI0MjYzMDkxMDgwOjE3MTEwMTU5OTQ6c3BfbXRmOjMwMDA4NDAwMzc1MzIwMjo6MDo6&amp;url=%2FTANUOYI-Sunscreen-Moisturizing-Repair-Package%2Fdp%2FB0CL68L5VF%2Fref%3Dsr_1_19_sspa%3Fcrid%3D3TCY7I6DPSQNK%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3DktFpcM2IgAbsZt2riFrCk68OczVITMnRtOscVGqGtxqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.9KULVxkSkk7zC60RqkzPOKi2BEYaFh6F0NlZLOAUgBU%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711015994%26sprefix%3Dvas%252Caps%252C298%26sr%3D8-19-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNzQ2NzM2ODIzMDEyMDgwOjE3MTEwMTY2MTg6c3BfbXRmOjMwMDA4NDAwMzc1MzIwMjo6MDo6&amp;url=%2FTANUOYI-Sunscreen-Moisturizing-Repair-Package%2Fdp%2FB0CL68L5VF%2Fref%3Dsr_1_19_sspa%3Fcrid%3D23I69FL2MKBIK%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711016618%26sprefix%3Dvas%252Caps%252C314%26sr%3D8-19-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Lip Therapy Cocoa Butter.25 oz (Pack of 4)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vaseline-Therapy-Cocoa-Butter-25-Pack/dp/B00H8BNEFW/ref=sr_1_5?crid=3TCY7I6DPSQNK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3DktFpcM2IgAbsZt2riFrCk68OczVITMnRtOscVGqGtxqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.9KULVxkSkk7zC60RqkzPOKi2BEYaFh6F0NlZLOAUgBU&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711015994&amp;sprefix=vas%2Caps%2C298&amp;sr=8-5</t>
+    <t>https://www.amazon.com/Vaseline-Therapy-Cocoa-Butter-25-Pack/dp/B00H8BNEFW/ref=sr_1_5?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-5</t>
   </si>
   <si>
     <t>Rosy Lips, Lip Therapy.25 OZ, (Pack of 3), Violet, 75.0Ounce</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vaseline-Rosy-Lips-Therapy-25-Pack/dp/B01JLVRHZ4/ref=sr_1_7?crid=3TCY7I6DPSQNK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3DktFpcM2IgAbsZt2riFrCk68OczVITMnRtOscVGqGtxqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.9KULVxkSkk7zC60RqkzPOKi2BEYaFh6F0NlZLOAUgBU&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711015994&amp;sprefix=vas%2Caps%2C298&amp;sr=8-7</t>
+    <t>https://www.amazon.com/Vaseline-Rosy-Lips-Therapy-25-Pack/dp/B01JLVRHZ4/ref=sr_1_7?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-7</t>
   </si>
   <si>
     <t>Lip Therapy Stick with Petroleum Jelly (Original, Aloe Vera, Rosy Lips, Cocoa Butter)- 4pk</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vaseline-Therapy-Petroleum-Original-Butter/dp/B07K8YD5V9/ref=sr_1_10?crid=3TCY7I6DPSQNK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3DktFpcM2IgAbsZt2riFrCk68OczVITMnRtOscVGqGtxqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.9KULVxkSkk7zC60RqkzPOKi2BEYaFh6F0NlZLOAUgBU&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711015994&amp;sprefix=vas%2Caps%2C298&amp;sr=8-10</t>
+    <t>https://www.amazon.com/Vaseline-Therapy-Petroleum-Original-Butter/dp/B07K8YD5V9/ref=sr_1_10?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-10</t>
   </si>
   <si>
     <t>Lip Therapy Stick with Petroleum Jelly - 3 Pack (Cocoa Butter)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vaseline-Therapy-Stick-Petroleum-Jelly/dp/B07M8JJ7V8/ref=sr_1_13?crid=3TCY7I6DPSQNK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3DktFpcM2IgAbsZt2riFrCk68OczVITMnRtOscVGqGtxqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.9KULVxkSkk7zC60RqkzPOKi2BEYaFh6F0NlZLOAUgBU&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711015994&amp;sprefix=vas%2Caps%2C298&amp;sr=8-13</t>
+    <t>https://www.amazon.com/Vaseline-Therapy-Stick-Petroleum-Jelly/dp/B07M8JJ7V8/ref=sr_1_13?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-13</t>
   </si>
   <si>
     <t>Therapy Lip Balm, Aloe Vera 0.6 oz (Pack of 3)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vaseline-Therapy-Balm-Aloe-Vera/dp/B01IAFJYUI/ref=sr_1_15?crid=3TCY7I6DPSQNK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3DktFpcM2IgAbsZt2riFrCk68OczVITMnRtOscVGqGtxqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.9KULVxkSkk7zC60RqkzPOKi2BEYaFh6F0NlZLOAUgBU&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711015994&amp;sprefix=vas%2Caps%2C298&amp;sr=8-15</t>
+    <t>https://www.amazon.com/Vaseline-Therapy-Balm-Aloe-Vera/dp/B01IAFJYUI/ref=sr_1_14?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-14</t>
   </si>
   <si>
     <t>Lip Therapy Variety 4-Pack – Cocoa Butter + Aloe Vera Moisturizing Lip Balm with Vitamin E, 16 Oz Ea</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vaseline-Therapy-Stick-Petroleum-Jelly/dp/B0B2GF9GKL/ref=sr_1_24?crid=3TCY7I6DPSQNK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3DktFpcM2IgAbsZt2riFrCk68OczVITMnRtOscVGqGtxqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.9KULVxkSkk7zC60RqkzPOKi2BEYaFh6F0NlZLOAUgBU&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711015994&amp;sprefix=vas%2Caps%2C298&amp;sr=8-24</t>
+    <t>https://www.amazon.com/Vaseline-Therapy-Stick-Petroleum-Jelly/dp/B0B2GF9GKL/ref=sr_1_24?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-24</t>
   </si>
   <si>
     <t>Lip Therapy Lip Balm Tin, Original, 0.6 oz</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vaseline-Lip-Therapy-Balm-Original/dp/B019FCUPLC/ref=sr_1_29?crid=3TCY7I6DPSQNK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3DktFpcM2IgAbsZt2riFrCk68OczVITMnRtOscVGqGtxqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.9KULVxkSkk7zC60RqkzPOKi2BEYaFh6F0NlZLOAUgBU&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711015994&amp;sprefix=vas%2Caps%2C298&amp;sr=8-29</t>
+    <t>https://www.amazon.com/Vaseline-Lip-Therapy-Balm-Original/dp/B019FCUPLC/ref=sr_1_29?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-29</t>
   </si>
   <si>
     <t>Lip Therapy Care Original, Fast-Acting Nourishment, Ideal for Chapped, Dry, Cracked, or Damaged Lips, Lip Balm, 0.16 Ounce (Pack of 4)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MTM2OTI0MjYzMDkxMDgwOjE3MTEwMTU5OTQ6c3BfYXRmOjMwMDA4Mzc1MjA2OTMwMjo6MDo6&amp;url=%2FVaseline-Therapy-Original-Fast-Acting-Nourishment%2Fdp%2FB0C1TFHMCT%2Fref%3Dsr_1_2_sspa%3Fcrid%3D3TCY7I6DPSQNK%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3DktFpcM2IgAbsZt2riFrCk68OczVITMnRtOscVGqGtxqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.9KULVxkSkk7zC60RqkzPOKi2BEYaFh6F0NlZLOAUgBU%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711015994%26sprefix%3Dvas%252Caps%252C298%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Vaseline-Therapy-Original-Fast-Acting-Nourishment/dp/B0C1TFHMCT/ref=sr_1_4?crid=3TCY7I6DPSQNK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3DktFpcM2IgAbsZt2riFrCk68OczVITMnRtOscVGqGtxqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.9KULVxkSkk7zC60RqkzPOKi2BEYaFh6F0NlZLOAUgBU&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711015994&amp;sprefix=vas%2Caps%2C298&amp;sr=8-4</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNzQ2NzM2ODIzMDEyMDgwOjE3MTEwMTY2MTg6c3BfYXRmOjMwMDA4Mzc1MjA2OTMwMjo6MDo6&amp;url=%2FVaseline-Therapy-Original-Fast-Acting-Nourishment%2Fdp%2FB0C1TFHMCT%2Fref%3Dsr_1_2_sspa%3Fcrid%3D23I69FL2MKBIK%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711016618%26sprefix%3Dvas%252Caps%252C314%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Vaseline-Therapy-Original-Fast-Acting-Nourishment/dp/B0C1TFHMCT/ref=sr_1_4?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-4</t>
   </si>
   <si>
     <t>Lip Therapy Care Rosy, Fast-Acting Nourishment, Ideal for Chapped, Dry, Cracked, or Damaged Lips, Lip Balm, 4-Pack, 0.16 Oz Each</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vaseline-Therapy-Fast-Acting-Nourishment-Chapped/dp/B0BZQP7V3B/ref=sr_1_8?crid=3TCY7I6DPSQNK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3DktFpcM2IgAbsZt2riFrCk68OczVITMnRtOscVGqGtxqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.9KULVxkSkk7zC60RqkzPOKi2BEYaFh6F0NlZLOAUgBU&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711015994&amp;sprefix=vas%2Caps%2C298&amp;sr=8-8</t>
+    <t>https://www.amazon.com/Vaseline-Therapy-Fast-Acting-Nourishment-Chapped/dp/B0BZQP7V3B/ref=sr_1_8?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-8</t>
   </si>
   <si>
     <t>Lip Therapy | Vaseline Lip Balm | Lip Moisturizer for Very Dry Lips | Original | 20g</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Axe-Therapy-Petroleum-Jelly-Original/dp/B002GC9UZG/ref=sr_1_11?crid=3TCY7I6DPSQNK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3DktFpcM2IgAbsZt2riFrCk68OczVITMnRtOscVGqGtxqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.9KULVxkSkk7zC60RqkzPOKi2BEYaFh6F0NlZLOAUgBU&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711015994&amp;sprefix=vas%2Caps%2C298&amp;sr=8-11</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MTM2OTI0MjYzMDkxMDgwOjE3MTEwMTU5OTQ6c3BfbXRmOjMwMDA4Mzc1MjA2OTIwMjo6MDo6&amp;url=%2FVaseline-Therapy-Fast-Acting-Nourishment-Chapped%2Fdp%2FB0BZQP7V3B%2Fref%3Dsr_1_20_sspa%3Fcrid%3D3TCY7I6DPSQNK%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3DktFpcM2IgAbsZt2riFrCk68OczVITMnRtOscVGqGtxqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.9KULVxkSkk7zC60RqkzPOKi2BEYaFh6F0NlZLOAUgBU%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711015994%26sprefix%3Dvas%252Caps%252C298%26sr%3D8-20-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/Axe-Therapy-Petroleum-Jelly-Original/dp/B002GC9UZG/ref=sr_1_11?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-11</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNzQ2NzM2ODIzMDEyMDgwOjE3MTEwMTY2MTg6c3BfbXRmOjMwMDA4Mzc1MjA2OTIwMjo6MDo6&amp;url=%2FVaseline-Therapy-Fast-Acting-Nourishment-Chapped%2Fdp%2FB0BZQP7V3B%2Fref%3Dsr_1_17_sspa%3Fcrid%3D23I69FL2MKBIK%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711016618%26sprefix%3Dvas%252Caps%252C314%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Lip Therapy Care Aloe Fresh, Fast-Acting Nourishment, Ideal for Chapped, Dry, Cracked, or Damaged Lips, Lip Balm, 4-Pack, 0.16 Oz Each</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MTM2OTI0MjYzMDkxMDgwOjE3MTEwMTU5OTQ6c3BfbXRmOjMwMDA4Mzc1MjA2OTEwMjo6MDo6&amp;url=%2FVaseline-Therapy-Fast-Acting-Nourishment-Chapped%2Fdp%2FB0C1TFXXXR%2Fref%3Dsr_1_26_sspa%3Fcrid%3D3TCY7I6DPSQNK%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3DktFpcM2IgAbsZt2riFrCk68OczVITMnRtOscVGqGtxqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.9KULVxkSkk7zC60RqkzPOKi2BEYaFh6F0NlZLOAUgBU%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711015994%26sprefix%3Dvas%252Caps%252C298%26sr%3D8-26-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Vaseline Lip Therapy Care Rosy, Fast-Acting Nourishment, Ideal for Chapped, Dry, Cracked, or Damaged Lips, Lip Balm, 4-Pack, 0.16 Oz Each</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4NzMzMDE0OTIxMjEwODA6MTcxMTAxNTk5NTpzcF9zZWFyY2hfdGhlbWF0aWM6MzAwMDgzNzUyMDY5MjAyOjoxOjo&amp;url=%2FVaseline-Therapy-Fast-Acting-Nourishment-Chapped%2Fdp%2FB0BZQP7V3B%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%253Aamzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%26crid%3D3TCY7I6DPSQNK%26cv_ct_cx%3DVaseline%2BLip%2BTherapy%26dib%3DeyJ2IjoiMSJ9.Tp_ojQz1RPvNkBx97gE-q6TKdOJwiBUXNO0z7M1atz28nQzrsCwj-TNlQWCeIWsR.P36yaMEksZJqvOSRH-jCd_Kgq67gcpaw95U2MmHyn50%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26pd_rd_i%3DB0BZQP7V3B%26pd_rd_r%3D28af8999-d116-4f89-b91e-6384bd2ec593%26pd_rd_w%3DoeZsS%26pd_rd_wg%3D8nkBo%26pf_rd_p%3Dd4fdc453-1595-4f7b-ba6a-eb2ac554591f%26pf_rd_r%3DRDVETXGJEWW9177P757K%26qid%3D1711015994%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dvas%252Caps%252C298%26sr%3D1-2-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNzQ2NzM2ODIzMDEyMDgwOjE3MTEwMTY2MTg6c3BfbXRmOjMwMDA4Mzc1MjA2OTEwMjo6MDo6&amp;url=%2FVaseline-Therapy-Fast-Acting-Nourishment-Chapped%2Fdp%2FB0C1TFXXXR%2Fref%3Dsr_1_27_sspa%3Fcrid%3D23I69FL2MKBIK%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711016618%26sprefix%3Dvas%252Caps%252C314%26sr%3D8-27-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Lip Therapy | Vaseline Lip Balm | Lip Moisturizer for Very Dry Lips | Cocoa Butter | 20g</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Therapy-Petroleum-Jelly-Cocoa-Butter/dp/B004M9Q8HE/ref=sr_1_12?crid=3TCY7I6DPSQNK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3DktFpcM2IgAbsZt2riFrCk68OczVITMnRtOscVGqGtxqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.9KULVxkSkk7zC60RqkzPOKi2BEYaFh6F0NlZLOAUgBU&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711015994&amp;sprefix=vas%2Caps%2C298&amp;sr=8-12</t>
+    <t>https://www.amazon.com/Therapy-Petroleum-Jelly-Cocoa-Butter/dp/B004M9Q8HE/ref=sr_1_12?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-12</t>
+  </si>
+  <si>
+    <t>essence Hydra Kiss Lip Oil | Vegan &amp; Cruelty Free (03 | Pink Champagne)</t>
+  </si>
+  <si>
+    <t>4.1 out of 5 stars</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNzQ2NzM2ODIzMDEyMDgwOjE3MTEwMTY2MTg6c3BfbXRmOjMwMDEzOTEyODAxNjMwMjo6MDo6&amp;url=%2Fessence-Hydra-Vegan-Cruelty-Champagne%2Fdp%2FB0C78H2YNQ%2Fref%3Dsr_1_25_sspa%3Fcrid%3D23I69FL2MKBIK%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711016618%26sprefix%3Dvas%252Caps%252C314%26sr%3D8-25-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
 </sst>
 </file>
@@ -858,14 +858,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F275A87-03BA-4BF8-912F-9B5D3908365C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF15168C-F5A1-4E2F-A7D0-FA4007CC0689}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="180.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="178.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -892,194 +892,194 @@
     </row>
     <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="3">
         <v>68</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" s="3">
         <v>55</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3">
+        <v>309</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="B3" s="3">
-        <v>68</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="3">
-        <v>292</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="3">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3">
+        <v>268</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="B4" s="3">
-        <v>25</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3">
-        <v>309</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="3">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3">
+        <v>305</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="3">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3">
-        <v>268</v>
-      </c>
-      <c r="E5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="3">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4743</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B6" s="3">
-        <v>23</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2944</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="3">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="3">
+        <v>146</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="3">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="3">
-        <v>305</v>
-      </c>
-      <c r="E7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="3">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3">
+        <v>14230</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="3">
-        <v>22</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4743</v>
-      </c>
-      <c r="E8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="3">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3">
+        <v>14230</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="3">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="3">
-        <v>146</v>
-      </c>
-      <c r="E9" s="3" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="3">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3">
+        <v>440</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="3">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="3">
-        <v>14230</v>
-      </c>
-      <c r="E10" s="3" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="3">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3">
+        <v>503</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="3">
-        <v>16</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="3">
-        <v>14230</v>
-      </c>
-      <c r="E11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="3">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B12" s="3">
-        <v>15</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="3">
-        <v>440</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="3">
         <v>11</v>
@@ -1091,12 +1091,12 @@
         <v>21320</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" s="3">
         <v>11</v>
@@ -1108,46 +1108,46 @@
         <v>889</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B15" s="3">
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" s="3">
         <v>125</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16" s="3">
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D16" s="3">
         <v>5120</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B17" s="3">
         <v>8</v>
@@ -1159,12 +1159,12 @@
         <v>14230</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18" s="3">
         <v>8</v>
@@ -1176,12 +1176,12 @@
         <v>4444</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="3">
         <v>7</v>
@@ -1193,29 +1193,29 @@
         <v>7355</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B20" s="3">
         <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="3">
         <v>998</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B21" s="3">
         <v>7</v>
@@ -1227,12 +1227,12 @@
         <v>1952</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B22" s="3">
         <v>6</v>
@@ -1244,12 +1244,12 @@
         <v>402</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B23" s="3">
         <v>5</v>
@@ -1261,12 +1261,12 @@
         <v>937</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B24" s="3">
         <v>5</v>
@@ -1278,12 +1278,12 @@
         <v>937</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B25" s="3">
         <v>5</v>
@@ -1295,29 +1295,29 @@
         <v>743</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D26" s="3">
         <v>4290</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B27" s="3">
         <v>5</v>
@@ -1329,12 +1329,12 @@
         <v>743</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B28" s="3">
         <v>5</v>
@@ -1346,38 +1346,38 @@
         <v>440</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="B29" s="3">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="3">
+        <v>6489</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B29" s="3">
-        <v>5</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="3">
-        <v>743</v>
-      </c>
-      <c r="E29" s="3" t="s">
+    </row>
+    <row r="30" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="B30" s="3">
         <v>4</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D30" s="3">
-        <v>6489</v>
+        <v>59</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>145</v>
@@ -1389,7 +1389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F16CC8-21E4-4E81-94A4-70B5540F4841}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A7902F-454F-4A2E-8A3B-44B65B2F9307}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1">
         <v>31</v>
@@ -1435,46 +1435,46 @@
         <v>240</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>7183</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B3" s="1">
-        <v>29</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1684</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="B4" s="1">
         <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1">
-        <v>7183</v>
+        <v>1684</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1">
         <v>27</v>
@@ -1486,12 +1486,12 @@
         <v>933</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1">
         <v>27</v>
@@ -1503,12 +1503,12 @@
         <v>933</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1">
         <v>25</v>
@@ -1520,12 +1520,12 @@
         <v>131</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1">
         <v>21</v>
@@ -1537,12 +1537,12 @@
         <v>3137</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1">
         <v>21</v>
@@ -1554,12 +1554,12 @@
         <v>213</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1">
         <v>19</v>
@@ -1571,29 +1571,29 @@
         <v>8727</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B11" s="1">
         <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="1">
         <v>49342</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1">
         <v>18</v>
@@ -1605,12 +1605,12 @@
         <v>1440</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="1">
         <v>17</v>
@@ -1622,12 +1622,12 @@
         <v>1707</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B14" s="1">
         <v>16</v>
@@ -1639,12 +1639,12 @@
         <v>933</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15" s="1">
         <v>15</v>
@@ -1656,12 +1656,12 @@
         <v>3351</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1">
         <v>14</v>
@@ -1673,12 +1673,12 @@
         <v>9250</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1">
         <v>12</v>
@@ -1690,12 +1690,12 @@
         <v>24852</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B18" s="1">
         <v>12</v>
@@ -1707,12 +1707,12 @@
         <v>992</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B19" s="1">
         <v>12</v>
@@ -1724,12 +1724,12 @@
         <v>24852</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B20" s="1">
         <v>12</v>
@@ -1741,12 +1741,12 @@
         <v>5153</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B21" s="1">
         <v>12</v>
@@ -1758,46 +1758,46 @@
         <v>4900</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B22" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1">
-        <v>4900</v>
+        <v>1203</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="1">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1">
+        <v>46798</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B23" s="1">
-        <v>11</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1203</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" s="1">
         <v>9</v>
@@ -1809,12 +1809,12 @@
         <v>1932</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="B25" s="1">
         <v>8</v>
@@ -1826,7 +1826,7 @@
         <v>8408</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1835,8 +1835,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DFDE98-E2CB-4AA4-9384-79E4A910F55B}">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC52227A-CD9E-4F7E-B62F-3C6DA3935A67}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1867,7 +1867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1969,18 +1969,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="1">
-        <v>12534</v>
+        <v>472</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
@@ -1991,87 +1991,87 @@
         <v>24</v>
       </c>
       <c r="B9" s="1">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D9" s="1">
-        <v>472</v>
+        <v>3131</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1">
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1">
-        <v>3131</v>
+        <v>252</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1">
-        <v>252</v>
+        <v>1379</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1">
-        <v>46737</v>
+        <v>15234</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1">
-        <v>15234</v>
+        <v>17315</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -2103,23 +2103,6 @@
       </c>
       <c r="E15" s="1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="1">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1">
-        <v>9645</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2128,7 +2111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D18F741-48BA-4507-ADC5-98ED074B543F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931ECA2F-E0CB-48F0-A2E3-785709722D92}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Data/Output/Nikki.xlsx
+++ b/Data/Output/Nikki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Panda\Documents\UiPath\Final Project\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A89898C-8B49-4D2E-A115-7608182AC4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3EBB2D-534E-45D6-982D-A416919E4762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="2430" windowWidth="12120" windowHeight="15555" xr2:uid="{4CBDB09E-411A-4B64-8E63-A14B23CD9272}"/>
+    <workbookView xWindow="1335" yWindow="2430" windowWidth="12120" windowHeight="15555" xr2:uid="{537F7DA0-A661-4104-B6D8-771B02AEE78C}"/>
   </bookViews>
   <sheets>
     <sheet name="Vaseline Lip Therapy" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="139">
   <si>
     <t>Name</t>
   </si>
@@ -60,7 +60,7 @@
     <t>4.2 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Kiehls-Eliminator-24-Hour-Anti-Shing-Moisturizer/dp/B00K592YQO/ref=sr_1_23?crid=3AHLI3EMS6CUT&amp;dib=eyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On63Av9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZesr-8ynFMzyxSsLDbWtsKFAJ80qf2hOSq2rlUMi3wSDirF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.xe8xm1CFl5reNC8TgUEOmdJMlnCEEfmhmh1t1bZGOO0&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711016608&amp;sprefix=kieh%2Caps%2C318&amp;sr=8-23</t>
+    <t>https://www.amazon.com/Kiehls-Eliminator-24-Hour-Anti-Shing-Moisturizer/dp/B00K592YQO/ref=sr_1_23?crid=31IK81A5GADWM&amp;dib=eyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On616zFEYOwboo5zACpwpeMpT2ISp_IBz-PaaiSpx9YaYhKG3g7ADm48Rwzbx5jzA3ZLv8es4glxEZ8BkhO0_8KG3irF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.DN2lCcQKX7v2VpUBfMGXdfWHhccGy35_80bUTzm8yTU&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711024656&amp;sprefix=kieh%2Caps%2C309&amp;sr=8-23</t>
   </si>
   <si>
     <t>Ultra Facial Oil-Free Moisturizer, Shine-Reducing Gel Cream for Oily to Normal Skin, Hydrates Skin for 24 Hours, Visibly Minimizes Pores, Non-comedogenic, Alcohol-free, Fragrance-free</t>
@@ -69,7 +69,16 @@
     <t>4.7 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Kiehls-Ultra-Facial-Oil-Free-Normal/dp/B007L7SPA2/ref=sr_1_9?crid=3AHLI3EMS6CUT&amp;dib=eyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On63Av9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZesr-8ynFMzyxSsLDbWtsKFAJ80qf2hOSq2rlUMi3wSDirF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.xe8xm1CFl5reNC8TgUEOmdJMlnCEEfmhmh1t1bZGOO0&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711016608&amp;sprefix=kieh%2Caps%2C318&amp;sr=8-9</t>
+    <t>https://www.amazon.com/Kiehls-Ultra-Facial-Oil-Free-Normal/dp/B007L7SPA2/ref=sr_1_8?crid=31IK81A5GADWM&amp;dib=eyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On616zFEYOwboo5zACpwpeMpT2ISp_IBz-PaaiSpx9YaYhKG3g7ADm48Rwzbx5jzA3ZLv8es4glxEZ8BkhO0_8KG3irF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.DN2lCcQKX7v2VpUBfMGXdfWHhccGy35_80bUTzm8yTU&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711024656&amp;sprefix=kieh%2Caps%2C309&amp;sr=8-8</t>
+  </si>
+  <si>
+    <t>Age Defender Cream Moisturizer, Firming &amp; Lifting Anti-Aging Treatment for Men, Gently Exfoliates, Minimizes Look of Fine Lines &amp; Wrinkles, with Capryloyl Salicylic Acid &amp; Caffeine - 2.5 fl oz</t>
+  </si>
+  <si>
+    <t>4.5 out of 5 stars</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Kiehls-Moisturizer-Anti-Aging-Treatment-Exfoliates/dp/B01MSP3R2W/ref=sr_1_6?crid=31IK81A5GADWM&amp;dib=eyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On616zFEYOwboo5zACpwpeMpT2ISp_IBz-PaaiSpx9YaYhKG3g7ADm48Rwzbx5jzA3ZLv8es4glxEZ8BkhO0_8KG3irF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.DN2lCcQKX7v2VpUBfMGXdfWHhccGy35_80bUTzm8yTU&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711024656&amp;sprefix=kieh%2Caps%2C309&amp;sr=8-6</t>
   </si>
   <si>
     <t>Clearly Corrective Brightening &amp; Smoothing Moisture Treatment, 24HR Hydrating Face Moisturizer, Corrects Discoloration &amp; Rough Texture, with Vitamin C &amp; Glycolic Acid - 1.7 fl oz</t>
@@ -78,37 +87,34 @@
     <t>4.4 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Kiehls-Brightening-Smoothing-Moisture-Treatment/dp/B01N1ICJUS/ref=sr_1_22?crid=3AHLI3EMS6CUT&amp;dib=eyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On63Av9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZesr-8ynFMzyxSsLDbWtsKFAJ80qf2hOSq2rlUMi3wSDirF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.xe8xm1CFl5reNC8TgUEOmdJMlnCEEfmhmh1t1bZGOO0&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711016608&amp;sprefix=kieh%2Caps%2C318&amp;sr=8-22</t>
+    <t>https://www.amazon.com/Kiehls-Brightening-Smoothing-Moisture-Treatment/dp/B01N1ICJUS/ref=sr_1_22?crid=31IK81A5GADWM&amp;dib=eyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On616zFEYOwboo5zACpwpeMpT2ISp_IBz-PaaiSpx9YaYhKG3g7ADm48Rwzbx5jzA3ZLv8es4glxEZ8BkhO0_8KG3irF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.DN2lCcQKX7v2VpUBfMGXdfWHhccGy35_80bUTzm8yTU&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711024656&amp;sprefix=kieh%2Caps%2C309&amp;sr=8-22</t>
+  </si>
+  <si>
+    <t>Skin Turmeric Ginseng Face Moisturizer With Vitamin C and Aloe Vera for Skin Repair and Brightening, Radiance Enhancing Skin Lightening Face Cream For Normal, Oily &amp; Dry Skin, 1.7 FL OZ</t>
+  </si>
+  <si>
+    <t>4.6 out of 5 stars</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2OTQyNzc3MzI3MTg2MDgwOjE3MTEwMjQ2NTY6c3BfbXRmOjMwMDE1MzEyOTgyMjQwMjo6MDo6&amp;url=%2FZelaze-Moisturizer-Brightening-Enhancing-Lightening%2Fdp%2FB0CW3SR6RC%2Fref%3Dsr_1_19_sspa%3Fcrid%3D31IK81A5GADWM%26dib%3DeyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On616zFEYOwboo5zACpwpeMpT2ISp_IBz-PaaiSpx9YaYhKG3g7ADm48Rwzbx5jzA3ZLv8es4glxEZ8BkhO0_8KG3irF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.DN2lCcQKX7v2VpUBfMGXdfWHhccGy35_80bUTzm8yTU%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711024656%26sprefix%3Dkieh%252Caps%252C309%26sr%3D8-19-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Ultra Facial Oil Free Gel Cream Moisturizer for Normal &amp; Oily Skin 1.7oz</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Kiehls-Ultra-Facial-Moisturizer-Normal/dp/B09DGF47WH/ref=sr_1_6?crid=3AHLI3EMS6CUT&amp;dib=eyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On63Av9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZesr-8ynFMzyxSsLDbWtsKFAJ80qf2hOSq2rlUMi3wSDirF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.xe8xm1CFl5reNC8TgUEOmdJMlnCEEfmhmh1t1bZGOO0&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711016608&amp;sprefix=kieh%2Caps%2C318&amp;sr=8-6</t>
-  </si>
-  <si>
-    <t>Firm &amp; Smooth Collagen Peptide Face Moisturizer, 2 oz Fragrance Free Firming Face Cream for Hydration and Skin Renewal, Recyclable Eco Jar Packaging</t>
-  </si>
-  <si>
-    <t>4.5 out of 5 stars</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MzIyODkwMDUyOTY3MDgwOjE3MTEwMTY2MDg6c3BfYXRmOjMwMDA5MzIwMTQ2MzUwMjo6MDo6&amp;url=%2FOlay-Moisturizer-Fragrance-Hydration-Recyclable%2Fdp%2FB0C44J6JDB%2Fref%3Dsr_1_1_sspa%3Fcrid%3D3AHLI3EMS6CUT%26dib%3DeyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On63Av9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZesr-8ynFMzyxSsLDbWtsKFAJ80qf2hOSq2rlUMi3wSDirF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.xe8xm1CFl5reNC8TgUEOmdJMlnCEEfmhmh1t1bZGOO0%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711016608%26sprefix%3Dkieh%252Caps%252C318%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Bright &amp; Even Vitamin C with Lactic Acid Face Moisturizer, 2 oz Lightweight Brightening Face Cream for Uneven Skin Tone, Recyclable Eco Jar Packaging, Value Size</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MzIyODkwMDUyOTY3MDgwOjE3MTEwMTY2MDg6c3BfbXRmOjMwMDA5MzI0OTA5NzMwMjo6MDo6&amp;url=%2FOlay-Moisturizer-Lightweight-Brightening-Recyclable%2Fdp%2FB0C443Q1JF%2Fref%3Dsr_1_17_sspa%3Fcrid%3D3AHLI3EMS6CUT%26dib%3DeyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On63Av9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZesr-8ynFMzyxSsLDbWtsKFAJ80qf2hOSq2rlUMi3wSDirF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.xe8xm1CFl5reNC8TgUEOmdJMlnCEEfmhmh1t1bZGOO0%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711016608%26sprefix%3Dkieh%252Caps%252C318%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/Kiehls-Ultra-Facial-Moisturizer-Normal/dp/B09DGF47WH/ref=sr_1_5?crid=31IK81A5GADWM&amp;dib=eyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On616zFEYOwboo5zACpwpeMpT2ISp_IBz-PaaiSpx9YaYhKG3g7ADm48Rwzbx5jzA3ZLv8es4glxEZ8BkhO0_8KG3irF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.DN2lCcQKX7v2VpUBfMGXdfWHhccGy35_80bUTzm8yTU&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711024656&amp;sprefix=kieh%2Caps%2C309&amp;sr=8-5</t>
   </si>
   <si>
     <t>Kiehls - Ultra Facial Moisturizer - 4.2 fl. oz.</t>
   </si>
   <si>
-    <t>4.6 out of 5 stars</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Kiehls-Ultra-Facial-Moisturizer-4-2/dp/B002LK0GAQ/ref=sr_1_2?crid=3AHLI3EMS6CUT&amp;dib=eyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On63Av9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZesr-8ynFMzyxSsLDbWtsKFAJ80qf2hOSq2rlUMi3wSDirF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.xe8xm1CFl5reNC8TgUEOmdJMlnCEEfmhmh1t1bZGOO0&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711016608&amp;sprefix=kieh%2Caps%2C318&amp;sr=8-2</t>
+    <t>https://www.amazon.com/Kiehls-Ultra-Facial-Moisturizer-4-2/dp/B002LK0GAQ/ref=sr_1_1?crid=31IK81A5GADWM&amp;dib=eyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On616zFEYOwboo5zACpwpeMpT2ISp_IBz-PaaiSpx9YaYhKG3g7ADm48Rwzbx5jzA3ZLv8es4glxEZ8BkhO0_8KG3irF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.DN2lCcQKX7v2VpUBfMGXdfWHhccGy35_80bUTzm8yTU&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711024656&amp;sprefix=kieh%2Caps%2C309&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>Men's Face Cream Moisturizer - Anti-Aging Cream For Men, Collagen, Retinol &amp; Hyaluronic Acid - Day &amp; Night - Facial Skin Care- Anti Wrinkle 1.7 oz</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2OTQyNzc3MzI3MTg2MDgwOjE3MTEwMjQ2NTY6c3BfbXRmOjIwMDA2MDUwMjcxNzIzMTo6MDo6&amp;url=%2FMens-Face-Cream-Moisturizer-Anti-Aging%2Fdp%2FB08SNPC1YW%2Fref%3Dsr_1_26_sspa%3Fcrid%3D31IK81A5GADWM%26dib%3DeyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On616zFEYOwboo5zACpwpeMpT2ISp_IBz-PaaiSpx9YaYhKG3g7ADm48Rwzbx5jzA3ZLv8es4glxEZ8BkhO0_8KG3irF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.DN2lCcQKX7v2VpUBfMGXdfWHhccGy35_80bUTzm8yTU%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711024656%26sprefix%3Dkieh%252Caps%252C309%26sr%3D8-26-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Men's Face Moisturizer Cream - Anti Aging &amp; Wrinkle - Made in USA - Collagen, Hyaluronic Acid, Vitamins E &amp; A, Avocado Oil - After Shave Lotion - Age Facial Skin Care, Day &amp; Night Moisturizing, 2 oz</t>
@@ -117,97 +123,100 @@
     <t>4.3 out of 5 stars</t>
   </si>
   <si>
-    <t>https://aax-us-iad.amazon.com/x/c/RPoQlShV-r_Px2TQj7TgU10AAAGOYImDsAEAAAH2AQBvbm9fdHhuX2JpZDQgICBvbm9fdHhuX2ltcDEgICAahBbQ/https://www.amazon.com/Mens-Face-Moisturizer-Cream-Moisturizing/dp/B09M7CV35V/ref=sxin_15_sbv_search_btf?content-id=amzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f%3Aamzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;crid=3AHLI3EMS6CUT&amp;cv_ct_cx=Kiehls+Moisturizer&amp;dib=eyJ2IjoiMSJ9.Hiwi-zPDol8eY6DFk84oNA.dWPlm9a9XP1PqF3-cv0d9xQABRWnIak03kQtvEWO3As&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;pd_rd_i=B09M7CV35V&amp;pd_rd_r=91ebc846-c5f7-4fb1-9455-888195fb1bb9&amp;pd_rd_w=YttLh&amp;pd_rd_wg=CbGfL&amp;pf_rd_p=c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;pf_rd_r=Q12M3XRSG7TQTT95JR90&amp;qid=1711016608&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=kieh%2Caps%2C318&amp;sr=1-1-5190daf0-67e3-427c-bea6-c72c1df98776</t>
+    <t>https://aax-us-iad.amazon.com/x/c/RHC2Sz_fSeBM8scO_HalkcAAAAGOYQRO3wEAAAH2AQBvbm9fdHhuX2JpZDUgICBvbm9fdHhuX2ltcDEgICBTEfHX/https://www.amazon.com/Mens-Face-Moisturizer-Cream-Moisturizing/dp/B09M7CV35V/ref=sxin_15_sbv_search_btf?content-id=amzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f%3Aamzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;crid=31IK81A5GADWM&amp;cv_ct_cx=Kiehls+Moisturizer&amp;dib=eyJ2IjoiMSJ9.Hiwi-zPDol8eY6DFk84oNA.dWPlm9a9XP1PqF3-cv0d9xQABRWnIak03kQtvEWO3As&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;pd_rd_i=B09M7CV35V&amp;pd_rd_r=21cbaaac-865a-4730-b2b0-33f0153cc715&amp;pd_rd_w=LUtbK&amp;pd_rd_wg=mLHXT&amp;pf_rd_p=c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;pf_rd_r=8X1JVKSMBQ16ER0V5867&amp;qid=1711024656&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=kieh%2Caps%2C309&amp;sr=1-1-5190daf0-67e3-427c-bea6-c72c1df98776</t>
+  </si>
+  <si>
+    <t>Rapid Wrinkle Repair Retinol Face Moisturizer, Fragrance Free, Daily Anti-Aging Face Cream with Retinol &amp; Hyaluronic Acid to Fight Fine Lines, Wrinkles, &amp; Dark Spots, 1.7 oz</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2OTQyNzc3MzI3MTg2MDgwOjE3MTEwMjQ2NTY6c3BfbXRmOjMwMDE1MDQ5NDM1NDQwMjo6MDo6&amp;url=%2FNeutrogena-Wrinkle-Hyaluronic-Retinol-Moisturizer%2Fdp%2FB0725JP4TN%2Fref%3Dsr_1_25_sspa%3Fcrid%3D31IK81A5GADWM%26dib%3DeyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On616zFEYOwboo5zACpwpeMpT2ISp_IBz-PaaiSpx9YaYhKG3g7ADm48Rwzbx5jzA3ZLv8es4glxEZ8BkhO0_8KG3irF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.DN2lCcQKX7v2VpUBfMGXdfWHhccGy35_80bUTzm8yTU%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711024656%26sprefix%3Dkieh%252Caps%252C309%26sr%3D8-25-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Creme De Corps Body Moisturizer 250ml/8.4oz</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Creme-Corps-Moisturizer-250ml-8-4oz/dp/B00BLZN8R0/ref=sr_1_13?crid=3AHLI3EMS6CUT&amp;dib=eyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On63Av9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZesr-8ynFMzyxSsLDbWtsKFAJ80qf2hOSq2rlUMi3wSDirF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.xe8xm1CFl5reNC8TgUEOmdJMlnCEEfmhmh1t1bZGOO0&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711016608&amp;sprefix=kieh%2Caps%2C318&amp;sr=8-13</t>
-  </si>
-  <si>
-    <t>Dynasty Cream Hydrating Face Moisturizer for Dry, Sensitive Skin, Korean Skincare for Men and Women 50ml, 1.69 fl.oz</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MzIyODkwMDUyOTY3MDgwOjE3MTEwMTY2MDg6c3BfbXRmOjMwMDE1MzkzMjkwODYwMjo6MDo6&amp;url=%2FBeauty-Joseon-Dynasty-renewed-version%2Fdp%2FB08WJQ3XJD%2Fref%3Dsr_1_26_sspa%3Fcrid%3D3AHLI3EMS6CUT%26dib%3DeyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On63Av9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZesr-8ynFMzyxSsLDbWtsKFAJ80qf2hOSq2rlUMi3wSDirF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.xe8xm1CFl5reNC8TgUEOmdJMlnCEEfmhmh1t1bZGOO0%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711016608%26sprefix%3Dkieh%252Caps%252C318%26sr%3D8-26-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/Creme-Corps-Moisturizer-250ml-8-4oz/dp/B00BLZN8R0/ref=sr_1_11?crid=31IK81A5GADWM&amp;dib=eyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On616zFEYOwboo5zACpwpeMpT2ISp_IBz-PaaiSpx9YaYhKG3g7ADm48Rwzbx5jzA3ZLv8es4glxEZ8BkhO0_8KG3irF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.DN2lCcQKX7v2VpUBfMGXdfWHhccGy35_80bUTzm8yTU&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711024656&amp;sprefix=kieh%2Caps%2C309&amp;sr=8-11</t>
   </si>
   <si>
     <t>Triple Age Repair Anti-Aging Daily Facial Moisturizer with SPF 25 Sunscreen &amp; Vitamin C, Firming Anti-Wrinkle Face &amp; Neck Cream for Dark Spots, Glycerin &amp; Shea Butter, 1.7 oz</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MzIyODkwMDUyOTY3MDgwOjE3MTEwMTY2MDg6c3BfbXRmOjMwMDEwNDY1NDQxNjMwMjo6MDo6&amp;url=%2FNeutrogena-Moisturizer-Sunscreen-Corrector-Glycerin%2Fdp%2FB00HNSSPHC%2Fref%3Dsr_1_25_sspa%3Fcrid%3D3AHLI3EMS6CUT%26dib%3DeyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On63Av9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZesr-8ynFMzyxSsLDbWtsKFAJ80qf2hOSq2rlUMi3wSDirF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.xe8xm1CFl5reNC8TgUEOmdJMlnCEEfmhmh1t1bZGOO0%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711016608%26sprefix%3Dkieh%252Caps%252C318%26sr%3D8-25-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Rapid Wrinkle Repair Retinol Face Moisturizer with SPF 30 Sunscreen, Daily Anti-Aging Face Cream with Retinol &amp; Hyaluronic Acid to Fight Fine Lines, Wrinkles, &amp; Dark Spots, 1 fl. oz</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MzIyODkwMDUyOTY3MDgwOjE3MTEwMTY2MDg6c3BfbXRmOjMwMDEwNDY1NDQxNjQwMjo6MDo6&amp;url=%2FNeutrogena-Wrinkle-Anti-Wrinkle-Moisturizer-Sunscreen%2Fdp%2FB004D2C57M%2Fref%3Dsr_1_27_sspa%3Fcrid%3D3AHLI3EMS6CUT%26dib%3DeyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On63Av9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZesr-8ynFMzyxSsLDbWtsKFAJ80qf2hOSq2rlUMi3wSDirF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.xe8xm1CFl5reNC8TgUEOmdJMlnCEEfmhmh1t1bZGOO0%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711016608%26sprefix%3Dkieh%252Caps%252C318%26sr%3D8-27-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2OTQyNzc3MzI3MTg2MDgwOjE3MTEwMjQ2NTY6c3BfbXRmOjMwMDEwNDY1NDQxNjMwMjo6MDo6&amp;url=%2FNeutrogena-Moisturizer-Sunscreen-Corrector-Glycerin%2Fdp%2FB00HNSSPHC%2Fref%3Dsr_1_28_sspa%3Fcrid%3D31IK81A5GADWM%26dib%3DeyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On616zFEYOwboo5zACpwpeMpT2ISp_IBz-PaaiSpx9YaYhKG3g7ADm48Rwzbx5jzA3ZLv8es4glxEZ8BkhO0_8KG3irF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.DN2lCcQKX7v2VpUBfMGXdfWHhccGy35_80bUTzm8yTU%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711024656%26sprefix%3Dkieh%252Caps%252C309%26sr%3D8-28-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Facial Moisturizers Clear Complexion Daily Moisturizer Pump,4 fl oz</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MzIyODkwMDUyOTY3MDgwOjE3MTEwMTY2MDg6c3BfbXRmOjMwMDA4MjEzMzk4MTcwMjo6MDo6&amp;url=%2FAveeno-Acne-Fighting-Moisturizer-Breakout-Prone-Hypoallergenic%2Fdp%2FB00006FRW7%2Fref%3Dsr_1_24_sspa%3Fcrid%3D3AHLI3EMS6CUT%26dib%3DeyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On63Av9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZesr-8ynFMzyxSsLDbWtsKFAJ80qf2hOSq2rlUMi3wSDirF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.xe8xm1CFl5reNC8TgUEOmdJMlnCEEfmhmh1t1bZGOO0%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711016608%26sprefix%3Dkieh%252Caps%252C318%26sr%3D8-24-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2OTQyNzc3MzI3MTg2MDgwOjE3MTEwMjQ2NTY6c3BfbXRmOjMwMDA4MjEzMzk4MTcwMjo6MDo6&amp;url=%2FAveeno-Acne-Fighting-Moisturizer-Breakout-Prone-Hypoallergenic%2Fdp%2FB00006FRW7%2Fref%3Dsr_1_27_sspa%3Fcrid%3D31IK81A5GADWM%26dib%3DeyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On616zFEYOwboo5zACpwpeMpT2ISp_IBz-PaaiSpx9YaYhKG3g7ADm48Rwzbx5jzA3ZLv8es4glxEZ8BkhO0_8KG3irF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.DN2lCcQKX7v2VpUBfMGXdfWHhccGy35_80bUTzm8yTU%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711024656%26sprefix%3Dkieh%252Caps%252C309%26sr%3D8-27-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Positively Radiant Daily Facial Moisturizer with Broad Spectrum SPF 30 Sunscreen &amp; Soy, Helps Improves Skin Tone &amp; Texture, Hypoallergenic, Oil-Free &amp; Non-Comedogenic, 2.3 fl. oz</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MzIyODkwMDUyOTY3MDgwOjE3MTEwMTY2MDg6c3BfbXRmOjIwMDA3ODY5NzgyMTA5ODo6MDo6&amp;url=%2FAveeno-Positively-Moisturizer-Hypoallergenic-Non-Comedogenic%2Fdp%2FB0B7YQBVS1%2Fref%3Dsr_1_19_sspa%3Fcrid%3D3AHLI3EMS6CUT%26dib%3DeyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On63Av9yIJ0ADD75FZszVgDCEN4e45NxloucED02LosQyZesr-8ynFMzyxSsLDbWtsKFAJ80qf2hOSq2rlUMi3wSDirF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.xe8xm1CFl5reNC8TgUEOmdJMlnCEEfmhmh1t1bZGOO0%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711016608%26sprefix%3Dkieh%252Caps%252C318%26sr%3D8-19-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2OTQyNzc3MzI3MTg2MDgwOjE3MTEwMjQ2NTY6c3BfbXRmOjIwMDA3ODY5NzgyMTA5ODo6MDo6&amp;url=%2FAveeno-Positively-Moisturizer-Hypoallergenic-Non-Comedogenic%2Fdp%2FB0B7YQBVS1%2Fref%3Dsr_1_20_sspa%3Fcrid%3D31IK81A5GADWM%26dib%3DeyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On616zFEYOwboo5zACpwpeMpT2ISp_IBz-PaaiSpx9YaYhKG3g7ADm48Rwzbx5jzA3ZLv8es4glxEZ8BkhO0_8KG3irF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.DN2lCcQKX7v2VpUBfMGXdfWHhccGy35_80bUTzm8yTU%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711024656%26sprefix%3Dkieh%252Caps%252C309%26sr%3D8-20-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Moisturizing Lotion (20 fl. oz., 2 pk.)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Cetaphil-Moisturizing-Lotion-fl-oz/dp/B01M61GS64/ref=sr_1_11?crid=6HAP8MFM1QSO&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711016613&amp;sprefix=ceta%2Caps%2C300&amp;sr=8-11</t>
+    <t>https://www.amazon.com/Cetaphil-Moisturizing-Lotion-fl-oz/dp/B01M61GS64/ref=sr_1_17?crid=QLKN5C087CRY&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtzVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.BaTlAqSGKoXF_r4zY5wm09b2GIfZxmaKQoxeIPssT1o&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711024677&amp;sprefix=ceta%2Caps%2C322&amp;sr=8-17</t>
   </si>
   <si>
     <t>Advanced Relief Lotion with Shea Butter, 2 Pack - 16 oz, For Dry, Sensitive Skin, 48-Hr Moisture, Restores Skin Barrier, Fragrance Free, Dermatologist Recommended Sensitive Skincare Brand</t>
   </si>
   <si>
-    <t>https://www.amazon.com/CETAPHIL-Advanced-Relief-Lotion-Butter/dp/B07GFG4Y55/ref=sr_1_13?crid=6HAP8MFM1QSO&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711016613&amp;sprefix=ceta%2Caps%2C300&amp;sr=8-13</t>
-  </si>
-  <si>
-    <t>Intensive Repair Body Lotion, Lotion for Very Dry Skin, 8.4 Fl Oz (Pack of 3)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxODI2Mzk1ODc0NTcwODA6MTcxMTAxNjYxMzpzcF9tdGY6MzAwMDU5Njg1Mjk4OTAyOjowOjo&amp;url=%2FEucerin-Intensive-Repair-Lotion-Bottle%2Fdp%2FB000O3SS9S%2Fref%3Dsr_1_19_sspa%3Fcrid%3D6HAP8MFM1QSO%26dib%3DeyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711016613%26sprefix%3Dceta%252Caps%252C300%26sr%3D8-19-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/CETAPHIL-Advanced-Relief-Lotion-Butter/dp/B07GFG4Y55/ref=sr_1_23?crid=QLKN5C087CRY&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtzVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.BaTlAqSGKoXF_r4zY5wm09b2GIfZxmaKQoxeIPssT1o&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711024677&amp;sprefix=ceta%2Caps%2C322&amp;sr=8-23</t>
+  </si>
+  <si>
+    <t>Body Lotion, Advanced Relief Lotion With Shea Butter For Dry, Sensitive Skin, 16 Oz Pack of 2, Fragrance Free, Hypoallergenic, Non-Comedogenic</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyOTgxMTk4OTM0MDg0MDgwOjE3MTEwMjQ2Nzc6c3BfYXRmOjIwMDA3MDc2NTczODg5ODo6MDo6&amp;url=%2FCETAPHIL-Sensitive-Fragrance-Hypoallergenic-Non-Comedogenic%2Fdp%2FB099N1CHF5%2Fref%3Dsr_1_1_sspa%3Fcrid%3DQLKN5C087CRY%26dib%3DeyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtzVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.BaTlAqSGKoXF_r4zY5wm09b2GIfZxmaKQoxeIPssT1o%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711024677%26sprefix%3Dceta%252Caps%252C322%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Cetaphil Body Lotion, Advanced Relief Lotion With Shea Butter For Dry, Sensitive Skin, 16 Oz Pack of 2, Fragrance Free, Hypoallergenic, Non-Comedogenic</t>
   </si>
   <si>
-    <t>https://www.amazon.com/CETAPHIL-Sensitive-Fragrance-Hypoallergenic-Non-Comedogenic/dp/B099N1CHF5/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=6HAP8MFM1QSO&amp;cv_ct_cx=Cetaphil+Lotion&amp;dib=eyJ2IjoiMSJ9.Qz4goJSy43pzZDk4Tn-8-X0bu1oTS4vCsgFuzRMKQ3HYWFoN2y6AUzyi_kliU4YnyIGehde6DspkB-BesQSFeQ.n4Zp4fKhCaw5LmRdfoiTvxWMWWwW139oEkCpa3wl-gc&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;pd_rd_i=B099N1CHF5&amp;pd_rd_r=58aa9419-c65c-4671-9e50-33036a184eed&amp;pd_rd_w=De1lQ&amp;pd_rd_wg=4wIIa&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=C3CPR00593MJHKTE9STF&amp;qid=1711016613&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=ceta%2Caps%2C300&amp;sr=1-5-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
-  </si>
-  <si>
-    <t>Body Lotion, Advanced Relief Lotion With Shea Butter For Dry, Sensitive Skin, 16 Oz Pack of 2, Fragrance Free, Hypoallergenic, Non-Comedogenic</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxODI2Mzk1ODc0NTcwODA6MTcxMTAxNjYxMzpzcF9tdGY6MjAwMDcwNzY1NzM4ODk4OjowOjo&amp;url=%2FCETAPHIL-Sensitive-Fragrance-Hypoallergenic-Non-Comedogenic%2Fdp%2FB099N1CHF5%2Fref%3Dsr_1_18_sspa%3Fcrid%3D6HAP8MFM1QSO%26dib%3DeyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711016613%26sprefix%3Dceta%252Caps%252C300%26sr%3D8-18-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/CETAPHIL-Sensitive-Fragrance-Hypoallergenic-Non-Comedogenic/dp/B099N1CHF5/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=QLKN5C087CRY&amp;cv_ct_cx=Cetaphil+Lotion&amp;dib=eyJ2IjoiMSJ9.Qz4goJSy43pzZDk4Tn-8-X0bu1oTS4vCsgFuzRMKQ3HYWFoN2y6AUzyi_kliU4YnyIGehde6DspkB-BesQSFeQ.n4Zp4fKhCaw5LmRdfoiTvxWMWWwW139oEkCpa3wl-gc&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;pd_rd_i=B099N1CHF5&amp;pd_rd_r=8c13d1ea-c9dd-4b15-846c-af5250cb04a4&amp;pd_rd_w=U1ELF&amp;pd_rd_wg=EW4i1&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=R3Y4S2P9R0726JZGF4ZG&amp;qid=1711024677&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=ceta%2Caps%2C322&amp;sr=1-5-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
   </si>
   <si>
     <t>Moisturizing Lotion 20oz</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Cetaphil-Moisturizing-Lotion-20oz/dp/B07B2B7P6F/ref=sr_1_10?crid=6HAP8MFM1QSO&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711016613&amp;sprefix=ceta%2Caps%2C300&amp;sr=8-10</t>
+    <t>https://www.amazon.com/Cetaphil-Moisturizing-Lotion-20oz/dp/B07B2B7P6F/ref=sr_1_16?crid=QLKN5C087CRY&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtzVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.BaTlAqSGKoXF_r4zY5wm09b2GIfZxmaKQoxeIPssT1o&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711024677&amp;sprefix=ceta%2Caps%2C322&amp;sr=8-16</t>
+  </si>
+  <si>
+    <t>Moisturizing Lotion, 8 fl oz (Pack of 3), Hydrating Moisturizer For All Skin Types, Instant Hydration lasting up to 24 Hours, Non-Greasy, Lotion for Even the Most Sensitive Skin</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Moisturizing-Hydrating-Moisturizer-Hydration-Non-Greasy/dp/B001ET734C/ref=sr_1_27?crid=QLKN5C087CRY&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtzVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.BaTlAqSGKoXF_r4zY5wm09b2GIfZxmaKQoxeIPssT1o&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711024677&amp;sprefix=ceta%2Caps%2C322&amp;sr=8-27</t>
   </si>
   <si>
     <t>Intensive Healing Lotion with Ceramides 16 oz For Dry, Rough, Flaky Sensitive Skin 24-Hour Hydration Fragrance, Paraben &amp; Gluten Free</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Intensive-Ceramides-Sensitive-Hydration-Dermatologist/dp/B07S7FRWKR/ref=sr_1_9?crid=6HAP8MFM1QSO&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711016613&amp;sprefix=ceta%2Caps%2C300&amp;sr=8-9</t>
-  </si>
-  <si>
-    <t>Moisturizing Lotion, 8 fl oz (Pack of 3), Hydrating Moisturizer For All Skin Types, Instant Hydration lasting up to 24 Hours, Non-Greasy, Lotion for Even the Most Sensitive Skin</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Moisturizing-Hydrating-Moisturizer-Hydration-Non-Greasy/dp/B001ET734C/ref=sr_1_22?crid=6HAP8MFM1QSO&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711016613&amp;sprefix=ceta%2Caps%2C300&amp;sr=8-22</t>
+    <t>https://www.amazon.com/Intensive-Ceramides-Sensitive-Hydration-Dermatologist/dp/B07S7FRWKR/ref=sr_1_15?crid=QLKN5C087CRY&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtzVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.BaTlAqSGKoXF_r4zY5wm09b2GIfZxmaKQoxeIPssT1o&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711024677&amp;sprefix=ceta%2Caps%2C322&amp;sr=8-15</t>
+  </si>
+  <si>
+    <t>Body Moisturizer, Hydrating Moisturizing Lotion for All Skin Types, Suitable for Sensitive Skin, NEW 16 oz Pack of 2, Fragrance Free, Hypoallergenic, Non-Comedogenic</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyOTgxMTk4OTM0MDg0MDgwOjE3MTEwMjQ2Nzc6c3BfYXRmOjIwMDAyMDY4MzI3MjE5ODo6MDo6&amp;url=%2FMoisturizer-Hydrating-Moisturizing-Hypoallergenic-Non-Comedogenic%2Fdp%2FB099MYSH3X%2Fref%3Dsr_1_4_sspa%3Fcrid%3DQLKN5C087CRY%26dib%3DeyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtzVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.BaTlAqSGKoXF_r4zY5wm09b2GIfZxmaKQoxeIPssT1o%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711024677%26sprefix%3Dceta%252Caps%252C322%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Cetaphil Body Moisturizer, Hydrating Moisturizing Lotion for All Skin Types, Suitable for Sensitive Skin, NEW 16 oz Pack of 2, Fragrance Free, Hypoallergenic, Non-Comedogenic</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Moisturizer-Hydrating-Moisturizing-Hypoallergenic-Non-Comedogenic/dp/B099MYSH3X/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=6HAP8MFM1QSO&amp;cv_ct_cx=Cetaphil+Lotion&amp;dib=eyJ2IjoiMSJ9.Qz4goJSy43pzZDk4Tn-8-X0bu1oTS4vCsgFuzRMKQ3HYWFoN2y6AUzyi_kliU4YnyIGehde6DspkB-BesQSFeQ.n4Zp4fKhCaw5LmRdfoiTvxWMWWwW139oEkCpa3wl-gc&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;pd_rd_i=B099MYSH3X&amp;pd_rd_r=58aa9419-c65c-4671-9e50-33036a184eed&amp;pd_rd_w=De1lQ&amp;pd_rd_wg=4wIIa&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=C3CPR00593MJHKTE9STF&amp;qid=1711016613&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=ceta%2Caps%2C300&amp;sr=1-4-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
+    <t>https://www.amazon.com/Moisturizer-Hydrating-Moisturizing-Hypoallergenic-Non-Comedogenic/dp/B099MYSH3X/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=QLKN5C087CRY&amp;cv_ct_cx=Cetaphil+Lotion&amp;dib=eyJ2IjoiMSJ9.Qz4goJSy43pzZDk4Tn-8-X0bu1oTS4vCsgFuzRMKQ3HYWFoN2y6AUzyi_kliU4YnyIGehde6DspkB-BesQSFeQ.n4Zp4fKhCaw5LmRdfoiTvxWMWWwW139oEkCpa3wl-gc&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;pd_rd_i=B099MYSH3X&amp;pd_rd_r=8c13d1ea-c9dd-4b15-846c-af5250cb04a4&amp;pd_rd_w=U1ELF&amp;pd_rd_wg=EW4i1&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=R3Y4S2P9R0726JZGF4ZG&amp;qid=1711024677&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=ceta%2Caps%2C322&amp;sr=1-4-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
+  </si>
+  <si>
+    <t>Restoring Body Lotion with Antioxidants for Aging Skin, Great for Neck and Chest Areas, Fragrance and Paraben Free, Suitable for Sensitve Skin 16 oz. Bottle</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Cetaphil-Restoring-Lotion-Antioxidants-Bottle/dp/B07S6CPWH4/ref=sr_1_18?crid=QLKN5C087CRY&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtzVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.BaTlAqSGKoXF_r4zY5wm09b2GIfZxmaKQoxeIPssT1o&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711024677&amp;sprefix=ceta%2Caps%2C322&amp;sr=8-18</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyOTgxMTk4OTM0MDg0MDgwOjE3MTEwMjQ2Nzc6c3BfbXRmOjIwMDAyMzc4NDYwMzg3MTo6MDo6&amp;url=%2FCetaphil-Restoring-Lotion-Antioxidants-Bottle%2Fdp%2FB07S6CPWH4%2Fref%3Dsr_1_22_sspa%3Fcrid%3DQLKN5C087CRY%26dib%3DeyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtzVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.BaTlAqSGKoXF_r4zY5wm09b2GIfZxmaKQoxeIPssT1o%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711024677%26sprefix%3Dceta%252Caps%252C322%26sr%3D8-22-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Daily Moisturizing Lotion for Dry Skin | Body Lotion &amp; Face Moisturizer with Hyaluronic Acid and Ceramides | Daily Moisturizer | Fragrance Free | Oil-Free | 19 Ounce</t>
@@ -216,265 +225,235 @@
     <t>4.8 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxODI2Mzk1ODc0NTcwODA6MTcxMTAxNjYxMzpzcF9hdGY6MjAwMDI3MzIzMzEyMjExOjowOjo&amp;url=%2FCeraVe-Moisturizing-Lotion-Hyaluronic-Fragrance%2Fdp%2FB07RK4HST7%2Fref%3Dsr_1_1_sspa%3Fcrid%3D6HAP8MFM1QSO%26dib%3DeyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711016613%26sprefix%3Dceta%252Caps%252C300%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Restoring Body Lotion with Antioxidants for Aging Skin, Great for Neck and Chest Areas, Fragrance and Paraben Free, Suitable for Sensitve Skin 16 oz. Bottle</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Cetaphil-Restoring-Lotion-Antioxidants-Bottle/dp/B07S6CPWH4/ref=sr_1_12?crid=6HAP8MFM1QSO&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711016613&amp;sprefix=ceta%2Caps%2C300&amp;sr=8-12</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyOTgxMTk4OTM0MDg0MDgwOjE3MTEwMjQ2Nzc6c3BfbXRmOjIwMDAyNzMyMzMxMjIxMTo6MDo6&amp;url=%2FCeraVe-Moisturizing-Lotion-Hyaluronic-Fragrance%2Fdp%2FB07RK4HST7%2Fref%3Dsr_1_11_sspa%3Fcrid%3DQLKN5C087CRY%26dib%3DeyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtzVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.BaTlAqSGKoXF_r4zY5wm09b2GIfZxmaKQoxeIPssT1o%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711024677%26sprefix%3Dceta%252Caps%252C322%26sr%3D8-11-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Cetaphil Face Cream, Healthy Radiance Renewing Cream, Visbily Reduces Look of Dark Spots, Brightening Lotion, Designed for Sensitive Skin, Hypoallergenic, Fragrance Free, 1.7oz</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Cetaphil-Brightening-Sensitive-Hypoallergenic-Fragrance/dp/B093VNVYJT/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=6HAP8MFM1QSO&amp;cv_ct_cx=Cetaphil+Lotion&amp;dib=eyJ2IjoiMSJ9.Qz4goJSy43pzZDk4Tn-8-X0bu1oTS4vCsgFuzRMKQ3HYWFoN2y6AUzyi_kliU4YnyIGehde6DspkB-BesQSFeQ.n4Zp4fKhCaw5LmRdfoiTvxWMWWwW139oEkCpa3wl-gc&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;pd_rd_i=B093VNVYJT&amp;pd_rd_r=58aa9419-c65c-4671-9e50-33036a184eed&amp;pd_rd_w=De1lQ&amp;pd_rd_wg=4wIIa&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=C3CPR00593MJHKTE9STF&amp;qid=1711016613&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=ceta%2Caps%2C300&amp;sr=1-3-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
+    <t>https://www.amazon.com/Cetaphil-Brightening-Sensitive-Hypoallergenic-Fragrance/dp/B093VNVYJT/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=QLKN5C087CRY&amp;cv_ct_cx=Cetaphil+Lotion&amp;dib=eyJ2IjoiMSJ9.Qz4goJSy43pzZDk4Tn-8-X0bu1oTS4vCsgFuzRMKQ3HYWFoN2y6AUzyi_kliU4YnyIGehde6DspkB-BesQSFeQ.n4Zp4fKhCaw5LmRdfoiTvxWMWWwW139oEkCpa3wl-gc&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;pd_rd_i=B093VNVYJT&amp;pd_rd_r=8c13d1ea-c9dd-4b15-846c-af5250cb04a4&amp;pd_rd_w=U1ELF&amp;pd_rd_wg=EW4i1&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=R3Y4S2P9R0726JZGF4ZG&amp;qid=1711024677&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=ceta%2Caps%2C322&amp;sr=1-3-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
   </si>
   <si>
     <t>Body Lotion, Advanced Relief Lotion with Shea Butter for Dry, Sensitive Skin, NEW 20oz, Fragrance Free, Hypoallergenic, Non-Comedogenic</t>
   </si>
   <si>
-    <t>https://www.amazon.com/CETAPHIL-Sensitive-Fragrance-Hypoallergenic-Non-Comedogenic/dp/B099MJ4Q9V/ref=sr_1_5?crid=6HAP8MFM1QSO&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711016613&amp;sprefix=ceta%2Caps%2C300&amp;sr=8-5</t>
-  </si>
-  <si>
-    <t>Daily Advance Ultra Hydrating Lotion - White 100 Grams</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Cetaphil-Daily-Advance-Hydrating-Lotion/dp/B01ER4HUWU/ref=sr_1_21?crid=6HAP8MFM1QSO&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711016613&amp;sprefix=ceta%2Caps%2C300&amp;sr=8-21</t>
+    <t>https://www.amazon.com/CETAPHIL-Sensitive-Fragrance-Hypoallergenic-Non-Comedogenic/dp/B099MJ4Q9V/ref=sr_1_6?crid=QLKN5C087CRY&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtzVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.BaTlAqSGKoXF_r4zY5wm09b2GIfZxmaKQoxeIPssT1o&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711024677&amp;sprefix=ceta%2Caps%2C322&amp;sr=8-6</t>
   </si>
   <si>
     <t>Cetaphil Face Moisturizer, Daily Oil Free Facial Moisturizer with SPF 35, For Dry or Oily Combination Sensitive Skin, Fragrance Free Face Lotion (Packaging May Vary)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Cetaphil-Moisturizer-Sunscreen-Sensitive-Combination/dp/B08LR42YZG/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=6HAP8MFM1QSO&amp;cv_ct_cx=Cetaphil+Lotion&amp;dib=eyJ2IjoiMSJ9.Qz4goJSy43pzZDk4Tn-8-X0bu1oTS4vCsgFuzRMKQ3HYWFoN2y6AUzyi_kliU4YnyIGehde6DspkB-BesQSFeQ.n4Zp4fKhCaw5LmRdfoiTvxWMWWwW139oEkCpa3wl-gc&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;pd_rd_i=B08LR42YZG&amp;pd_rd_r=58aa9419-c65c-4671-9e50-33036a184eed&amp;pd_rd_w=De1lQ&amp;pd_rd_wg=4wIIa&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=C3CPR00593MJHKTE9STF&amp;qid=1711016613&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=ceta%2Caps%2C300&amp;sr=1-2-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
+    <t>https://www.amazon.com/Cetaphil-Moisturizer-Sunscreen-Sensitive-Combination/dp/B08LR42YZG/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=QLKN5C087CRY&amp;cv_ct_cx=Cetaphil+Lotion&amp;dib=eyJ2IjoiMSJ9.Qz4goJSy43pzZDk4Tn-8-X0bu1oTS4vCsgFuzRMKQ3HYWFoN2y6AUzyi_kliU4YnyIGehde6DspkB-BesQSFeQ.n4Zp4fKhCaw5LmRdfoiTvxWMWWwW139oEkCpa3wl-gc&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;pd_rd_i=B08LR42YZG&amp;pd_rd_r=8c13d1ea-c9dd-4b15-846c-af5250cb04a4&amp;pd_rd_w=U1ELF&amp;pd_rd_wg=EW4i1&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=R3Y4S2P9R0726JZGF4ZG&amp;qid=1711024677&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=ceta%2Caps%2C322&amp;sr=1-2-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
+  </si>
+  <si>
+    <t>Baby Eczema Soothing Lotion, Colloidal Oatmeal, Paraben Free, Hypoallergenic, Dry Skin, 10 Fluid Ounce</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyOTgxMTk4OTM0MDg0MDgwOjE3MTEwMjQ2Nzc6c3BfYXRmOjIwMDAyNDI2NzU2Mzg3MTo6MDo6&amp;url=%2FCetaphil-Baby-Soothing-Colloidal-Hypoallergenic%2Fdp%2FB07ZZTTDWP%2Fref%3Dsr_1_3_sspa%3Fcrid%3DQLKN5C087CRY%26dib%3DeyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtzVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.BaTlAqSGKoXF_r4zY5wm09b2GIfZxmaKQoxeIPssT1o%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711024677%26sprefix%3Dceta%252Caps%252C322%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Cracked Skin Repair Lotion, 16 oz, For Very Rough &amp; Cracked, Sensitive Skin, 24 Hour Hydration, Protects &amp; Hydrates Cracked Skin, Hypoallergenic, Fragrance Free Packaging may vary</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Cetaphil-16oz-Cracked-Repair-Lotion/dp/B093VRHLP5/ref=sr_1_8?crid=QLKN5C087CRY&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtzVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.BaTlAqSGKoXF_r4zY5wm09b2GIfZxmaKQoxeIPssT1o&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711024677&amp;sprefix=ceta%2Caps%2C322&amp;sr=8-8</t>
   </si>
   <si>
     <t>Cetaphil Daily Hydrating Lotion for Face, With Hyaluronic Acid, 3 fl oz, Lasting 24 Hr Hydration, for Combination Skin, No Added Fragrance, Non-Comedogenic</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Hyaluronic-Combination-Non-Comedogenic-Dermatologist-Recommended/dp/B01MG4PSK4/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=6HAP8MFM1QSO&amp;cv_ct_cx=Cetaphil+Lotion&amp;dib=eyJ2IjoiMSJ9.Qz4goJSy43pzZDk4Tn-8-X0bu1oTS4vCsgFuzRMKQ3HYWFoN2y6AUzyi_kliU4YnyIGehde6DspkB-BesQSFeQ.n4Zp4fKhCaw5LmRdfoiTvxWMWWwW139oEkCpa3wl-gc&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;pd_rd_i=B01MG4PSK4&amp;pd_rd_r=58aa9419-c65c-4671-9e50-33036a184eed&amp;pd_rd_w=De1lQ&amp;pd_rd_wg=4wIIa&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=C3CPR00593MJHKTE9STF&amp;qid=1711016613&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=ceta%2Caps%2C300&amp;sr=1-1-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
-  </si>
-  <si>
-    <t>Cracked Skin Repair Lotion, 16 oz, For Very Rough &amp; Cracked, Sensitive Skin, 24 Hour Hydration, Protects &amp; Hydrates Cracked Skin, Hypoallergenic, Fragrance Free Packaging may vary</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Cetaphil-16oz-Cracked-Repair-Lotion/dp/B093VRHLP5/ref=sr_1_6?crid=6HAP8MFM1QSO&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711016613&amp;sprefix=ceta%2Caps%2C300&amp;sr=8-6</t>
+    <t>https://www.amazon.com/Hyaluronic-Combination-Non-Comedogenic-Dermatologist-Recommended/dp/B01MG4PSK4/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=QLKN5C087CRY&amp;cv_ct_cx=Cetaphil+Lotion&amp;dib=eyJ2IjoiMSJ9.Qz4goJSy43pzZDk4Tn-8-X0bu1oTS4vCsgFuzRMKQ3HYWFoN2y6AUzyi_kliU4YnyIGehde6DspkB-BesQSFeQ.n4Zp4fKhCaw5LmRdfoiTvxWMWWwW139oEkCpa3wl-gc&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;pd_rd_i=B01MG4PSK4&amp;pd_rd_r=8c13d1ea-c9dd-4b15-846c-af5250cb04a4&amp;pd_rd_w=U1ELF&amp;pd_rd_wg=EW4i1&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=R3Y4S2P9R0726JZGF4ZG&amp;qid=1711024677&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=ceta%2Caps%2C322&amp;sr=1-1-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
   </si>
   <si>
     <t>Daily Hydrating Lotion for Face, With Hyaluronic Acid, 3 fl oz, Lasting 24 Hr Hydration, for Combination Skin, No Added Fragrance, Non-Comedogenic</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Hyaluronic-Combination-Non-Comedogenic-Dermatologist-Recommended/dp/B01MG4PSK4/ref=sr_1_7?crid=6HAP8MFM1QSO&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711016613&amp;sprefix=ceta%2Caps%2C300&amp;sr=8-7</t>
-  </si>
-  <si>
-    <t>Original Healing Rich Body Lotion, Body Lotion for Dry Skin, 16.9 Fl Oz Pump Bottle</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxODI2Mzk1ODc0NTcwODA6MTcxMTAxNjYxMzpzcF9tdGY6MzAwMDU5Njg1Mjk5MTAyOjowOjo&amp;url=%2FEucerin-Original-Healing-Lotion-packaging%2Fdp%2FB00BPF3LN2%2Fref%3Dsr_1_20_sspa%3Fcrid%3D6HAP8MFM1QSO%26dib%3DeyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711016613%26sprefix%3Dceta%252Caps%252C300%26sr%3D8-20-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Baby Eczema Soothing Lotion, Colloidal Oatmeal, Paraben Free, Hypoallergenic, Dry Skin, 10 Fluid Ounce</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Cetaphil-Baby-Soothing-Colloidal-Hypoallergenic/dp/B07ZZTTDWP/ref=sr_1_24?crid=6HAP8MFM1QSO&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711016613&amp;sprefix=ceta%2Caps%2C300&amp;sr=8-24</t>
+    <t>https://www.amazon.com/Hyaluronic-Combination-Non-Comedogenic-Dermatologist-Recommended/dp/B01MG4PSK4/ref=sr_1_9?crid=QLKN5C087CRY&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtzVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.BaTlAqSGKoXF_r4zY5wm09b2GIfZxmaKQoxeIPssT1o&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711024677&amp;sprefix=ceta%2Caps%2C322&amp;sr=8-9</t>
   </si>
   <si>
     <t>Sheer Hydration Fragrance Free Replenishing Body Lotion for Dry Skin, 16 fl oz, 48Hr Sensitive Skin Body Moisturizer, With Hyaluronic Acid, Vitamin E &amp; B5</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Cetaphil-NULL/dp/B09B1L339V/ref=sr_1_15?crid=6HAP8MFM1QSO&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711016613&amp;sprefix=ceta%2Caps%2C300&amp;sr=8-15</t>
-  </si>
-  <si>
-    <t>Daily Moisturizer, Body Lotion, For Dry Skin, Prebiotic Oat Fragrance Free, 18 fl. oz, Pack of 1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxODI2Mzk1ODc0NTcwODA6MTcxMTAxNjYxMzpzcF9tdGY6MjAwMTM0NDg4NDc1Njk4OjowOjo&amp;url=%2FAveeno-Moisturizing-Soothing-Emollients-Fragrance-Free%2Fdp%2FB001459IEE%2Fref%3Dsr_1_27_sspa%3Fcrid%3D6HAP8MFM1QSO%26dib%3DeyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711016613%26sprefix%3Dceta%252Caps%252C300%26sr%3D8-27-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/Cetaphil-NULL/dp/B09B1L339V/ref=sr_1_25?crid=QLKN5C087CRY&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtzVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.BaTlAqSGKoXF_r4zY5wm09b2GIfZxmaKQoxeIPssT1o&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711024677&amp;sprefix=ceta%2Caps%2C322&amp;sr=8-25</t>
   </si>
   <si>
     <t>Baby Daily Lotion, 13.5oz - With Organic Calendula, Vitamin E &amp; Oils, Mineral Oil &amp; Paraben Free, For Sensitive Skin</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Cetaphil-Baby-Calendula-Dermatologist-Clinically/dp/B09JLBDDLD/ref=sr_1_14?crid=6HAP8MFM1QSO&amp;dib=eyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711016613&amp;sprefix=ceta%2Caps%2C300&amp;sr=8-14</t>
+    <t>https://www.amazon.com/Cetaphil-Baby-Calendula-Dermatologist-Clinically/dp/B09JLBDDLD/ref=sr_1_24?crid=QLKN5C087CRY&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtzVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.BaTlAqSGKoXF_r4zY5wm09b2GIfZxmaKQoxeIPssT1o&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711024677&amp;sprefix=ceta%2Caps%2C322&amp;sr=8-24</t>
   </si>
   <si>
     <t>Daily Moisture Lotion + Pro-Ceramide with Shea Butter &amp; Glycerin Helps Moisturize Dry Skin, Hydrating Face, Hand &amp; Body Lotion is Lightly Scented &amp; Non-Greasy, 24 fl. oz</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxODI2Mzk1ODc0NTcwODA6MTcxMTAxNjYxMzpzcF9tdGY6MzAwMDg3NTUyNTkyNDAyOjowOjo&amp;url=%2FLubriderm-Moisture-Hydrating-Vitamin-Non-Greasy%2Fdp%2FB003JT8PKQ%2Fref%3Dsr_1_17_sspa%3Fcrid%3D6HAP8MFM1QSO%26dib%3DeyJ2IjoiMSJ9.cXjdC2H_e2eRm-bPfFQOSOjaxDs05UxHjQae6E4Rt7rVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HegbU4eu7-pL_6inNjmVpT3WaY6tQw0GKIrrhUbRjycNhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.CMayQP5K9IRQKFp3DJiJVyrg_uWfFLyW_hRdWpvycDg%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711016613%26sprefix%3Dceta%252Caps%252C300%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>The PLASMA Tinted Lip Compound - Shimmery Peach Plumping Lip Gloss, Hyaluronic Acid &amp; Shea Butter Deeply Hydrate - Salicylic Acid &amp; Peptides Visibly Smooth and Improve Lines, Bellini - 15 mL</t>
-  </si>
-  <si>
-    <t>3.9 out of 5 stars</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNzQ2NzM2ODIzMDEyMDgwOjE3MTEwMTY2MTg6c3BfbXRmOjMwMDAzODMxMzY1MTMwMjo6MDo6&amp;url=%2FBeauty-PLASMA-Tinted-Lip-Compound%2Fdp%2FB0CDPV7RWR%2Fref%3Dsr_1_28_sspa%3Fcrid%3D23I69FL2MKBIK%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711016618%26sprefix%3Dvas%252Caps%252C314%26sr%3D8-28-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyOTgxMTk4OTM0MDg0MDgwOjE3MTEwMjQ2Nzc6c3BfbXRmOjMwMDA4NzU1MjU5MjQwMjo6MDo6&amp;url=%2FLubriderm-Moisture-Hydrating-Vitamin-Non-Greasy%2Fdp%2FB003JT8PKQ%2Fref%3Dsr_1_20_sspa%3Fcrid%3DQLKN5C087CRY%26dib%3DeyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtzVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.BaTlAqSGKoXF_r4zY5wm09b2GIfZxmaKQoxeIPssT1o%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711024677%26sprefix%3Dceta%252Caps%252C322%26sr%3D8-20-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Lip Therapy Original, .25 oz (Pack of 12)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vaseline-Lip-Therapy-Original-Pack/dp/B00PR903YW/ref=sr_1_21?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-21</t>
+    <t>https://www.amazon.com/Vaseline-Lip-Therapy-Original-Pack/dp/B00PR903YW/ref=sr_1_18?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-18</t>
   </si>
   <si>
     <t>Lip Therapy Original - Hydrating Lip Balm Pack, Vaseline Stick, Lip Moisturizer for Dry Lips, 0.16 Oz Each (Pack of 12)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vaseline-Therapy-0-16-Original-Pack/dp/B07WTNTWPR/ref=sr_1_16?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-16</t>
+    <t>https://www.amazon.com/Vaseline-Therapy-0-16-Original-Pack/dp/B07WTNTWPR/ref=sr_1_16?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-16</t>
   </si>
   <si>
     <t>Lip Therapy Petroleum Jelly 20g With Rose &amp; Almond Oil Rosy Lips</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vaseline-Therapy-Petroleum-Jelly-Almond/dp/B00PHUC9SO/ref=sr_1_22?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-22</t>
+    <t>https://www.amazon.com/Vaseline-Therapy-Petroleum-Jelly-Almond/dp/B00PHUC9SO/ref=sr_1_24?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-24</t>
   </si>
   <si>
     <t>Lip Therapy Tinted Lip Balm Mini, Rosy,0.25 Ounce (Pack of 8)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vaseline-Therapy-Rosy-0-25-Pack/dp/B00HC47QBI/ref=sr_1_23?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-23</t>
+    <t>https://www.amazon.com/Vaseline-Therapy-Rosy-0-25-Pack/dp/B00HC47QBI/ref=sr_1_25?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-25</t>
   </si>
   <si>
     <t>Lip Therapy Rosy Lips, Cocoa Butter, Creme Brulee, Original - Vaseline Lip Balm, Tinted and Clear Lip Gloss Set, 2 of Each, 0.25 Oz Ea (8 Piece Set)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vaseline-Lip-Therapy-Original-Pack/dp/B0167K3UOO/ref=sr_1_9?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-9</t>
+    <t>https://www.amazon.com/Vaseline-Lip-Therapy-Original-Pack/dp/B0167K3UOO/ref=sr_1_8?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-8</t>
   </si>
   <si>
     <t>Lip Therapy Original – Mini Vaseline Lip Balm, Hydrating Petroleum Jelly, Clear Lip Gloss, Travel-Size, 0.25 Oz Ea (Pack of 6)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNzQ2NzM2ODIzMDEyMDgwOjE3MTEwMTY2MTg6c3BfYXRmOjMwMDEzNDQzNTE2NDgwMjo6MDo6&amp;url=%2FVaseline-Original-Petrolatum-Moisturizer-Petroleum%2Fdp%2FB0BLP85Y75%2Fref%3Dsr_1_1_sspa%3Fcrid%3D23I69FL2MKBIK%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711016618%26sprefix%3Dvas%252Caps%252C314%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozODYzNjAwMzUxMTMyMDgwOjE3MTEwMjQ2OTI6c3BfYXRmOjMwMDEzNDQzNTE2NDgwMjo6MDo6&amp;url=%2FVaseline-Original-Petrolatum-Moisturizer-Petroleum%2Fdp%2FB0BLP85Y75%2Fref%3Dsr_1_1_sspa%3Fcrid%3D1HX3CY7O8RIBV%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711024692%26sprefix%3Dvase%252Caps%252C371%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Vaseline Lip Therapy Original – Mini Vaseline Lip Balm, Hydrating Petroleum Jelly, Clear Lip Gloss, Travel-Size, 0.25 Oz Ea (Pack of 6)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4NzQ1NjI1MTg4MTU5MDgwOjE3MTEwMTY2MTg6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDEzNDQzNTE2NDgwMjo6MDo6&amp;url=%2FVaseline-Original-Petrolatum-Moisturizer-Petroleum%2Fdp%2FB0BLP85Y75%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%253Aamzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%26crid%3D23I69FL2MKBIK%26cv_ct_cx%3DVaseline%2BLip%2BTherapy%26dib%3DeyJ2IjoiMSJ9.Y8Vc9MU8hvoApKGi8BevQJ_LW5rLDVpds6ScmzGbzRm8nQzrsCwj-TNlQWCeIWsR.dm5dNlqzBBALKeD9h-Ud9NBkMPWr8c1VkmnWmW3vTs0%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26pd_rd_i%3DB0BLP85Y75%26pd_rd_r%3D7b9f4952-7f09-483c-9ad7-c7f039e0a75c%26pd_rd_w%3DN5yZM%26pd_rd_wg%3Di8Vrn%26pf_rd_p%3Dd4fdc453-1595-4f7b-ba6a-eb2ac554591f%26pf_rd_r%3DXTCHQ7QAEVK2GH7ENZFH%26qid%3D1711016618%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dvas%252Caps%252C314%26sr%3D1-1-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Lip Rosy, Fast-Acting Nourishment, Ideal for Chapped, Dry, Cracked, or Damaged Lips, Lip Balm,12 Sticks, 1 Box</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Vaseline-Fast-Acting-Nourishment-Chapped-Cracked/dp/B09RXYJB5N/ref=sr_1_30?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-30</t>
-  </si>
-  <si>
-    <t>Rescue Lip Relief Lip Balm, With Shea Butter and Echinacea, Tint-Free, Natural Origin Lip Care, 3 Tubes, 0.35 oz.</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNzQ2NzM2ODIzMDEyMDgwOjE3MTEwMTY2MTg6c3BfbXRmOjMwMDEzODk0NDYzNTAwMjo6MDo6&amp;url=%2FBurts-Bees-Balm-Rescue-Relief%2Fdp%2FB0B8F38RGD%2Fref%3Dsr_1_20_sspa%3Fcrid%3D23I69FL2MKBIK%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711016618%26sprefix%3Dvas%252Caps%252C314%26sr%3D8-20-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Sunright Lip Balm SPF 15</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNzQ2NzM2ODIzMDEyMDgwOjE3MTEwMTY2MTg6c3BfbXRmOjMwMDE0OTQ0MDA1MDAwMjo6MDo6&amp;url=%2FNuskin-Nu-Skin-Sunright-Balm%2Fdp%2FB00FU5FEC4%2Fref%3Dsr_1_26_sspa%3Fcrid%3D23I69FL2MKBIK%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711016618%26sprefix%3Dvas%252Caps%252C314%26sr%3D8-26-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0OTg1MjI3Mjk2NjM5MDgwOjE3MTEwMjQ2OTI6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDEzNDQzNTE2NDgwMjo6MDo6&amp;url=%2FVaseline-Original-Petrolatum-Moisturizer-Petroleum%2Fdp%2FB0BLP85Y75%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%253Aamzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%26crid%3D1HX3CY7O8RIBV%26cv_ct_cx%3DVaseline%2BLip%2BTherapy%26dib%3DeyJ2IjoiMSJ9.Y8Vc9MU8hvoApKGi8BevQE3g1MVdJTMQmYUbGYXSahwJM-m27Vec2lEs5n4iTdsc.FK4x3tM3jy7N9uhyYf2xJ85LqMkajCzzCrvEGTjXaZk%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26pd_rd_i%3DB0BLP85Y75%26pd_rd_r%3Dc4a28026-0f8b-45db-8314-464816754045%26pd_rd_w%3DoJHRf%26pd_rd_wg%3Dt0mY5%26pf_rd_p%3Dd4fdc453-1595-4f7b-ba6a-eb2ac554591f%26pf_rd_r%3DM4MXAGZCXVD2552T7VYN%26qid%3D1711024692%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dvase%252Caps%252C371%26sr%3D1-1-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Cruelty-Free Lip Treatment for Severely Chapped Lips - Extreme Dry Lip Moisturizer - Overnight Balm for Cracked Lips - Made with Kukui Oil, Shea Butter, Grapeseed Oil - Clear Formula - Full Size(15g)</t>
+  </si>
+  <si>
+    <t>https://aax-us-iad.amazon.com/x/c/RDikcp0iUw1Rmc801R86_rEAAAGOYQTeiAEAAAH2AQBvbm9fdHhuX2JpZDQgICBvbm9fdHhuX2ltcDEgICDqyAiy/https://www.amazon.com/Treatment-Hanalei-Grapeseed-Cruelty-Paraben/dp/B01FRN3P0Q/ref=sxin_35_sbv_search_btf?content-id=amzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f%3Aamzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;crid=1HX3CY7O8RIBV&amp;cv_ct_cx=Vaseline+Lip+Therapy&amp;dib=eyJ2IjoiMSJ9.wIw1M1OpUaIFTWUMVXtApg.-3zIi8PgVl1j_f_S2KryAa5_E_zN_5IO1CImb0O48IQ&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;pd_rd_i=B01FRN3P0Q&amp;pd_rd_r=c4a28026-0f8b-45db-8314-464816754045&amp;pd_rd_w=rIALW&amp;pd_rd_wg=t0mY5&amp;pf_rd_p=c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;pf_rd_r=M4MXAGZCXVD2552T7VYN&amp;qid=1711024692&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=vase%2Caps%2C371&amp;sr=1-1-5190daf0-67e3-427c-bea6-c72c1df98776</t>
+  </si>
+  <si>
+    <t>Lip Mask, Overnight Lip Treatment Enriched With Skin Softening Coconut Oil and Hydrating Shea Butter</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozODYzNjAwMzUxMTMyMDgwOjE3MTEwMjQ2OTI6c3BfbXRmOjIwMDEyODQzMzcyOTM5ODo6MDo6&amp;url=%2FMario-Badescu-Overnight-Treatment-Softening%2Fdp%2FB0B7VSL515%2Fref%3Dsr_1_19_sspa%3Fcrid%3D1HX3CY7O8RIBV%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711024692%26sprefix%3Dvase%252Caps%252C371%26sr%3D8-19-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Lip Therapy Lip Balm, Creme Brulee 0.25 oz (Pack of 4)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vaseline-Therapy-Balm-Creme-Brulee/dp/B01IAF03MG/ref=sr_1_15?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-15</t>
-  </si>
-  <si>
-    <t>Lip Mask, Overnight Lip Treatment Enriched With Skin Softening Coconut Oil and Hydrating Shea Butter</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNzQ2NzM2ODIzMDEyMDgwOjE3MTEwMTY2MTg6c3BfbXRmOjIwMDEyODQzMzcyOTM5ODo6MDo6&amp;url=%2FMario-Badescu-Overnight-Treatment-Softening%2Fdp%2FB0B7VSL515%2Fref%3Dsr_1_18_sspa%3Fcrid%3D23I69FL2MKBIK%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711016618%26sprefix%3Dvas%252Caps%252C314%26sr%3D8-18-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/Vaseline-Therapy-Balm-Creme-Brulee/dp/B01IAF03MG/ref=sr_1_17?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-17</t>
+  </si>
+  <si>
+    <t>Lip Therapy Lip Balm, Rosy Lips 0.6 oz (Pack of 3)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Vaseline-Therapy-Balm-Rosy-Lips/dp/B01IAFK5Q0/ref=sr_1_23?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-23</t>
   </si>
   <si>
     <t>Lip Sunscreen Moisturizing and Repair Package SPF 30 - Summer Long Lasting Moisturized, Smooth and Repaired Lips - 3 Flavors (Pack of 6: 2 moisturizing+ 2 repairing+ 2 SPF)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNzQ2NzM2ODIzMDEyMDgwOjE3MTEwMTY2MTg6c3BfbXRmOjMwMDA4NDAwMzc1MzIwMjo6MDo6&amp;url=%2FTANUOYI-Sunscreen-Moisturizing-Repair-Package%2Fdp%2FB0CL68L5VF%2Fref%3Dsr_1_19_sspa%3Fcrid%3D23I69FL2MKBIK%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711016618%26sprefix%3Dvas%252Caps%252C314%26sr%3D8-19-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozODYzNjAwMzUxMTMyMDgwOjE3MTEwMjQ2OTI6c3BfbXRmOjMwMDA4NDAwMzc1MzIwMjo6MDo6&amp;url=%2FTANUOYI-Sunscreen-Moisturizing-Repair-Package%2Fdp%2FB0CL68L5VF%2Fref%3Dsr_1_27_sspa%3Fcrid%3D1HX3CY7O8RIBV%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711024692%26sprefix%3Dvase%252Caps%252C371%26sr%3D8-27-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Lip Therapy Cocoa Butter.25 oz (Pack of 4)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vaseline-Therapy-Cocoa-Butter-25-Pack/dp/B00H8BNEFW/ref=sr_1_5?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-5</t>
+    <t>https://www.amazon.com/Vaseline-Therapy-Cocoa-Butter-25-Pack/dp/B00H8BNEFW/ref=sr_1_4?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-4</t>
+  </si>
+  <si>
+    <t>Rosy Lip Therapy Size .25oz pack of 3</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Vaseline-Rosy-Therapy-Size-25oz/dp/B00THKESN4/ref=sr_1_11?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-11</t>
+  </si>
+  <si>
+    <t>Lip Therapy Stick with Petroleum Jelly (Original, Aloe Vera, Rosy Lips, Cocoa Butter)- 4pk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Vaseline-Therapy-Petroleum-Original-Butter/dp/B07K8YD5V9/ref=sr_1_9?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-9</t>
   </si>
   <si>
     <t>Rosy Lips, Lip Therapy.25 OZ, (Pack of 3), Violet, 75.0Ounce</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vaseline-Rosy-Lips-Therapy-25-Pack/dp/B01JLVRHZ4/ref=sr_1_7?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-7</t>
-  </si>
-  <si>
-    <t>Lip Therapy Stick with Petroleum Jelly (Original, Aloe Vera, Rosy Lips, Cocoa Butter)- 4pk</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Vaseline-Therapy-Petroleum-Original-Butter/dp/B07K8YD5V9/ref=sr_1_10?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-10</t>
+    <t>https://www.amazon.com/Vaseline-Rosy-Lips-Therapy-25-Pack/dp/B01JLVRHZ4/ref=sr_1_6?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-6</t>
   </si>
   <si>
     <t>Lip Therapy Stick with Petroleum Jelly - 3 Pack (Cocoa Butter)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vaseline-Therapy-Stick-Petroleum-Jelly/dp/B07M8JJ7V8/ref=sr_1_13?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-13</t>
+    <t>https://www.amazon.com/Vaseline-Therapy-Stick-Petroleum-Jelly/dp/B07M8JJ7V8/ref=sr_1_13?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-13</t>
   </si>
   <si>
     <t>Therapy Lip Balm, Aloe Vera 0.6 oz (Pack of 3)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vaseline-Therapy-Balm-Aloe-Vera/dp/B01IAFJYUI/ref=sr_1_14?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-14</t>
+    <t>https://www.amazon.com/Vaseline-Therapy-Balm-Aloe-Vera/dp/B01IAFJYUI/ref=sr_1_15?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-15</t>
   </si>
   <si>
     <t>Lip Therapy Variety 4-Pack – Cocoa Butter + Aloe Vera Moisturizing Lip Balm with Vitamin E, 16 Oz Ea</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vaseline-Therapy-Stick-Petroleum-Jelly/dp/B0B2GF9GKL/ref=sr_1_24?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-24</t>
-  </si>
-  <si>
-    <t>Lip Therapy Lip Balm Tin, Original, 0.6 oz</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Vaseline-Lip-Therapy-Balm-Original/dp/B019FCUPLC/ref=sr_1_29?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-29</t>
+    <t>https://www.amazon.com/Vaseline-Therapy-Stick-Petroleum-Jelly/dp/B0B2GF9GKL/ref=sr_1_26?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-26</t>
+  </si>
+  <si>
+    <t>Lip Therapy Care Rosy, Fast-Acting Nourishment, Ideal for Chapped, Dry, Cracked, or Damaged Lips, Lip Balm, 4-Pack, 0.16 Oz Each</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Vaseline-Therapy-Fast-Acting-Nourishment-Chapped/dp/B0BZQP7V3B/ref=sr_1_7?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-7</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozODYzNjAwMzUxMTMyMDgwOjE3MTEwMjQ2OTI6c3BfbXRmOjMwMDA4Mzc1MjA2OTIwMjo6MDo6&amp;url=%2FVaseline-Therapy-Fast-Acting-Nourishment-Chapped%2Fdp%2FB0BZQP7V3B%2Fref%3Dsr_1_20_sspa%3Fcrid%3D1HX3CY7O8RIBV%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711024692%26sprefix%3Dvase%252Caps%252C371%26sr%3D8-20-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Vaseline Lip Therapy Care Rosy, Fast-Acting Nourishment, Ideal for Chapped, Dry, Cracked, or Damaged Lips, Lip Balm, 4-Pack, 0.16 Oz Each</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0OTg1MjI3Mjk2NjM5MDgwOjE3MTEwMjQ2OTI6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDA4Mzc1MjA2OTIwMjo6NDo6&amp;url=%2FVaseline-Therapy-Fast-Acting-Nourishment-Chapped%2Fdp%2FB0BZQP7V3B%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%253Aamzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%26crid%3D1HX3CY7O8RIBV%26cv_ct_cx%3DVaseline%2BLip%2BTherapy%26dib%3DeyJ2IjoiMSJ9.Y8Vc9MU8hvoApKGi8BevQE3g1MVdJTMQmYUbGYXSahwJM-m27Vec2lEs5n4iTdsc.FK4x3tM3jy7N9uhyYf2xJ85LqMkajCzzCrvEGTjXaZk%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26pd_rd_i%3DB0BZQP7V3B%26pd_rd_r%3Dc4a28026-0f8b-45db-8314-464816754045%26pd_rd_w%3DoJHRf%26pd_rd_wg%3Dt0mY5%26pf_rd_p%3Dd4fdc453-1595-4f7b-ba6a-eb2ac554591f%26pf_rd_r%3DM4MXAGZCXVD2552T7VYN%26qid%3D1711024692%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dvase%252Caps%252C371%26sr%3D1-4-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Lip Therapy Care Aloe Fresh, Fast-Acting Nourishment, Ideal for Chapped, Dry, Cracked, or Damaged Lips, Lip Balm, 4-Pack, 0.16 Oz Each</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozODYzNjAwMzUxMTMyMDgwOjE3MTEwMjQ2OTI6c3BfbXRmOjMwMDA4Mzc1MjA2OTEwMjo6MDo6&amp;url=%2FVaseline-Therapy-Fast-Acting-Nourishment-Chapped%2Fdp%2FB0C1TFXXXR%2Fref%3Dsr_1_21_sspa%3Fcrid%3D1HX3CY7O8RIBV%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711024692%26sprefix%3Dvase%252Caps%252C371%26sr%3D8-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Vaseline Lip Therapy Care Aloe Fresh, Fast-Acting Nourishment, Ideal for Chapped, Dry, Cracked, or Damaged Lips, Lip Balm, 4-Pack, 0.16 Oz Each</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0OTg1MjI3Mjk2NjM5MDgwOjE3MTEwMjQ2OTI6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDA4Mzc1MjA2OTEwMjo6Mjo6&amp;url=%2FVaseline-Therapy-Fast-Acting-Nourishment-Chapped%2Fdp%2FB0C1TFXXXR%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%253Aamzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%26crid%3D1HX3CY7O8RIBV%26cv_ct_cx%3DVaseline%2BLip%2BTherapy%26dib%3DeyJ2IjoiMSJ9.Y8Vc9MU8hvoApKGi8BevQE3g1MVdJTMQmYUbGYXSahwJM-m27Vec2lEs5n4iTdsc.FK4x3tM3jy7N9uhyYf2xJ85LqMkajCzzCrvEGTjXaZk%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26pd_rd_i%3DB0C1TFXXXR%26pd_rd_r%3Dc4a28026-0f8b-45db-8314-464816754045%26pd_rd_w%3DoJHRf%26pd_rd_wg%3Dt0mY5%26pf_rd_p%3Dd4fdc453-1595-4f7b-ba6a-eb2ac554591f%26pf_rd_r%3DM4MXAGZCXVD2552T7VYN%26qid%3D1711024692%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dvase%252Caps%252C371%26sr%3D1-3-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Lip Therapy | Vaseline Lip Balm | Lip Moisturizer for Very Dry Lips | Original | 20g</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Axe-Therapy-Petroleum-Jelly-Original/dp/B002GC9UZG/ref=sr_1_10?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-10</t>
   </si>
   <si>
     <t>Lip Therapy Care Original, Fast-Acting Nourishment, Ideal for Chapped, Dry, Cracked, or Damaged Lips, Lip Balm, 0.16 Ounce (Pack of 4)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNzQ2NzM2ODIzMDEyMDgwOjE3MTEwMTY2MTg6c3BfYXRmOjMwMDA4Mzc1MjA2OTMwMjo6MDo6&amp;url=%2FVaseline-Therapy-Original-Fast-Acting-Nourishment%2Fdp%2FB0C1TFHMCT%2Fref%3Dsr_1_2_sspa%3Fcrid%3D23I69FL2MKBIK%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711016618%26sprefix%3Dvas%252Caps%252C314%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Vaseline-Therapy-Original-Fast-Acting-Nourishment/dp/B0C1TFHMCT/ref=sr_1_4?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-4</t>
-  </si>
-  <si>
-    <t>Lip Therapy Care Rosy, Fast-Acting Nourishment, Ideal for Chapped, Dry, Cracked, or Damaged Lips, Lip Balm, 4-Pack, 0.16 Oz Each</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Vaseline-Therapy-Fast-Acting-Nourishment-Chapped/dp/B0BZQP7V3B/ref=sr_1_8?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-8</t>
-  </si>
-  <si>
-    <t>Lip Therapy | Vaseline Lip Balm | Lip Moisturizer for Very Dry Lips | Original | 20g</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Axe-Therapy-Petroleum-Jelly-Original/dp/B002GC9UZG/ref=sr_1_11?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-11</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNzQ2NzM2ODIzMDEyMDgwOjE3MTEwMTY2MTg6c3BfbXRmOjMwMDA4Mzc1MjA2OTIwMjo6MDo6&amp;url=%2FVaseline-Therapy-Fast-Acting-Nourishment-Chapped%2Fdp%2FB0BZQP7V3B%2Fref%3Dsr_1_17_sspa%3Fcrid%3D23I69FL2MKBIK%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711016618%26sprefix%3Dvas%252Caps%252C314%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Lip Therapy Care Aloe Fresh, Fast-Acting Nourishment, Ideal for Chapped, Dry, Cracked, or Damaged Lips, Lip Balm, 4-Pack, 0.16 Oz Each</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNzQ2NzM2ODIzMDEyMDgwOjE3MTEwMTY2MTg6c3BfbXRmOjMwMDA4Mzc1MjA2OTEwMjo6MDo6&amp;url=%2FVaseline-Therapy-Fast-Acting-Nourishment-Chapped%2Fdp%2FB0C1TFXXXR%2Fref%3Dsr_1_27_sspa%3Fcrid%3D23I69FL2MKBIK%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711016618%26sprefix%3Dvas%252Caps%252C314%26sr%3D8-27-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/Vaseline-Therapy-Original-Fast-Acting-Nourishment/dp/B0C1TFHMCT/ref=sr_1_3?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozODYzNjAwMzUxMTMyMDgwOjE3MTEwMjQ2OTI6c3BfbXRmOjMwMDA4Mzc1MjA2OTMwMjo6MDo6&amp;url=%2FVaseline-Therapy-Original-Fast-Acting-Nourishment%2Fdp%2FB0C1TFHMCT%2Fref%3Dsr_1_14_sspa%3Fcrid%3D1HX3CY7O8RIBV%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711024692%26sprefix%3Dvase%252Caps%252C371%26sr%3D8-14-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Vaseline Lip Therapy Care Original, Fast-Acting Nourishment, Ideal for Chapped, Dry, Cracked, or Damaged Lips, Lip Balm, 0.16 Ounce (Pack of 4)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0OTg1MjI3Mjk2NjM5MDgwOjE3MTEwMjQ2OTI6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDA4Mzc1MjA2OTMwMjo6MTo6&amp;url=%2FVaseline-Therapy-Original-Fast-Acting-Nourishment%2Fdp%2FB0C1TFHMCT%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%253Aamzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%26crid%3D1HX3CY7O8RIBV%26cv_ct_cx%3DVaseline%2BLip%2BTherapy%26dib%3DeyJ2IjoiMSJ9.Y8Vc9MU8hvoApKGi8BevQE3g1MVdJTMQmYUbGYXSahwJM-m27Vec2lEs5n4iTdsc.FK4x3tM3jy7N9uhyYf2xJ85LqMkajCzzCrvEGTjXaZk%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26pd_rd_i%3DB0C1TFHMCT%26pd_rd_r%3Dc4a28026-0f8b-45db-8314-464816754045%26pd_rd_w%3DoJHRf%26pd_rd_wg%3Dt0mY5%26pf_rd_p%3Dd4fdc453-1595-4f7b-ba6a-eb2ac554591f%26pf_rd_r%3DM4MXAGZCXVD2552T7VYN%26qid%3D1711024692%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dvase%252Caps%252C371%26sr%3D1-2-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
   </si>
   <si>
     <t>Lip Therapy | Vaseline Lip Balm | Lip Moisturizer for Very Dry Lips | Cocoa Butter | 20g</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Therapy-Petroleum-Jelly-Cocoa-Butter/dp/B004M9Q8HE/ref=sr_1_12?crid=23I69FL2MKBIK&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711016618&amp;sprefix=vas%2Caps%2C314&amp;sr=8-12</t>
-  </si>
-  <si>
-    <t>essence Hydra Kiss Lip Oil | Vegan &amp; Cruelty Free (03 | Pink Champagne)</t>
-  </si>
-  <si>
-    <t>4.1 out of 5 stars</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNzQ2NzM2ODIzMDEyMDgwOjE3MTEwMTY2MTg6c3BfbXRmOjMwMDEzOTEyODAxNjMwMjo6MDo6&amp;url=%2Fessence-Hydra-Vegan-Cruelty-Champagne%2Fdp%2FB0C78H2YNQ%2Fref%3Dsr_1_25_sspa%3Fcrid%3D23I69FL2MKBIK%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsUObYyXENrf_o9OTLv4mE3JB2kpyqJX2widgehAluLqzBi9iW2UAYglzxNdraPDreqtVRi5qzxmWHWtpzgriqw7XGCiCppx23MHvM3H1QdsEtpJeMRwTBao9Cu9ZLY3GnUCLjNGY8zETPMIM6jWvN7WLI2K4hsRiHYdsw_FwdJqM.eX5nrULUUc3FReQsA48Uv08UMl_zcufXr0ofdglOf6M%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711016618%26sprefix%3Dvas%252Caps%252C314%26sr%3D8-25-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/Therapy-Petroleum-Jelly-Cocoa-Butter/dp/B004M9Q8HE/ref=sr_1_12?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-12</t>
   </si>
 </sst>
 </file>
@@ -858,15 +837,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF15168C-F5A1-4E2F-A7D0-FA4007CC0689}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52C2609-EAFC-4E0C-920D-36E5F6CB3F2C}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="178.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="181" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="255.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -890,434 +869,434 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B2" s="3">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3">
-        <v>55</v>
+        <v>309</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B3" s="3">
-        <v>25</v>
+        <v>24.99</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3">
-        <v>24</v>
+        <v>22.74</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B5" s="3">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3">
-        <v>305</v>
+        <v>4754</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="3">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="3">
+        <v>146</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="3">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3">
+        <v>14235</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="3">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3">
+        <v>14235</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="3">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="3">
-        <v>4743</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="B9" s="3">
+        <v>15.99</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10879</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="10" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="3">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="3">
-        <v>146</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="B10" s="3">
+        <v>11.9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3">
+        <v>890</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="3">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="3">
-        <v>14230</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="B11" s="3">
+        <v>11.44</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3">
+        <v>21319</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="12" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="3">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="3">
-        <v>14230</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="B12" s="3">
+        <v>11.26</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1923</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="13" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="3">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="3">
-        <v>440</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="B13" s="3">
+        <v>10.99</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3">
+        <v>126</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="14" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="3">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="3">
-        <v>503</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="B14" s="3">
+        <v>9.68</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="3">
+        <v>5120</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="15" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="3">
-        <v>14</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="3">
-        <v>41</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="B15" s="3">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3">
+        <v>194</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="3">
-        <v>21320</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14" s="3">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="3">
-        <v>889</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="3">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="3">
-        <v>125</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B16" s="3">
-        <v>9</v>
+        <v>8.99</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D16" s="3">
-        <v>5120</v>
+        <v>4445</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B17" s="3">
-        <v>8</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D17" s="3">
-        <v>14230</v>
+        <v>14235</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B18" s="3">
-        <v>8</v>
+        <v>7.99</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D18" s="3">
-        <v>4444</v>
+        <v>7359</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B19" s="3">
-        <v>7</v>
+        <v>7.99</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="D19" s="3">
-        <v>7355</v>
+        <v>998</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B20" s="3">
-        <v>7</v>
+        <v>7.85</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D20" s="3">
-        <v>998</v>
+        <v>1954</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="3">
+        <v>5.44</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="3">
+        <v>747</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5.44</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="3">
+        <v>747</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="3">
+        <v>5.44</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3">
+        <v>747</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="3">
+        <v>5.31</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="3">
+        <v>441</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B21" s="3">
-        <v>7</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1952</v>
-      </c>
-      <c r="E21" s="3" t="s">
+    </row>
+    <row r="25" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="B25" s="3">
+        <v>5.31</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="3">
+        <v>441</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="B22" s="3">
-        <v>6</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="3">
-        <v>402</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="3">
-        <v>5</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="3">
-        <v>937</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="3">
-        <v>5</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="3">
-        <v>937</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25" s="3">
-        <v>5</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="3">
-        <v>743</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B26" s="3">
-        <v>5</v>
+        <v>5.18</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D26" s="3">
-        <v>4290</v>
+        <v>4291</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B27" s="3">
         <v>5</v>
@@ -1326,61 +1305,61 @@
         <v>12</v>
       </c>
       <c r="D27" s="3">
-        <v>743</v>
+        <v>948</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B28" s="3">
         <v>5</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D28" s="3">
-        <v>440</v>
+        <v>948</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B29" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="3">
+        <v>948</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="3">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="3">
-        <v>6489</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B30" s="3">
-        <v>4</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="D30" s="3">
-        <v>59</v>
+        <v>6490</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1389,15 +1368,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A7902F-454F-4A2E-8A3B-44B65B2F9307}">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FE2290-6202-4D76-80DF-17E0E4A96981}">
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="172" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -1426,10 +1405,10 @@
         <v>39</v>
       </c>
       <c r="B2" s="1">
-        <v>31</v>
+        <v>31.98</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1">
         <v>240</v>
@@ -1443,7 +1422,7 @@
         <v>41</v>
       </c>
       <c r="B3" s="1">
-        <v>28</v>
+        <v>28.99</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -1460,13 +1439,13 @@
         <v>43</v>
       </c>
       <c r="B4" s="1">
-        <v>28</v>
+        <v>27.94</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
-        <v>1684</v>
+        <v>935</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>44</v>
@@ -1477,30 +1456,30 @@
         <v>45</v>
       </c>
       <c r="B5" s="1">
-        <v>27</v>
+        <v>27.94</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="1">
-        <v>27</v>
+        <v>25.32</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>933</v>
+        <v>131</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>48</v>
@@ -1511,13 +1490,13 @@
         <v>49</v>
       </c>
       <c r="B7" s="1">
-        <v>25</v>
+        <v>21.99</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>50</v>
@@ -1528,7 +1507,7 @@
         <v>51</v>
       </c>
       <c r="B8" s="1">
-        <v>21</v>
+        <v>21.45</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -1540,18 +1519,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="1">
-        <v>21</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1">
-        <v>213</v>
+        <v>8745</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>54</v>
@@ -1562,41 +1541,41 @@
         <v>55</v>
       </c>
       <c r="B10" s="1">
-        <v>19</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="1">
-        <v>8727</v>
+        <v>8745</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B11" s="1">
-        <v>18</v>
+        <v>18.89</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1440</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="1">
-        <v>49342</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B12" s="1">
-        <v>18</v>
+        <v>18.89</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
@@ -1605,228 +1584,194 @@
         <v>1440</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="D13" s="1">
+        <v>49389</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="1">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1707</v>
-      </c>
-      <c r="E13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1">
+        <v>17.28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1708</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B14" s="1">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1">
-        <v>933</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="1">
+        <v>16.47</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1">
+        <v>935</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B15" s="1">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3351</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="1">
+        <v>14.13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1">
+        <v>9252</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="1">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="1">
-        <v>9250</v>
-      </c>
-      <c r="E16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1">
+        <v>12.87</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4902</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B17" s="1">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="1">
-        <v>24852</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="1">
-        <v>12</v>
+        <v>12.47</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1">
         <v>992</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1">
+        <v>12.23</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1">
+        <v>24858</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="1">
-        <v>12</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="1">
-        <v>24852</v>
-      </c>
-      <c r="E19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1">
+        <v>12.23</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1">
+        <v>24858</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B20" s="1">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="1">
-        <v>5153</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="1">
+        <v>11.88</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1203</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B21" s="1">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="1">
-        <v>4900</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="1">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1937</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B22" s="1">
-        <v>11</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1203</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" s="1">
-        <v>10</v>
+        <v>8.99</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="1">
-        <v>46798</v>
+        <v>8418</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="1">
-        <v>9</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1932</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="1">
-        <v>8</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="1">
-        <v>8408</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1835,7 +1780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC52227A-CD9E-4F7E-B62F-3C6DA3935A67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327C6A55-1F21-48E7-B556-C77F5A9DAA1B}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1843,7 +1788,7 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="179.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -1872,7 +1817,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>63</v>
+        <v>64.63</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -1889,7 +1834,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>44</v>
+        <v>44.95</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -1906,13 +1851,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>41</v>
+        <v>43.3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -1923,61 +1868,61 @@
         <v>14</v>
       </c>
       <c r="B5" s="1">
-        <v>27</v>
+        <v>41.72</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
-        <v>26</v>
+        <v>39.99</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1">
-        <v>8423</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1">
-        <v>26</v>
+        <v>27.29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1">
-        <v>6763</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
-        <v>25</v>
+        <v>25.5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1">
         <v>472</v>
@@ -1986,35 +1931,35 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="1">
-        <v>21</v>
+        <v>24.99</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5089</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3131</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1">
+        <v>21.89</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1">
-        <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D10" s="1">
-        <v>252</v>
+        <v>3133</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
@@ -2025,30 +1970,30 @@
         <v>29</v>
       </c>
       <c r="B11" s="1">
-        <v>19</v>
+        <v>21.7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1">
-        <v>1379</v>
+        <v>46746</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="1">
-        <v>17</v>
+        <v>21.1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1">
-        <v>15234</v>
+        <v>252</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>32</v>
@@ -2059,13 +2004,13 @@
         <v>33</v>
       </c>
       <c r="B13" s="1">
-        <v>16</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="1">
-        <v>17315</v>
+        <v>15246</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>34</v>
@@ -2076,13 +2021,13 @@
         <v>35</v>
       </c>
       <c r="B14" s="1">
-        <v>15</v>
+        <v>15.7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1">
-        <v>7583</v>
+        <v>7584</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>36</v>
@@ -2093,13 +2038,13 @@
         <v>37</v>
       </c>
       <c r="B15" s="1">
-        <v>14</v>
+        <v>14.23</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1">
-        <v>2124</v>
+        <v>2126</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>38</v>
@@ -2111,7 +2056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931ECA2F-E0CB-48F0-A2E3-785709722D92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6ED823-E5B4-4E47-89EC-A652F22CD347}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Data/Output/Nikki.xlsx
+++ b/Data/Output/Nikki.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Panda\Documents\UiPath\Final Project\Data\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\npanda5\Documents\UiPath\Activity\Final Project\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3EBB2D-534E-45D6-982D-A416919E4762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD71C66-D037-4D76-87E6-35F9908F932F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="2430" windowWidth="12120" windowHeight="15555" xr2:uid="{537F7DA0-A661-4104-B6D8-771B02AEE78C}"/>
+    <workbookView xWindow="1680" yWindow="1980" windowWidth="21600" windowHeight="11475" xr2:uid="{1133C6A6-DD5E-4FF7-972C-9B0650E258C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Vaseline Lip Therapy" sheetId="4" r:id="rId1"/>
@@ -30,6 +30,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="148">
   <si>
     <t>Name</t>
   </si>
@@ -60,7 +62,16 @@
     <t>4.2 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Kiehls-Eliminator-24-Hour-Anti-Shing-Moisturizer/dp/B00K592YQO/ref=sr_1_23?crid=31IK81A5GADWM&amp;dib=eyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On616zFEYOwboo5zACpwpeMpT2ISp_IBz-PaaiSpx9YaYhKG3g7ADm48Rwzbx5jzA3ZLv8es4glxEZ8BkhO0_8KG3irF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.DN2lCcQKX7v2VpUBfMGXdfWHhccGy35_80bUTzm8yTU&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711024656&amp;sprefix=kieh%2Caps%2C309&amp;sr=8-23</t>
+    <t>https://www.amazon.com/Kiehls-Eliminator-24-Hour-Anti-Shing-Moisturizer/dp/B00K592YQO/ref=sr_1_21?crid=2Z2YOFPVVKV1V&amp;dib=eyJ2IjoiMSJ9.Et0Q0ZsMQh51rkfLqSqdZXwG3JUDofo-QgwNdMQVV_e4URTvkxCdUqFi39F2EXeU7vz1hwlue_fuKiFwPtAhHlc3HX-wU_wwdWi97aOz3IKluR3cEiubiItcxe8KKOMWH2ibqMTJS51MCOIY-9za69rIpabqZ3SqLLhq9xSLVmnhVOzxK-tT79tbk7n-IKTxXxxKOqTw8pI3QE3TMJjkuVj7TO-oMZZSmPV0xJHibclf4KgA4_sXJDjFCr5p90VNQFoZkNUdXtN6DdBnrG8eGCZFJfNUg5A-B21XPXIvMQA.S0thcwEhd7-0PNN6-_l5zyflYQJw0WhH8WD3t1VxvZo&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711036212&amp;sprefix=chef+apron%2Caps%2C336&amp;sr=8-21</t>
+  </si>
+  <si>
+    <t>Ultra Facial Cream 24-Hour Daily Moisturizer - 4.2oz (125ml)</t>
+  </si>
+  <si>
+    <t>4.5 out of 5 stars</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Kiehls-Ultra-Facial-24-Hour-Moisturizer/dp/B07V2PHS4J/ref=sr_1_1?crid=2Z2YOFPVVKV1V&amp;dib=eyJ2IjoiMSJ9.Et0Q0ZsMQh51rkfLqSqdZXwG3JUDofo-QgwNdMQVV_e4URTvkxCdUqFi39F2EXeU7vz1hwlue_fuKiFwPtAhHlc3HX-wU_wwdWi97aOz3IKluR3cEiubiItcxe8KKOMWH2ibqMTJS51MCOIY-9za69rIpabqZ3SqLLhq9xSLVmnhVOzxK-tT79tbk7n-IKTxXxxKOqTw8pI3QE3TMJjkuVj7TO-oMZZSmPV0xJHibclf4KgA4_sXJDjFCr5p90VNQFoZkNUdXtN6DdBnrG8eGCZFJfNUg5A-B21XPXIvMQA.S0thcwEhd7-0PNN6-_l5zyflYQJw0WhH8WD3t1VxvZo&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711036212&amp;sprefix=chef+apron%2Caps%2C336&amp;sr=8-1</t>
   </si>
   <si>
     <t>Ultra Facial Oil-Free Moisturizer, Shine-Reducing Gel Cream for Oily to Normal Skin, Hydrates Skin for 24 Hours, Visibly Minimizes Pores, Non-comedogenic, Alcohol-free, Fragrance-free</t>
@@ -69,16 +80,7 @@
     <t>4.7 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Kiehls-Ultra-Facial-Oil-Free-Normal/dp/B007L7SPA2/ref=sr_1_8?crid=31IK81A5GADWM&amp;dib=eyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On616zFEYOwboo5zACpwpeMpT2ISp_IBz-PaaiSpx9YaYhKG3g7ADm48Rwzbx5jzA3ZLv8es4glxEZ8BkhO0_8KG3irF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.DN2lCcQKX7v2VpUBfMGXdfWHhccGy35_80bUTzm8yTU&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711024656&amp;sprefix=kieh%2Caps%2C309&amp;sr=8-8</t>
-  </si>
-  <si>
-    <t>Age Defender Cream Moisturizer, Firming &amp; Lifting Anti-Aging Treatment for Men, Gently Exfoliates, Minimizes Look of Fine Lines &amp; Wrinkles, with Capryloyl Salicylic Acid &amp; Caffeine - 2.5 fl oz</t>
-  </si>
-  <si>
-    <t>4.5 out of 5 stars</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Kiehls-Moisturizer-Anti-Aging-Treatment-Exfoliates/dp/B01MSP3R2W/ref=sr_1_6?crid=31IK81A5GADWM&amp;dib=eyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On616zFEYOwboo5zACpwpeMpT2ISp_IBz-PaaiSpx9YaYhKG3g7ADm48Rwzbx5jzA3ZLv8es4glxEZ8BkhO0_8KG3irF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.DN2lCcQKX7v2VpUBfMGXdfWHhccGy35_80bUTzm8yTU&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711024656&amp;sprefix=kieh%2Caps%2C309&amp;sr=8-6</t>
+    <t>https://www.amazon.com/Kiehls-Ultra-Facial-Oil-Free-Normal/dp/B007L7SPA2/ref=sr_1_9?crid=2Z2YOFPVVKV1V&amp;dib=eyJ2IjoiMSJ9.Et0Q0ZsMQh51rkfLqSqdZXwG3JUDofo-QgwNdMQVV_e4URTvkxCdUqFi39F2EXeU7vz1hwlue_fuKiFwPtAhHlc3HX-wU_wwdWi97aOz3IKluR3cEiubiItcxe8KKOMWH2ibqMTJS51MCOIY-9za69rIpabqZ3SqLLhq9xSLVmnhVOzxK-tT79tbk7n-IKTxXxxKOqTw8pI3QE3TMJjkuVj7TO-oMZZSmPV0xJHibclf4KgA4_sXJDjFCr5p90VNQFoZkNUdXtN6DdBnrG8eGCZFJfNUg5A-B21XPXIvMQA.S0thcwEhd7-0PNN6-_l5zyflYQJw0WhH8WD3t1VxvZo&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711036212&amp;sprefix=chef+apron%2Caps%2C336&amp;sr=8-9</t>
   </si>
   <si>
     <t>Clearly Corrective Brightening &amp; Smoothing Moisture Treatment, 24HR Hydrating Face Moisturizer, Corrects Discoloration &amp; Rough Texture, with Vitamin C &amp; Glycolic Acid - 1.7 fl oz</t>
@@ -87,34 +89,46 @@
     <t>4.4 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Kiehls-Brightening-Smoothing-Moisture-Treatment/dp/B01N1ICJUS/ref=sr_1_22?crid=31IK81A5GADWM&amp;dib=eyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On616zFEYOwboo5zACpwpeMpT2ISp_IBz-PaaiSpx9YaYhKG3g7ADm48Rwzbx5jzA3ZLv8es4glxEZ8BkhO0_8KG3irF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.DN2lCcQKX7v2VpUBfMGXdfWHhccGy35_80bUTzm8yTU&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711024656&amp;sprefix=kieh%2Caps%2C309&amp;sr=8-22</t>
-  </si>
-  <si>
-    <t>Skin Turmeric Ginseng Face Moisturizer With Vitamin C and Aloe Vera for Skin Repair and Brightening, Radiance Enhancing Skin Lightening Face Cream For Normal, Oily &amp; Dry Skin, 1.7 FL OZ</t>
+    <t>https://www.amazon.com/Kiehls-Brightening-Smoothing-Moisture-Treatment/dp/B01N1ICJUS/ref=sr_1_20?crid=2Z2YOFPVVKV1V&amp;dib=eyJ2IjoiMSJ9.Et0Q0ZsMQh51rkfLqSqdZXwG3JUDofo-QgwNdMQVV_e4URTvkxCdUqFi39F2EXeU7vz1hwlue_fuKiFwPtAhHlc3HX-wU_wwdWi97aOz3IKluR3cEiubiItcxe8KKOMWH2ibqMTJS51MCOIY-9za69rIpabqZ3SqLLhq9xSLVmnhVOzxK-tT79tbk7n-IKTxXxxKOqTw8pI3QE3TMJjkuVj7TO-oMZZSmPV0xJHibclf4KgA4_sXJDjFCr5p90VNQFoZkNUdXtN6DdBnrG8eGCZFJfNUg5A-B21XPXIvMQA.S0thcwEhd7-0PNN6-_l5zyflYQJw0WhH8WD3t1VxvZo&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711036212&amp;sprefix=chef+apron%2Caps%2C336&amp;sr=8-20</t>
+  </si>
+  <si>
+    <t>Argan Oil Daily Facial Moisturizer with SPF 47 &amp; SunBoost ATB - Lightweight, Chemical Free Facial Sunscreen with Jojoba Oil &amp; Green Tea - Smooths Texture &amp; Boosts Radiance (60 ml)</t>
   </si>
   <si>
     <t>4.6 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2OTQyNzc3MzI3MTg2MDgwOjE3MTEwMjQ2NTY6c3BfbXRmOjMwMDE1MzEyOTgyMjQwMjo6MDo6&amp;url=%2FZelaze-Moisturizer-Brightening-Enhancing-Lightening%2Fdp%2FB0CW3SR6RC%2Fref%3Dsr_1_19_sspa%3Fcrid%3D31IK81A5GADWM%26dib%3DeyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On616zFEYOwboo5zACpwpeMpT2ISp_IBz-PaaiSpx9YaYhKG3g7ADm48Rwzbx5jzA3ZLv8es4glxEZ8BkhO0_8KG3irF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.DN2lCcQKX7v2VpUBfMGXdfWHhccGy35_80bUTzm8yTU%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711024656%26sprefix%3Dkieh%252Caps%252C309%26sr%3D8-19-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4MzI5MDQ4ODk2NDkxMDgwOjE3MTEwMzYyMTI6c3BfbXRmOjMwMDExNjU3ODg4OTkwMjo6MDo6&amp;url=%2FArgan-Daily-Moisturizer-SPF-Sunboost%2Fdp%2FB00J36PLQA%2Fref%3Dsr_1_30_sspa%3Fcrid%3D2Z2YOFPVVKV1V%26dib%3DeyJ2IjoiMSJ9.Et0Q0ZsMQh51rkfLqSqdZXwG3JUDofo-QgwNdMQVV_e4URTvkxCdUqFi39F2EXeU7vz1hwlue_fuKiFwPtAhHlc3HX-wU_wwdWi97aOz3IKluR3cEiubiItcxe8KKOMWH2ibqMTJS51MCOIY-9za69rIpabqZ3SqLLhq9xSLVmnhVOzxK-tT79tbk7n-IKTxXxxKOqTw8pI3QE3TMJjkuVj7TO-oMZZSmPV0xJHibclf4KgA4_sXJDjFCr5p90VNQFoZkNUdXtN6DdBnrG8eGCZFJfNUg5A-B21XPXIvMQA.S0thcwEhd7-0PNN6-_l5zyflYQJw0WhH8WD3t1VxvZo%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711036212%26sprefix%3Dchef%2Bapron%252Caps%252C336%26sr%3D8-30-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Mens Face Moisturizer, Morning Facial Moisturizer with SPF 20 - Men's Face &amp; Skin Care Cream for Long-Lasting Hydration - Promotes Even Skin Tone, Safe for Sensitive Skin (2.5 Fl Oz)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4MzI5MDQ4ODk2NDkxMDgwOjE3MTEwMzYyMTI6c3BfbXRmOjIwMDAyODAwMTU5NzE3MTo6MDo6&amp;url=%2FTiege-Hanley-Mens-Face-Moisturizer-Facial-Cream%2Fdp%2FB08CZ3G89M%2Fref%3Dsr_1_31_sspa%3Fcrid%3D2Z2YOFPVVKV1V%26dib%3DeyJ2IjoiMSJ9.Et0Q0ZsMQh51rkfLqSqdZXwG3JUDofo-QgwNdMQVV_e4URTvkxCdUqFi39F2EXeU7vz1hwlue_fuKiFwPtAhHlc3HX-wU_wwdWi97aOz3IKluR3cEiubiItcxe8KKOMWH2ibqMTJS51MCOIY-9za69rIpabqZ3SqLLhq9xSLVmnhVOzxK-tT79tbk7n-IKTxXxxKOqTw8pI3QE3TMJjkuVj7TO-oMZZSmPV0xJHibclf4KgA4_sXJDjFCr5p90VNQFoZkNUdXtN6DdBnrG8eGCZFJfNUg5A-B21XPXIvMQA.S0thcwEhd7-0PNN6-_l5zyflYQJw0WhH8WD3t1VxvZo%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711036212%26sprefix%3Dchef%2Bapron%252Caps%252C336%26sr%3D8-31-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Ultra Facial Oil Free Gel Cream Moisturizer for Normal &amp; Oily Skin 1.7oz</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Kiehls-Ultra-Facial-Moisturizer-Normal/dp/B09DGF47WH/ref=sr_1_5?crid=31IK81A5GADWM&amp;dib=eyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On616zFEYOwboo5zACpwpeMpT2ISp_IBz-PaaiSpx9YaYhKG3g7ADm48Rwzbx5jzA3ZLv8es4glxEZ8BkhO0_8KG3irF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.DN2lCcQKX7v2VpUBfMGXdfWHhccGy35_80bUTzm8yTU&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711024656&amp;sprefix=kieh%2Caps%2C309&amp;sr=8-5</t>
+    <t>https://www.amazon.com/Kiehls-Ultra-Facial-Moisturizer-Normal/dp/B09DGF47WH/ref=sr_1_6?crid=2Z2YOFPVVKV1V&amp;dib=eyJ2IjoiMSJ9.Et0Q0ZsMQh51rkfLqSqdZXwG3JUDofo-QgwNdMQVV_e4URTvkxCdUqFi39F2EXeU7vz1hwlue_fuKiFwPtAhHlc3HX-wU_wwdWi97aOz3IKluR3cEiubiItcxe8KKOMWH2ibqMTJS51MCOIY-9za69rIpabqZ3SqLLhq9xSLVmnhVOzxK-tT79tbk7n-IKTxXxxKOqTw8pI3QE3TMJjkuVj7TO-oMZZSmPV0xJHibclf4KgA4_sXJDjFCr5p90VNQFoZkNUdXtN6DdBnrG8eGCZFJfNUg5A-B21XPXIvMQA.S0thcwEhd7-0PNN6-_l5zyflYQJw0WhH8WD3t1VxvZo&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711036212&amp;sprefix=chef+apron%2Caps%2C336&amp;sr=8-6</t>
   </si>
   <si>
     <t>Kiehls - Ultra Facial Moisturizer - 4.2 fl. oz.</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Kiehls-Ultra-Facial-Moisturizer-4-2/dp/B002LK0GAQ/ref=sr_1_1?crid=31IK81A5GADWM&amp;dib=eyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On616zFEYOwboo5zACpwpeMpT2ISp_IBz-PaaiSpx9YaYhKG3g7ADm48Rwzbx5jzA3ZLv8es4glxEZ8BkhO0_8KG3irF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.DN2lCcQKX7v2VpUBfMGXdfWHhccGy35_80bUTzm8yTU&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711024656&amp;sprefix=kieh%2Caps%2C309&amp;sr=8-1</t>
+    <t>https://www.amazon.com/Kiehls-Ultra-Facial-Moisturizer-4-2/dp/B002LK0GAQ/ref=sr_1_2?crid=2Z2YOFPVVKV1V&amp;dib=eyJ2IjoiMSJ9.Et0Q0ZsMQh51rkfLqSqdZXwG3JUDofo-QgwNdMQVV_e4URTvkxCdUqFi39F2EXeU7vz1hwlue_fuKiFwPtAhHlc3HX-wU_wwdWi97aOz3IKluR3cEiubiItcxe8KKOMWH2ibqMTJS51MCOIY-9za69rIpabqZ3SqLLhq9xSLVmnhVOzxK-tT79tbk7n-IKTxXxxKOqTw8pI3QE3TMJjkuVj7TO-oMZZSmPV0xJHibclf4KgA4_sXJDjFCr5p90VNQFoZkNUdXtN6DdBnrG8eGCZFJfNUg5A-B21XPXIvMQA.S0thcwEhd7-0PNN6-_l5zyflYQJw0WhH8WD3t1VxvZo&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711036212&amp;sprefix=chef+apron%2Caps%2C336&amp;sr=8-2</t>
   </si>
   <si>
     <t>Men's Face Cream Moisturizer - Anti-Aging Cream For Men, Collagen, Retinol &amp; Hyaluronic Acid - Day &amp; Night - Facial Skin Care- Anti Wrinkle 1.7 oz</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2OTQyNzc3MzI3MTg2MDgwOjE3MTEwMjQ2NTY6c3BfbXRmOjIwMDA2MDUwMjcxNzIzMTo6MDo6&amp;url=%2FMens-Face-Cream-Moisturizer-Anti-Aging%2Fdp%2FB08SNPC1YW%2Fref%3Dsr_1_26_sspa%3Fcrid%3D31IK81A5GADWM%26dib%3DeyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On616zFEYOwboo5zACpwpeMpT2ISp_IBz-PaaiSpx9YaYhKG3g7ADm48Rwzbx5jzA3ZLv8es4glxEZ8BkhO0_8KG3irF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.DN2lCcQKX7v2VpUBfMGXdfWHhccGy35_80bUTzm8yTU%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711024656%26sprefix%3Dkieh%252Caps%252C309%26sr%3D8-26-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4MzI5MDQ4ODk2NDkxMDgwOjE3MTEwMzYyMTI6c3BfbXRmOjIwMDA2MTA5Njc5NzIzMTo6MDo6&amp;url=%2FMens-Face-Cream-Moisturizer-Anti-Aging%2Fdp%2FB08SNPC1YW%2Fref%3Dsr_1_22_sspa%3Fcrid%3D2Z2YOFPVVKV1V%26dib%3DeyJ2IjoiMSJ9.Et0Q0ZsMQh51rkfLqSqdZXwG3JUDofo-QgwNdMQVV_e4URTvkxCdUqFi39F2EXeU7vz1hwlue_fuKiFwPtAhHlc3HX-wU_wwdWi97aOz3IKluR3cEiubiItcxe8KKOMWH2ibqMTJS51MCOIY-9za69rIpabqZ3SqLLhq9xSLVmnhVOzxK-tT79tbk7n-IKTxXxxKOqTw8pI3QE3TMJjkuVj7TO-oMZZSmPV0xJHibclf4KgA4_sXJDjFCr5p90VNQFoZkNUdXtN6DdBnrG8eGCZFJfNUg5A-B21XPXIvMQA.S0thcwEhd7-0PNN6-_l5zyflYQJw0WhH8WD3t1VxvZo%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711036212%26sprefix%3Dchef%2Bapron%252Caps%252C336%26sr%3D8-22-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Creme de Corps Body Moisturizer - Medium Size Bottle 8.4oz (250ml)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Kiehls-Creme-Corps-Body-Moisturizer/dp/B0061ZQ8S6/ref=sr_1_29?crid=2Z2YOFPVVKV1V&amp;dib=eyJ2IjoiMSJ9.Et0Q0ZsMQh51rkfLqSqdZXwG3JUDofo-QgwNdMQVV_e4URTvkxCdUqFi39F2EXeU7vz1hwlue_fuKiFwPtAhHlc3HX-wU_wwdWi97aOz3IKluR3cEiubiItcxe8KKOMWH2ibqMTJS51MCOIY-9za69rIpabqZ3SqLLhq9xSLVmnhVOzxK-tT79tbk7n-IKTxXxxKOqTw8pI3QE3TMJjkuVj7TO-oMZZSmPV0xJHibclf4KgA4_sXJDjFCr5p90VNQFoZkNUdXtN6DdBnrG8eGCZFJfNUg5A-B21XPXIvMQA.S0thcwEhd7-0PNN6-_l5zyflYQJw0WhH8WD3t1VxvZo&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711036212&amp;sprefix=chef+apron%2Caps%2C336&amp;sr=8-29</t>
   </si>
   <si>
     <t>Men's Face Moisturizer Cream - Anti Aging &amp; Wrinkle - Made in USA - Collagen, Hyaluronic Acid, Vitamins E &amp; A, Avocado Oil - After Shave Lotion - Age Facial Skin Care, Day &amp; Night Moisturizing, 2 oz</t>
@@ -123,337 +137,352 @@
     <t>4.3 out of 5 stars</t>
   </si>
   <si>
-    <t>https://aax-us-iad.amazon.com/x/c/RHC2Sz_fSeBM8scO_HalkcAAAAGOYQRO3wEAAAH2AQBvbm9fdHhuX2JpZDUgICBvbm9fdHhuX2ltcDEgICBTEfHX/https://www.amazon.com/Mens-Face-Moisturizer-Cream-Moisturizing/dp/B09M7CV35V/ref=sxin_15_sbv_search_btf?content-id=amzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f%3Aamzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;crid=31IK81A5GADWM&amp;cv_ct_cx=Kiehls+Moisturizer&amp;dib=eyJ2IjoiMSJ9.Hiwi-zPDol8eY6DFk84oNA.dWPlm9a9XP1PqF3-cv0d9xQABRWnIak03kQtvEWO3As&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;pd_rd_i=B09M7CV35V&amp;pd_rd_r=21cbaaac-865a-4730-b2b0-33f0153cc715&amp;pd_rd_w=LUtbK&amp;pd_rd_wg=mLHXT&amp;pf_rd_p=c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;pf_rd_r=8X1JVKSMBQ16ER0V5867&amp;qid=1711024656&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=kieh%2Caps%2C309&amp;sr=1-1-5190daf0-67e3-427c-bea6-c72c1df98776</t>
-  </si>
-  <si>
-    <t>Rapid Wrinkle Repair Retinol Face Moisturizer, Fragrance Free, Daily Anti-Aging Face Cream with Retinol &amp; Hyaluronic Acid to Fight Fine Lines, Wrinkles, &amp; Dark Spots, 1.7 oz</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2OTQyNzc3MzI3MTg2MDgwOjE3MTEwMjQ2NTY6c3BfbXRmOjMwMDE1MDQ5NDM1NDQwMjo6MDo6&amp;url=%2FNeutrogena-Wrinkle-Hyaluronic-Retinol-Moisturizer%2Fdp%2FB0725JP4TN%2Fref%3Dsr_1_25_sspa%3Fcrid%3D31IK81A5GADWM%26dib%3DeyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On616zFEYOwboo5zACpwpeMpT2ISp_IBz-PaaiSpx9YaYhKG3g7ADm48Rwzbx5jzA3ZLv8es4glxEZ8BkhO0_8KG3irF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.DN2lCcQKX7v2VpUBfMGXdfWHhccGy35_80bUTzm8yTU%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711024656%26sprefix%3Dkieh%252Caps%252C309%26sr%3D8-25-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://aax-us-iad.amazon.com/x/c/RN714fsZ17UMk6pycq5Han0AAAGOYbSmAAEAAAH2AQBvbm9fdHhuX2JpZDYgICBvbm9fdHhuX2ltcDEgICCEf3qY/https://www.amazon.com/Mens-Face-Moisturizer-Cream-Moisturizing/dp/B09M7CV35V/ref=sxin_15_sbv_search_btf?content-id=amzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f%3Aamzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;crid=2Z2YOFPVVKV1V&amp;cv_ct_cx=Kiehls+Moisturizer&amp;dib=eyJ2IjoiMSJ9.Hiwi-zPDol8eY6DFk84oNA.owy8PcQZtPtnYJXlD0uqodg_LmMme4271fH2FGhXpjw&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;pd_rd_i=B09M7CV35V&amp;pd_rd_r=ec9c03dc-d198-48d4-b7aa-a6ac9c874f79&amp;pd_rd_w=cpCuP&amp;pd_rd_wg=XHrTd&amp;pf_rd_p=c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;pf_rd_r=JZ383E8HX5SCMPEW4QE7&amp;qid=1711036212&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=chef+apron%2Caps%2C336&amp;sr=1-1-5190daf0-67e3-427c-bea6-c72c1df98776</t>
   </si>
   <si>
     <t>Creme De Corps Body Moisturizer 250ml/8.4oz</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Creme-Corps-Moisturizer-250ml-8-4oz/dp/B00BLZN8R0/ref=sr_1_11?crid=31IK81A5GADWM&amp;dib=eyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On616zFEYOwboo5zACpwpeMpT2ISp_IBz-PaaiSpx9YaYhKG3g7ADm48Rwzbx5jzA3ZLv8es4glxEZ8BkhO0_8KG3irF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.DN2lCcQKX7v2VpUBfMGXdfWHhccGy35_80bUTzm8yTU&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711024656&amp;sprefix=kieh%2Caps%2C309&amp;sr=8-11</t>
+    <t>https://www.amazon.com/Creme-Corps-Moisturizer-250ml-8-4oz/dp/B00BLZN8R0/ref=sr_1_12?crid=2Z2YOFPVVKV1V&amp;dib=eyJ2IjoiMSJ9.Et0Q0ZsMQh51rkfLqSqdZXwG3JUDofo-QgwNdMQVV_e4URTvkxCdUqFi39F2EXeU7vz1hwlue_fuKiFwPtAhHlc3HX-wU_wwdWi97aOz3IKluR3cEiubiItcxe8KKOMWH2ibqMTJS51MCOIY-9za69rIpabqZ3SqLLhq9xSLVmnhVOzxK-tT79tbk7n-IKTxXxxKOqTw8pI3QE3TMJjkuVj7TO-oMZZSmPV0xJHibclf4KgA4_sXJDjFCr5p90VNQFoZkNUdXtN6DdBnrG8eGCZFJfNUg5A-B21XPXIvMQA.S0thcwEhd7-0PNN6-_l5zyflYQJw0WhH8WD3t1VxvZo&amp;dib_tag=se&amp;keywords=Kiehls+Moisturizer&amp;qid=1711036212&amp;sprefix=chef+apron%2Caps%2C336&amp;sr=8-12</t>
+  </si>
+  <si>
+    <t>Mens Face Moisturizer Cream - Anti Aging &amp; Wrinkle for Men with Collagen, Retinol, Vitamins E, Jojoba Oil - Face Lotion - Age Facial Skin Care - Eye Wrinkle - Day &amp; Night - Made in USA, 4 oz</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4MzI5MDQ4ODk2NDkxMDgwOjE3MTEwMzYyMTI6c3BfbXRmOjIwMDA5NDk1NDcxMzA5ODo6MDo6&amp;url=%2FMens-Face-Moisturizer-Cream-Collagen%2Fdp%2FB0B2SL82J4%2Fref%3Dsr_1_24_sspa%3Fcrid%3D2Z2YOFPVVKV1V%26dib%3DeyJ2IjoiMSJ9.Et0Q0ZsMQh51rkfLqSqdZXwG3JUDofo-QgwNdMQVV_e4URTvkxCdUqFi39F2EXeU7vz1hwlue_fuKiFwPtAhHlc3HX-wU_wwdWi97aOz3IKluR3cEiubiItcxe8KKOMWH2ibqMTJS51MCOIY-9za69rIpabqZ3SqLLhq9xSLVmnhVOzxK-tT79tbk7n-IKTxXxxKOqTw8pI3QE3TMJjkuVj7TO-oMZZSmPV0xJHibclf4KgA4_sXJDjFCr5p90VNQFoZkNUdXtN6DdBnrG8eGCZFJfNUg5A-B21XPXIvMQA.S0thcwEhd7-0PNN6-_l5zyflYQJw0WhH8WD3t1VxvZo%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711036212%26sprefix%3Dchef%2Bapron%252Caps%252C336%26sr%3D8-24-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Triple Age Repair Anti-Aging Daily Facial Moisturizer with SPF 25 Sunscreen &amp; Vitamin C, Firming Anti-Wrinkle Face &amp; Neck Cream for Dark Spots, Glycerin &amp; Shea Butter, 1.7 oz</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2OTQyNzc3MzI3MTg2MDgwOjE3MTEwMjQ2NTY6c3BfbXRmOjMwMDEwNDY1NDQxNjMwMjo6MDo6&amp;url=%2FNeutrogena-Moisturizer-Sunscreen-Corrector-Glycerin%2Fdp%2FB00HNSSPHC%2Fref%3Dsr_1_28_sspa%3Fcrid%3D31IK81A5GADWM%26dib%3DeyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On616zFEYOwboo5zACpwpeMpT2ISp_IBz-PaaiSpx9YaYhKG3g7ADm48Rwzbx5jzA3ZLv8es4glxEZ8BkhO0_8KG3irF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.DN2lCcQKX7v2VpUBfMGXdfWHhccGy35_80bUTzm8yTU%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711024656%26sprefix%3Dkieh%252Caps%252C309%26sr%3D8-28-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Facial Moisturizers Clear Complexion Daily Moisturizer Pump,4 fl oz</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2OTQyNzc3MzI3MTg2MDgwOjE3MTEwMjQ2NTY6c3BfbXRmOjMwMDA4MjEzMzk4MTcwMjo6MDo6&amp;url=%2FAveeno-Acne-Fighting-Moisturizer-Breakout-Prone-Hypoallergenic%2Fdp%2FB00006FRW7%2Fref%3Dsr_1_27_sspa%3Fcrid%3D31IK81A5GADWM%26dib%3DeyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On616zFEYOwboo5zACpwpeMpT2ISp_IBz-PaaiSpx9YaYhKG3g7ADm48Rwzbx5jzA3ZLv8es4glxEZ8BkhO0_8KG3irF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.DN2lCcQKX7v2VpUBfMGXdfWHhccGy35_80bUTzm8yTU%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711024656%26sprefix%3Dkieh%252Caps%252C309%26sr%3D8-27-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Positively Radiant Daily Facial Moisturizer with Broad Spectrum SPF 30 Sunscreen &amp; Soy, Helps Improves Skin Tone &amp; Texture, Hypoallergenic, Oil-Free &amp; Non-Comedogenic, 2.3 fl. oz</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2OTQyNzc3MzI3MTg2MDgwOjE3MTEwMjQ2NTY6c3BfbXRmOjIwMDA3ODY5NzgyMTA5ODo6MDo6&amp;url=%2FAveeno-Positively-Moisturizer-Hypoallergenic-Non-Comedogenic%2Fdp%2FB0B7YQBVS1%2Fref%3Dsr_1_20_sspa%3Fcrid%3D31IK81A5GADWM%26dib%3DeyJ2IjoiMSJ9.M1PBX5QhsCjwp6uo7RsQmjTnIqZjlvDCwkE4CiOLQhIe3CX9ZjDpmJVdljqMzcp8B8YiUqhntgwAR2fm5kT6BWeyzAB6Nh2ORqoJAH3mpStL7IFJDnfEzH9YGSESGXD5c9HjHQuK5HFy8FCDG7On616zFEYOwboo5zACpwpeMpT2ISp_IBz-PaaiSpx9YaYhKG3g7ADm48Rwzbx5jzA3ZLv8es4glxEZ8BkhO0_8KG3irF0Iwk2dkQraWI1Vlnqgv_Gl8NkJF3VfFZ4lPv2aIoxNLfz__dJ3RIXiBcIegWg.DN2lCcQKX7v2VpUBfMGXdfWHhccGy35_80bUTzm8yTU%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711024656%26sprefix%3Dkieh%252Caps%252C309%26sr%3D8-20-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4MzI5MDQ4ODk2NDkxMDgwOjE3MTEwMzYyMTI6c3BfbXRmOjMwMDEwNDY1NDQxNjMwMjo6MDo6&amp;url=%2FNeutrogena-Moisturizer-Sunscreen-Corrector-Glycerin%2Fdp%2FB00HNSSPHC%2Fref%3Dsr_1_23_sspa%3Fcrid%3D2Z2YOFPVVKV1V%26dib%3DeyJ2IjoiMSJ9.Et0Q0ZsMQh51rkfLqSqdZXwG3JUDofo-QgwNdMQVV_e4URTvkxCdUqFi39F2EXeU7vz1hwlue_fuKiFwPtAhHlc3HX-wU_wwdWi97aOz3IKluR3cEiubiItcxe8KKOMWH2ibqMTJS51MCOIY-9za69rIpabqZ3SqLLhq9xSLVmnhVOzxK-tT79tbk7n-IKTxXxxKOqTw8pI3QE3TMJjkuVj7TO-oMZZSmPV0xJHibclf4KgA4_sXJDjFCr5p90VNQFoZkNUdXtN6DdBnrG8eGCZFJfNUg5A-B21XPXIvMQA.S0thcwEhd7-0PNN6-_l5zyflYQJw0WhH8WD3t1VxvZo%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711036212%26sprefix%3Dchef%2Bapron%252Caps%252C336%26sr%3D8-23-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Marula Oil 5% Face Moisturizer For Dry Skin | With Hyaluronic Acid For Deep Nourishment &amp; Hydration | For Women &amp; Men | 1.7 Oz / 50 gm</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4MzI5MDQ4ODk2NDkxMDgwOjE3MTEwMzYyMTI6c3BfbXRmOjIwMDA4MTQ5NjQzODI5ODo6MDo6&amp;url=%2FMinimalist-Moisturizer-Hyaluronic-Nourishment-Hydration%2Fdp%2FB09Q3MJZQB%2Fref%3Dsr_1_17_sspa%3Fcrid%3D2Z2YOFPVVKV1V%26dib%3DeyJ2IjoiMSJ9.Et0Q0ZsMQh51rkfLqSqdZXwG3JUDofo-QgwNdMQVV_e4URTvkxCdUqFi39F2EXeU7vz1hwlue_fuKiFwPtAhHlc3HX-wU_wwdWi97aOz3IKluR3cEiubiItcxe8KKOMWH2ibqMTJS51MCOIY-9za69rIpabqZ3SqLLhq9xSLVmnhVOzxK-tT79tbk7n-IKTxXxxKOqTw8pI3QE3TMJjkuVj7TO-oMZZSmPV0xJHibclf4KgA4_sXJDjFCr5p90VNQFoZkNUdXtN6DdBnrG8eGCZFJfNUg5A-B21XPXIvMQA.S0thcwEhd7-0PNN6-_l5zyflYQJw0WhH8WD3t1VxvZo%26dib_tag%3Dse%26keywords%3DKiehls%2BMoisturizer%26qid%3D1711036212%26sprefix%3Dchef%2Bapron%252Caps%252C336%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Pro Acne Prone Oil Free Facial Moisturising Lotion SPF 25 118ml</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2OTQ0MDM5NjA5OTA1MDgwOjE3MTEwMzYyMjQ6c3BfbXRmOjIwMDE0MjY3NDA1MjA5ODo6MDo6&amp;url=%2FCetaphil-Prone-Facial-Moisturising-Lotion%2Fdp%2FB076V2NRRD%2Fref%3Dsr_1_26_sspa%3Fcrid%3D224XSCZW4KODK%26dib%3DeyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtwyakqX2yY3Pl8ZuiAlulbcd8cekijBUVkkTCfoeBdc20q8Yoai8PJvE30XRld430lW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.FYGm-O5tgk610nL1TP1kLPY8TTiKRRquMUYejht3hbs%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711036224%26sprefix%3Dceta%252Caps%252C477%26sr%3D8-26-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1%26smid%3DA1CZVB50VV536K</t>
   </si>
   <si>
     <t>Moisturizing Lotion (20 fl. oz., 2 pk.)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Cetaphil-Moisturizing-Lotion-fl-oz/dp/B01M61GS64/ref=sr_1_17?crid=QLKN5C087CRY&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtzVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.BaTlAqSGKoXF_r4zY5wm09b2GIfZxmaKQoxeIPssT1o&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711024677&amp;sprefix=ceta%2Caps%2C322&amp;sr=8-17</t>
+    <t>https://www.amazon.com/Cetaphil-Moisturizing-Lotion-fl-oz/dp/B01M61GS64/ref=sr_1_10?crid=224XSCZW4KODK&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtwyakqX2yY3Pl8ZuiAlulbcd8cekijBUVkkTCfoeBdc20q8Yoai8PJvE30XRld430lW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.FYGm-O5tgk610nL1TP1kLPY8TTiKRRquMUYejht3hbs&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711036224&amp;sprefix=ceta%2Caps%2C477&amp;sr=8-10</t>
+  </si>
+  <si>
+    <t>Men+Care Ultra Hydra Cream Lotion, 3-In-1 Advanced Skin Care for Men, Face Cream, Hand &amp; Body Lotion for Dry Skin, 2.53 Fl Oz (Pack of 24)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2OTQ0MDM5NjA5OTA1MDgwOjE3MTEwMzYyMjQ6c3BfbXRmOjMwMDEzMzE5ODUzOTUwMjo6MDo6&amp;url=%2FDove-Ultra-Hydra-Lotion-Advanced%2Fdp%2FB0CPH5XHLM%2Fref%3Dsr_1_27_sspa%3Fcrid%3D224XSCZW4KODK%26dib%3DeyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtwyakqX2yY3Pl8ZuiAlulbcd8cekijBUVkkTCfoeBdc20q8Yoai8PJvE30XRld430lW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.FYGm-O5tgk610nL1TP1kLPY8TTiKRRquMUYejht3hbs%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711036224%26sprefix%3Dceta%252Caps%252C477%26sr%3D8-27-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Advanced Relief Lotion with Shea Butter, 2 Pack - 16 oz, For Dry, Sensitive Skin, 48-Hr Moisture, Restores Skin Barrier, Fragrance Free, Dermatologist Recommended Sensitive Skincare Brand</t>
   </si>
   <si>
-    <t>https://www.amazon.com/CETAPHIL-Advanced-Relief-Lotion-Butter/dp/B07GFG4Y55/ref=sr_1_23?crid=QLKN5C087CRY&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtzVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.BaTlAqSGKoXF_r4zY5wm09b2GIfZxmaKQoxeIPssT1o&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711024677&amp;sprefix=ceta%2Caps%2C322&amp;sr=8-23</t>
-  </si>
-  <si>
-    <t>Body Lotion, Advanced Relief Lotion With Shea Butter For Dry, Sensitive Skin, 16 Oz Pack of 2, Fragrance Free, Hypoallergenic, Non-Comedogenic</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyOTgxMTk4OTM0MDg0MDgwOjE3MTEwMjQ2Nzc6c3BfYXRmOjIwMDA3MDc2NTczODg5ODo6MDo6&amp;url=%2FCETAPHIL-Sensitive-Fragrance-Hypoallergenic-Non-Comedogenic%2Fdp%2FB099N1CHF5%2Fref%3Dsr_1_1_sspa%3Fcrid%3DQLKN5C087CRY%26dib%3DeyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtzVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.BaTlAqSGKoXF_r4zY5wm09b2GIfZxmaKQoxeIPssT1o%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711024677%26sprefix%3Dceta%252Caps%252C322%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/CETAPHIL-Advanced-Relief-Lotion-Butter/dp/B07GFG4Y55/ref=sr_1_11?crid=224XSCZW4KODK&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtwyakqX2yY3Pl8ZuiAlulbcd8cekijBUVkkTCfoeBdc20q8Yoai8PJvE30XRld430lW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.FYGm-O5tgk610nL1TP1kLPY8TTiKRRquMUYejht3hbs&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711036224&amp;sprefix=ceta%2Caps%2C477&amp;sr=8-11</t>
   </si>
   <si>
     <t>Cetaphil Body Lotion, Advanced Relief Lotion With Shea Butter For Dry, Sensitive Skin, 16 Oz Pack of 2, Fragrance Free, Hypoallergenic, Non-Comedogenic</t>
   </si>
   <si>
-    <t>https://www.amazon.com/CETAPHIL-Sensitive-Fragrance-Hypoallergenic-Non-Comedogenic/dp/B099N1CHF5/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=QLKN5C087CRY&amp;cv_ct_cx=Cetaphil+Lotion&amp;dib=eyJ2IjoiMSJ9.Qz4goJSy43pzZDk4Tn-8-X0bu1oTS4vCsgFuzRMKQ3HYWFoN2y6AUzyi_kliU4YnyIGehde6DspkB-BesQSFeQ.n4Zp4fKhCaw5LmRdfoiTvxWMWWwW139oEkCpa3wl-gc&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;pd_rd_i=B099N1CHF5&amp;pd_rd_r=8c13d1ea-c9dd-4b15-846c-af5250cb04a4&amp;pd_rd_w=U1ELF&amp;pd_rd_wg=EW4i1&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=R3Y4S2P9R0726JZGF4ZG&amp;qid=1711024677&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=ceta%2Caps%2C322&amp;sr=1-5-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
+    <t>https://www.amazon.com/CETAPHIL-Sensitive-Fragrance-Hypoallergenic-Non-Comedogenic/dp/B099N1CHF5/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=224XSCZW4KODK&amp;cv_ct_cx=Cetaphil+Lotion&amp;dib=eyJ2IjoiMSJ9.Qz4goJSy43pzZDk4Tn-8-X0bu1oTS4vCsgFuzRMKQ3H6d8-gtMJd_r9NN_PCqYZo.8kVCDWKQOFMlylKZbFmPsoBNy6vIUb7pYEBuJjcMCLE&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;pd_rd_i=B099N1CHF5&amp;pd_rd_r=f43be2fb-0fe3-499f-a5be-b580617d47de&amp;pd_rd_w=rHX8i&amp;pd_rd_wg=QBtar&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=FE1AXJVCHDCC6DY0XK75&amp;qid=1711036224&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=ceta%2Caps%2C477&amp;sr=1-4-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
+  </si>
+  <si>
+    <t>Sheer Hydration Body Lotion, 16 fl oz, 48Hr Moisturizer for Dry, Sensitive Skin, with Hyaluronic Acid, Vitamin E &amp; B5</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Replenishing-Moisturizer-Hyaluronic-Dermatologist-Recommended/dp/B0897X1F46/ref=sr_1_22?crid=224XSCZW4KODK&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtwyakqX2yY3Pl8ZuiAlulbcd8cekijBUVkkTCfoeBdc20q8Yoai8PJvE30XRld430lW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.FYGm-O5tgk610nL1TP1kLPY8TTiKRRquMUYejht3hbs&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711036224&amp;sprefix=ceta%2Caps%2C477&amp;sr=8-22</t>
   </si>
   <si>
     <t>Moisturizing Lotion 20oz</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Cetaphil-Moisturizing-Lotion-20oz/dp/B07B2B7P6F/ref=sr_1_16?crid=QLKN5C087CRY&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtzVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.BaTlAqSGKoXF_r4zY5wm09b2GIfZxmaKQoxeIPssT1o&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711024677&amp;sprefix=ceta%2Caps%2C322&amp;sr=8-16</t>
+    <t>https://www.amazon.com/Cetaphil-Moisturizing-Lotion-20oz/dp/B07B2B7P6F/ref=sr_1_8?crid=224XSCZW4KODK&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtwyakqX2yY3Pl8ZuiAlulbcd8cekijBUVkkTCfoeBdc20q8Yoai8PJvE30XRld430lW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.FYGm-O5tgk610nL1TP1kLPY8TTiKRRquMUYejht3hbs&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711036224&amp;sprefix=ceta%2Caps%2C477&amp;sr=8-8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2OTQ0MDM5NjA5OTA1MDgwOjE3MTEwMzYyMjQ6c3BfbXRmOjMwMDExMzg5NDEyMzgwMjo6MDo6&amp;url=%2FCetaphil-Moisturizing-Lotion-20oz%2Fdp%2FB07B2B7P6F%2Fref%3Dsr_1_19_sspa%3Fcrid%3D224XSCZW4KODK%26dib%3DeyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtwyakqX2yY3Pl8ZuiAlulbcd8cekijBUVkkTCfoeBdc20q8Yoai8PJvE30XRld430lW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.FYGm-O5tgk610nL1TP1kLPY8TTiKRRquMUYejht3hbs%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711036224%26sprefix%3Dceta%252Caps%252C477%26sr%3D8-19-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Moisturizing Lotion, 8 fl oz (Pack of 3), Hydrating Moisturizer For All Skin Types, Instant Hydration lasting up to 24 Hours, Non-Greasy, Lotion for Even the Most Sensitive Skin</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Moisturizing-Hydrating-Moisturizer-Hydration-Non-Greasy/dp/B001ET734C/ref=sr_1_27?crid=QLKN5C087CRY&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtzVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.BaTlAqSGKoXF_r4zY5wm09b2GIfZxmaKQoxeIPssT1o&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711024677&amp;sprefix=ceta%2Caps%2C322&amp;sr=8-27</t>
+    <t>https://www.amazon.com/Moisturizing-Hydrating-Moisturizer-Hydration-Non-Greasy/dp/B001ET734C/ref=sr_1_15?crid=224XSCZW4KODK&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtwyakqX2yY3Pl8ZuiAlulbcd8cekijBUVkkTCfoeBdc20q8Yoai8PJvE30XRld430lW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.FYGm-O5tgk610nL1TP1kLPY8TTiKRRquMUYejht3hbs&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711036224&amp;sprefix=ceta%2Caps%2C477&amp;sr=8-15</t>
   </si>
   <si>
     <t>Intensive Healing Lotion with Ceramides 16 oz For Dry, Rough, Flaky Sensitive Skin 24-Hour Hydration Fragrance, Paraben &amp; Gluten Free</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Intensive-Ceramides-Sensitive-Hydration-Dermatologist/dp/B07S7FRWKR/ref=sr_1_15?crid=QLKN5C087CRY&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtzVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.BaTlAqSGKoXF_r4zY5wm09b2GIfZxmaKQoxeIPssT1o&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711024677&amp;sprefix=ceta%2Caps%2C322&amp;sr=8-15</t>
-  </si>
-  <si>
-    <t>Body Moisturizer, Hydrating Moisturizing Lotion for All Skin Types, Suitable for Sensitive Skin, NEW 16 oz Pack of 2, Fragrance Free, Hypoallergenic, Non-Comedogenic</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyOTgxMTk4OTM0MDg0MDgwOjE3MTEwMjQ2Nzc6c3BfYXRmOjIwMDAyMDY4MzI3MjE5ODo6MDo6&amp;url=%2FMoisturizer-Hydrating-Moisturizing-Hypoallergenic-Non-Comedogenic%2Fdp%2FB099MYSH3X%2Fref%3Dsr_1_4_sspa%3Fcrid%3DQLKN5C087CRY%26dib%3DeyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtzVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.BaTlAqSGKoXF_r4zY5wm09b2GIfZxmaKQoxeIPssT1o%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711024677%26sprefix%3Dceta%252Caps%252C322%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Cetaphil Body Moisturizer, Hydrating Moisturizing Lotion for All Skin Types, Suitable for Sensitive Skin, NEW 16 oz Pack of 2, Fragrance Free, Hypoallergenic, Non-Comedogenic</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Moisturizer-Hydrating-Moisturizing-Hypoallergenic-Non-Comedogenic/dp/B099MYSH3X/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=QLKN5C087CRY&amp;cv_ct_cx=Cetaphil+Lotion&amp;dib=eyJ2IjoiMSJ9.Qz4goJSy43pzZDk4Tn-8-X0bu1oTS4vCsgFuzRMKQ3HYWFoN2y6AUzyi_kliU4YnyIGehde6DspkB-BesQSFeQ.n4Zp4fKhCaw5LmRdfoiTvxWMWWwW139oEkCpa3wl-gc&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;pd_rd_i=B099MYSH3X&amp;pd_rd_r=8c13d1ea-c9dd-4b15-846c-af5250cb04a4&amp;pd_rd_w=U1ELF&amp;pd_rd_wg=EW4i1&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=R3Y4S2P9R0726JZGF4ZG&amp;qid=1711024677&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=ceta%2Caps%2C322&amp;sr=1-4-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
+    <t>https://www.amazon.com/Intensive-Ceramides-Sensitive-Hydration-Dermatologist/dp/B07S7FRWKR/ref=sr_1_6?crid=224XSCZW4KODK&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtwyakqX2yY3Pl8ZuiAlulbcd8cekijBUVkkTCfoeBdc20q8Yoai8PJvE30XRld430lW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.FYGm-O5tgk610nL1TP1kLPY8TTiKRRquMUYejht3hbs&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711036224&amp;sprefix=ceta%2Caps%2C477&amp;sr=8-6</t>
+  </si>
+  <si>
+    <t>Men+Care Ultra Hydra Cream Lotion, 3-In-1 Advanced Skin Care for Men, Face Cream, Hand &amp; Body Lotion for Dry Skin, 2.53 Fl Oz (Pack of 12)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2OTQ0MDM5NjA5OTA1MDgwOjE3MTEwMzYyMjQ6c3BfbXRmOjMwMDEzMzE5ODUzOTQwMjo6MDo6&amp;url=%2FDove-Ultra-Hydra-Lotion-Advanced%2Fdp%2FB0CPHGCF2K%2Fref%3Dsr_1_18_sspa%3Fcrid%3D224XSCZW4KODK%26dib%3DeyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtwyakqX2yY3Pl8ZuiAlulbcd8cekijBUVkkTCfoeBdc20q8Yoai8PJvE30XRld430lW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.FYGm-O5tgk610nL1TP1kLPY8TTiKRRquMUYejht3hbs%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711036224%26sprefix%3Dceta%252Caps%252C477%26sr%3D8-18-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Restoring Body Lotion with Antioxidants for Aging Skin, Great for Neck and Chest Areas, Fragrance and Paraben Free, Suitable for Sensitve Skin 16 oz. Bottle</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Cetaphil-Restoring-Lotion-Antioxidants-Bottle/dp/B07S6CPWH4/ref=sr_1_18?crid=QLKN5C087CRY&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtzVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.BaTlAqSGKoXF_r4zY5wm09b2GIfZxmaKQoxeIPssT1o&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711024677&amp;sprefix=ceta%2Caps%2C322&amp;sr=8-18</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyOTgxMTk4OTM0MDg0MDgwOjE3MTEwMjQ2Nzc6c3BfbXRmOjIwMDAyMzc4NDYwMzg3MTo6MDo6&amp;url=%2FCetaphil-Restoring-Lotion-Antioxidants-Bottle%2Fdp%2FB07S6CPWH4%2Fref%3Dsr_1_22_sspa%3Fcrid%3DQLKN5C087CRY%26dib%3DeyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtzVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.BaTlAqSGKoXF_r4zY5wm09b2GIfZxmaKQoxeIPssT1o%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711024677%26sprefix%3Dceta%252Caps%252C322%26sr%3D8-22-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Daily Moisturizing Lotion for Dry Skin | Body Lotion &amp; Face Moisturizer with Hyaluronic Acid and Ceramides | Daily Moisturizer | Fragrance Free | Oil-Free | 19 Ounce</t>
+    <t>https://www.amazon.com/Cetaphil-Restoring-Lotion-Antioxidants-Bottle/dp/B07S6CPWH4/ref=sr_1_9?crid=224XSCZW4KODK&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtwyakqX2yY3Pl8ZuiAlulbcd8cekijBUVkkTCfoeBdc20q8Yoai8PJvE30XRld430lW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.FYGm-O5tgk610nL1TP1kLPY8TTiKRRquMUYejht3hbs&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711036224&amp;sprefix=ceta%2Caps%2C477&amp;sr=8-9</t>
+  </si>
+  <si>
+    <t>Cetaphil Face Cream, Healthy Radiance Renewing Cream, Visbily Reduces Look of Dark Spots, Brightening Lotion, Designed for Sensitive Skin, Hypoallergenic, Fragrance Free, 1.7oz</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Cetaphil-Brightening-Sensitive-Hypoallergenic-Fragrance/dp/B093VNVYJT/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=224XSCZW4KODK&amp;cv_ct_cx=Cetaphil+Lotion&amp;dib=eyJ2IjoiMSJ9.Qz4goJSy43pzZDk4Tn-8-X0bu1oTS4vCsgFuzRMKQ3H6d8-gtMJd_r9NN_PCqYZo.8kVCDWKQOFMlylKZbFmPsoBNy6vIUb7pYEBuJjcMCLE&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;pd_rd_i=B093VNVYJT&amp;pd_rd_r=f43be2fb-0fe3-499f-a5be-b580617d47de&amp;pd_rd_w=rHX8i&amp;pd_rd_wg=QBtar&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=FE1AXJVCHDCC6DY0XK75&amp;qid=1711036224&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=ceta%2Caps%2C477&amp;sr=1-3-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
+  </si>
+  <si>
+    <t>Men's Healing Moisture Hand &amp; Body Lotion For Dry or Cracked Skin Fast Absorbing Non-Greasy Lotion for Men 20.3 oz, Pack of 3</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2OTQ0MDM5NjA5OTA1MDgwOjE3MTEwMzYyMjQ6c3BfbXRmOjMwMDExOTE3NzAwNDQwMjo6MDo6&amp;url=%2FVaseline-Body-Lotion-Absorbing-Healing%2Fdp%2FB01J9S17NW%2Fref%3Dsr_1_24_sspa%3Fcrid%3D224XSCZW4KODK%26dib%3DeyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtwyakqX2yY3Pl8ZuiAlulbcd8cekijBUVkkTCfoeBdc20q8Yoai8PJvE30XRld430lW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.FYGm-O5tgk610nL1TP1kLPY8TTiKRRquMUYejht3hbs%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711036224%26sprefix%3Dceta%252Caps%252C477%26sr%3D8-24-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Body Lotion, Advanced Relief Lotion with Shea Butter for Dry, Sensitive Skin, NEW 20oz, Fragrance Free, Hypoallergenic, Non-Comedogenic</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/CETAPHIL-Sensitive-Fragrance-Hypoallergenic-Non-Comedogenic/dp/B099MJ4Q9V/ref=sr_1_2?crid=224XSCZW4KODK&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtwyakqX2yY3Pl8ZuiAlulbcd8cekijBUVkkTCfoeBdc20q8Yoai8PJvE30XRld430lW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.FYGm-O5tgk610nL1TP1kLPY8TTiKRRquMUYejht3hbs&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711036224&amp;sprefix=ceta%2Caps%2C477&amp;sr=8-2</t>
+  </si>
+  <si>
+    <t>Daily Advance Ultra Hydrating Lotion - White 100 Grams</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Cetaphil-Daily-Advance-Hydrating-Lotion/dp/B01ER4HUWU/ref=sr_1_16?crid=224XSCZW4KODK&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtwyakqX2yY3Pl8ZuiAlulbcd8cekijBUVkkTCfoeBdc20q8Yoai8PJvE30XRld430lW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.FYGm-O5tgk610nL1TP1kLPY8TTiKRRquMUYejht3hbs&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711036224&amp;sprefix=ceta%2Caps%2C477&amp;sr=8-16</t>
+  </si>
+  <si>
+    <t>Cetaphil Face Moisturizer, Daily Oil Free Facial Moisturizer with SPF 35, For Dry or Oily Combination Sensitive Skin, Fragrance Free Face Lotion (Packaging May Vary)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Cetaphil-Moisturizer-Sunscreen-Sensitive-Combination/dp/B08LR42YZG/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=224XSCZW4KODK&amp;cv_ct_cx=Cetaphil+Lotion&amp;dib=eyJ2IjoiMSJ9.Qz4goJSy43pzZDk4Tn-8-X0bu1oTS4vCsgFuzRMKQ3H6d8-gtMJd_r9NN_PCqYZo.8kVCDWKQOFMlylKZbFmPsoBNy6vIUb7pYEBuJjcMCLE&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;pd_rd_i=B08LR42YZG&amp;pd_rd_r=f43be2fb-0fe3-499f-a5be-b580617d47de&amp;pd_rd_w=rHX8i&amp;pd_rd_wg=QBtar&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=FE1AXJVCHDCC6DY0XK75&amp;qid=1711036224&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=ceta%2Caps%2C477&amp;sr=1-2-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
+  </si>
+  <si>
+    <t>Daily Nourish 5% - 7.9 oz Body Lotion with 5% Lactic Acid - Exfoliator and Moisturizer for Dry Skin​</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2OTQ0MDM5NjA5OTA1MDgwOjE3MTEwMzYyMjQ6c3BfbXRmOjMwMDAxMjIwNjkyNzQwMjo6MDo6&amp;url=%2FAmLactin-Daily-Nourish-Exfoliator-Moisturizer%2Fdp%2FB0C3JYW4QY%2Fref%3Dsr_1_17_sspa%3Fcrid%3D224XSCZW4KODK%26dib%3DeyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtwyakqX2yY3Pl8ZuiAlulbcd8cekijBUVkkTCfoeBdc20q8Yoai8PJvE30XRld430lW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.FYGm-O5tgk610nL1TP1kLPY8TTiKRRquMUYejht3hbs%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711036224%26sprefix%3Dceta%252Caps%252C477%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Baby Eczema Soothing Lotion, Colloidal Oatmeal, Paraben Free, Hypoallergenic, Dry Skin, 10 Fluid Ounce</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Cetaphil-Baby-Soothing-Colloidal-Hypoallergenic/dp/B07ZZTTDWP/ref=sr_1_21?crid=224XSCZW4KODK&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtwyakqX2yY3Pl8ZuiAlulbcd8cekijBUVkkTCfoeBdc20q8Yoai8PJvE30XRld430lW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.FYGm-O5tgk610nL1TP1kLPY8TTiKRRquMUYejht3hbs&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711036224&amp;sprefix=ceta%2Caps%2C477&amp;sr=8-21</t>
+  </si>
+  <si>
+    <t>Cracked Skin Repair Lotion, 16 oz, For Very Rough &amp; Cracked, Sensitive Skin, 24 Hour Hydration, Protects &amp; Hydrates Cracked Skin, Hypoallergenic, Fragrance Free Packaging may vary</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Cetaphil-16oz-Cracked-Repair-Lotion/dp/B093VRHLP5/ref=sr_1_4?crid=224XSCZW4KODK&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtwyakqX2yY3Pl8ZuiAlulbcd8cekijBUVkkTCfoeBdc20q8Yoai8PJvE30XRld430lW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.FYGm-O5tgk610nL1TP1kLPY8TTiKRRquMUYejht3hbs&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711036224&amp;sprefix=ceta%2Caps%2C477&amp;sr=8-4</t>
+  </si>
+  <si>
+    <t>Cetaphil Daily Hydrating Lotion for Face, With Hyaluronic Acid, 3 fl oz, Lasting 24 Hr Hydration, for Combination Skin, No Added Fragrance, Non-Comedogenic</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Hyaluronic-Combination-Non-Comedogenic-Dermatologist-Recommended/dp/B01MG4PSK4/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=224XSCZW4KODK&amp;cv_ct_cx=Cetaphil+Lotion&amp;dib=eyJ2IjoiMSJ9.Qz4goJSy43pzZDk4Tn-8-X0bu1oTS4vCsgFuzRMKQ3H6d8-gtMJd_r9NN_PCqYZo.8kVCDWKQOFMlylKZbFmPsoBNy6vIUb7pYEBuJjcMCLE&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;pd_rd_i=B01MG4PSK4&amp;pd_rd_r=f43be2fb-0fe3-499f-a5be-b580617d47de&amp;pd_rd_w=rHX8i&amp;pd_rd_wg=QBtar&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=FE1AXJVCHDCC6DY0XK75&amp;qid=1711036224&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=ceta%2Caps%2C477&amp;sr=1-1-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
+  </si>
+  <si>
+    <t>Daily Hydrating Lotion for Face, With Hyaluronic Acid, 3 fl oz, Lasting 24 Hr Hydration, for Combination Skin, No Added Fragrance, Non-Comedogenic</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Hyaluronic-Combination-Non-Comedogenic-Dermatologist-Recommended/dp/B01MG4PSK4/ref=sr_1_7?crid=224XSCZW4KODK&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtwyakqX2yY3Pl8ZuiAlulbcd8cekijBUVkkTCfoeBdc20q8Yoai8PJvE30XRld430lW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.FYGm-O5tgk610nL1TP1kLPY8TTiKRRquMUYejht3hbs&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711036224&amp;sprefix=ceta%2Caps%2C477&amp;sr=8-7</t>
+  </si>
+  <si>
+    <t>Sheer Hydration Fragrance Free Replenishing Body Lotion for Dry Skin, 16 fl oz, 48Hr Sensitive Skin Body Moisturizer, With Hyaluronic Acid, Vitamin E &amp; B5</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Cetaphil-NULL/dp/B09B1L339V/ref=sr_1_13?crid=224XSCZW4KODK&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtwyakqX2yY3Pl8ZuiAlulbcd8cekijBUVkkTCfoeBdc20q8Yoai8PJvE30XRld430lW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.FYGm-O5tgk610nL1TP1kLPY8TTiKRRquMUYejht3hbs&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711036224&amp;sprefix=ceta%2Caps%2C477&amp;sr=8-13</t>
+  </si>
+  <si>
+    <t>Baby Daily Lotion, 13.5oz - With Organic Calendula, Vitamin E &amp; Oils, Mineral Oil &amp; Paraben Free, For Sensitive Skin</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Cetaphil-Baby-Calendula-Dermatologist-Clinically/dp/B09JLBDDLD/ref=sr_1_12?crid=224XSCZW4KODK&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtwyakqX2yY3Pl8ZuiAlulbcd8cekijBUVkkTCfoeBdc20q8Yoai8PJvE30XRld430lW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.FYGm-O5tgk610nL1TP1kLPY8TTiKRRquMUYejht3hbs&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711036224&amp;sprefix=ceta%2Caps%2C477&amp;sr=8-12</t>
+  </si>
+  <si>
+    <t>Baby Daily Lotion with Organic Calendula,Hypoallergenic, Sweet Almond &amp; Sunflower Oils,6.7 Fl. Oz (Packaging May Vary)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Cetaphil-Baby-Calendula-Hypoallergenic-Sunflower/dp/B087R1Y1LK/ref=sr_1_23?crid=224XSCZW4KODK&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtwyakqX2yY3Pl8ZuiAlulbcd8cekijBUVkkTCfoeBdc20q8Yoai8PJvE30XRld430lW0RnFXH2SzN5uUI8PUnoyl9PuPt2QY7XgrylKRaTvurcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.FYGm-O5tgk610nL1TP1kLPY8TTiKRRquMUYejht3hbs&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711036224&amp;sprefix=ceta%2Caps%2C477&amp;sr=8-23</t>
+  </si>
+  <si>
+    <t>Lip Therapy Original, .25 oz (Pack of 12)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Vaseline-Lip-Therapy-Original-Pack/dp/B00PR903YW/ref=sr_1_23?crid=2SWWYZEHIEC34&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lraomo698bpNskGoWU1Rx9-OIF7TCEzjalK0Ws_DTJWCFLNKQQ1jsdGPq0MbgC1EvrrjZ3b7DioJ_SUa1NLrHyGYXaB1g3U9340bL78NZVWfTS6uM59HrxmBhtQFlqBWxjrgjqnW0QZ2DKT7a_pR4MxFJEXSU7X_JM42PTzvPesuECYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.GHqO6JS6jgmOM8VBYajnNsZT7CiKD2AhLQPFT2i-dxQ&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711036233&amp;sprefix=cetaphil+lotion%2Caps%2C355&amp;sr=8-23</t>
+  </si>
+  <si>
+    <t>Lip Therapy Original - Hydrating Lip Balm Pack, Vaseline Stick, Lip Moisturizer for Dry Lips, 0.16 Oz Each (Pack of 12)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Vaseline-Therapy-0-16-Original-Pack/dp/B07WTNTWPR/ref=sr_1_16?crid=2SWWYZEHIEC34&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lraomo698bpNskGoWU1Rx9-OIF7TCEzjalK0Ws_DTJWCFLNKQQ1jsdGPq0MbgC1EvrrjZ3b7DioJ_SUa1NLrHyGYXaB1g3U9340bL78NZVWfTS6uM59HrxmBhtQFlqBWxjrgjqnW0QZ2DKT7a_pR4MxFJEXSU7X_JM42PTzvPesuECYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.GHqO6JS6jgmOM8VBYajnNsZT7CiKD2AhLQPFT2i-dxQ&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711036233&amp;sprefix=cetaphil+lotion%2Caps%2C355&amp;sr=8-16</t>
+  </si>
+  <si>
+    <t>Lip Therapy Petroleum Jelly 20g With Rose &amp; Almond Oil Rosy Lips</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Vaseline-Therapy-Petroleum-Jelly-Almond/dp/B00PHUC9SO/ref=sr_1_24?crid=2SWWYZEHIEC34&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lraomo698bpNskGoWU1Rx9-OIF7TCEzjalK0Ws_DTJWCFLNKQQ1jsdGPq0MbgC1EvrrjZ3b7DioJ_SUa1NLrHyGYXaB1g3U9340bL78NZVWfTS6uM59HrxmBhtQFlqBWxjrgjqnW0QZ2DKT7a_pR4MxFJEXSU7X_JM42PTzvPesuECYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.GHqO6JS6jgmOM8VBYajnNsZT7CiKD2AhLQPFT2i-dxQ&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711036233&amp;sprefix=cetaphil+lotion%2Caps%2C355&amp;sr=8-24</t>
+  </si>
+  <si>
+    <t>Lip Therapy Tinted Lip Balm Mini, Rosy,0.25 Ounce (Pack of 8)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Vaseline-Therapy-Rosy-0-25-Pack/dp/B00HC47QBI/ref=sr_1_25?crid=2SWWYZEHIEC34&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lraomo698bpNskGoWU1Rx9-OIF7TCEzjalK0Ws_DTJWCFLNKQQ1jsdGPq0MbgC1EvrrjZ3b7DioJ_SUa1NLrHyGYXaB1g3U9340bL78NZVWfTS6uM59HrxmBhtQFlqBWxjrgjqnW0QZ2DKT7a_pR4MxFJEXSU7X_JM42PTzvPesuECYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.GHqO6JS6jgmOM8VBYajnNsZT7CiKD2AhLQPFT2i-dxQ&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711036233&amp;sprefix=cetaphil+lotion%2Caps%2C355&amp;sr=8-25</t>
+  </si>
+  <si>
+    <t>Lip Therapy Rosy Lips, Cocoa Butter, Creme Brulee, Original - Vaseline Lip Balm, Tinted and Clear Lip Gloss Set, 2 of Each, 0.25 Oz Ea (8 Piece Set)</t>
   </si>
   <si>
     <t>4.8 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyOTgxMTk4OTM0MDg0MDgwOjE3MTEwMjQ2Nzc6c3BfbXRmOjIwMDAyNzMyMzMxMjIxMTo6MDo6&amp;url=%2FCeraVe-Moisturizing-Lotion-Hyaluronic-Fragrance%2Fdp%2FB07RK4HST7%2Fref%3Dsr_1_11_sspa%3Fcrid%3DQLKN5C087CRY%26dib%3DeyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtzVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.BaTlAqSGKoXF_r4zY5wm09b2GIfZxmaKQoxeIPssT1o%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711024677%26sprefix%3Dceta%252Caps%252C322%26sr%3D8-11-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Cetaphil Face Cream, Healthy Radiance Renewing Cream, Visbily Reduces Look of Dark Spots, Brightening Lotion, Designed for Sensitive Skin, Hypoallergenic, Fragrance Free, 1.7oz</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Cetaphil-Brightening-Sensitive-Hypoallergenic-Fragrance/dp/B093VNVYJT/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=QLKN5C087CRY&amp;cv_ct_cx=Cetaphil+Lotion&amp;dib=eyJ2IjoiMSJ9.Qz4goJSy43pzZDk4Tn-8-X0bu1oTS4vCsgFuzRMKQ3HYWFoN2y6AUzyi_kliU4YnyIGehde6DspkB-BesQSFeQ.n4Zp4fKhCaw5LmRdfoiTvxWMWWwW139oEkCpa3wl-gc&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;pd_rd_i=B093VNVYJT&amp;pd_rd_r=8c13d1ea-c9dd-4b15-846c-af5250cb04a4&amp;pd_rd_w=U1ELF&amp;pd_rd_wg=EW4i1&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=R3Y4S2P9R0726JZGF4ZG&amp;qid=1711024677&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=ceta%2Caps%2C322&amp;sr=1-3-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
-  </si>
-  <si>
-    <t>Body Lotion, Advanced Relief Lotion with Shea Butter for Dry, Sensitive Skin, NEW 20oz, Fragrance Free, Hypoallergenic, Non-Comedogenic</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/CETAPHIL-Sensitive-Fragrance-Hypoallergenic-Non-Comedogenic/dp/B099MJ4Q9V/ref=sr_1_6?crid=QLKN5C087CRY&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtzVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.BaTlAqSGKoXF_r4zY5wm09b2GIfZxmaKQoxeIPssT1o&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711024677&amp;sprefix=ceta%2Caps%2C322&amp;sr=8-6</t>
-  </si>
-  <si>
-    <t>Cetaphil Face Moisturizer, Daily Oil Free Facial Moisturizer with SPF 35, For Dry or Oily Combination Sensitive Skin, Fragrance Free Face Lotion (Packaging May Vary)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Cetaphil-Moisturizer-Sunscreen-Sensitive-Combination/dp/B08LR42YZG/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=QLKN5C087CRY&amp;cv_ct_cx=Cetaphil+Lotion&amp;dib=eyJ2IjoiMSJ9.Qz4goJSy43pzZDk4Tn-8-X0bu1oTS4vCsgFuzRMKQ3HYWFoN2y6AUzyi_kliU4YnyIGehde6DspkB-BesQSFeQ.n4Zp4fKhCaw5LmRdfoiTvxWMWWwW139oEkCpa3wl-gc&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;pd_rd_i=B08LR42YZG&amp;pd_rd_r=8c13d1ea-c9dd-4b15-846c-af5250cb04a4&amp;pd_rd_w=U1ELF&amp;pd_rd_wg=EW4i1&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=R3Y4S2P9R0726JZGF4ZG&amp;qid=1711024677&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=ceta%2Caps%2C322&amp;sr=1-2-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
-  </si>
-  <si>
-    <t>Baby Eczema Soothing Lotion, Colloidal Oatmeal, Paraben Free, Hypoallergenic, Dry Skin, 10 Fluid Ounce</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyOTgxMTk4OTM0MDg0MDgwOjE3MTEwMjQ2Nzc6c3BfYXRmOjIwMDAyNDI2NzU2Mzg3MTo6MDo6&amp;url=%2FCetaphil-Baby-Soothing-Colloidal-Hypoallergenic%2Fdp%2FB07ZZTTDWP%2Fref%3Dsr_1_3_sspa%3Fcrid%3DQLKN5C087CRY%26dib%3DeyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtzVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.BaTlAqSGKoXF_r4zY5wm09b2GIfZxmaKQoxeIPssT1o%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711024677%26sprefix%3Dceta%252Caps%252C322%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Cracked Skin Repair Lotion, 16 oz, For Very Rough &amp; Cracked, Sensitive Skin, 24 Hour Hydration, Protects &amp; Hydrates Cracked Skin, Hypoallergenic, Fragrance Free Packaging may vary</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Cetaphil-16oz-Cracked-Repair-Lotion/dp/B093VRHLP5/ref=sr_1_8?crid=QLKN5C087CRY&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtzVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.BaTlAqSGKoXF_r4zY5wm09b2GIfZxmaKQoxeIPssT1o&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711024677&amp;sprefix=ceta%2Caps%2C322&amp;sr=8-8</t>
-  </si>
-  <si>
-    <t>Cetaphil Daily Hydrating Lotion for Face, With Hyaluronic Acid, 3 fl oz, Lasting 24 Hr Hydration, for Combination Skin, No Added Fragrance, Non-Comedogenic</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Hyaluronic-Combination-Non-Comedogenic-Dermatologist-Recommended/dp/B01MG4PSK4/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=QLKN5C087CRY&amp;cv_ct_cx=Cetaphil+Lotion&amp;dib=eyJ2IjoiMSJ9.Qz4goJSy43pzZDk4Tn-8-X0bu1oTS4vCsgFuzRMKQ3HYWFoN2y6AUzyi_kliU4YnyIGehde6DspkB-BesQSFeQ.n4Zp4fKhCaw5LmRdfoiTvxWMWWwW139oEkCpa3wl-gc&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;pd_rd_i=B01MG4PSK4&amp;pd_rd_r=8c13d1ea-c9dd-4b15-846c-af5250cb04a4&amp;pd_rd_w=U1ELF&amp;pd_rd_wg=EW4i1&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=R3Y4S2P9R0726JZGF4ZG&amp;qid=1711024677&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=ceta%2Caps%2C322&amp;sr=1-1-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
-  </si>
-  <si>
-    <t>Daily Hydrating Lotion for Face, With Hyaluronic Acid, 3 fl oz, Lasting 24 Hr Hydration, for Combination Skin, No Added Fragrance, Non-Comedogenic</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Hyaluronic-Combination-Non-Comedogenic-Dermatologist-Recommended/dp/B01MG4PSK4/ref=sr_1_9?crid=QLKN5C087CRY&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtzVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.BaTlAqSGKoXF_r4zY5wm09b2GIfZxmaKQoxeIPssT1o&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711024677&amp;sprefix=ceta%2Caps%2C322&amp;sr=8-9</t>
-  </si>
-  <si>
-    <t>Sheer Hydration Fragrance Free Replenishing Body Lotion for Dry Skin, 16 fl oz, 48Hr Sensitive Skin Body Moisturizer, With Hyaluronic Acid, Vitamin E &amp; B5</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Cetaphil-NULL/dp/B09B1L339V/ref=sr_1_25?crid=QLKN5C087CRY&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtzVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.BaTlAqSGKoXF_r4zY5wm09b2GIfZxmaKQoxeIPssT1o&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711024677&amp;sprefix=ceta%2Caps%2C322&amp;sr=8-25</t>
-  </si>
-  <si>
-    <t>Baby Daily Lotion, 13.5oz - With Organic Calendula, Vitamin E &amp; Oils, Mineral Oil &amp; Paraben Free, For Sensitive Skin</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Cetaphil-Baby-Calendula-Dermatologist-Clinically/dp/B09JLBDDLD/ref=sr_1_24?crid=QLKN5C087CRY&amp;dib=eyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtzVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.BaTlAqSGKoXF_r4zY5wm09b2GIfZxmaKQoxeIPssT1o&amp;dib_tag=se&amp;keywords=Cetaphil+Lotion&amp;qid=1711024677&amp;sprefix=ceta%2Caps%2C322&amp;sr=8-24</t>
-  </si>
-  <si>
-    <t>Daily Moisture Lotion + Pro-Ceramide with Shea Butter &amp; Glycerin Helps Moisturize Dry Skin, Hydrating Face, Hand &amp; Body Lotion is Lightly Scented &amp; Non-Greasy, 24 fl. oz</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyOTgxMTk4OTM0MDg0MDgwOjE3MTEwMjQ2Nzc6c3BfbXRmOjMwMDA4NzU1MjU5MjQwMjo6MDo6&amp;url=%2FLubriderm-Moisture-Hydrating-Vitamin-Non-Greasy%2Fdp%2FB003JT8PKQ%2Fref%3Dsr_1_20_sspa%3Fcrid%3DQLKN5C087CRY%26dib%3DeyJ2IjoiMSJ9.lO-G5fXRvddYHm3RmqwDLQSIgntnoEj81aFkmIoMbtzVNComfAEvvmmd0khxq9B50P_z6G8i6mbDgJqRHosi7JhcGC1DP7nWekIy-sVKetYOU-nG7NAjHqMBAuhGli3ZNHgkM2o1m1SV_0ObCWb5CbcZof1KFacTDFZnJrp1j2rvmCOaVZha3KBgXiP-LI4HgsVPrDpKC8yzYA5FjxZPQw6FGybJPs3APh4YNqfo0cBhqDkFg6AA9sSxXYDEM5UgaTQgpeR3inYespZXxtPrcYLgA2BbhtBo7FDLtC3Jrg4.BaTlAqSGKoXF_r4zY5wm09b2GIfZxmaKQoxeIPssT1o%26dib_tag%3Dse%26keywords%3DCetaphil%2BLotion%26qid%3D1711024677%26sprefix%3Dceta%252Caps%252C322%26sr%3D8-20-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Lip Therapy Original, .25 oz (Pack of 12)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Vaseline-Lip-Therapy-Original-Pack/dp/B00PR903YW/ref=sr_1_18?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-18</t>
-  </si>
-  <si>
-    <t>Lip Therapy Original - Hydrating Lip Balm Pack, Vaseline Stick, Lip Moisturizer for Dry Lips, 0.16 Oz Each (Pack of 12)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Vaseline-Therapy-0-16-Original-Pack/dp/B07WTNTWPR/ref=sr_1_16?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-16</t>
-  </si>
-  <si>
-    <t>Lip Therapy Petroleum Jelly 20g With Rose &amp; Almond Oil Rosy Lips</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Vaseline-Therapy-Petroleum-Jelly-Almond/dp/B00PHUC9SO/ref=sr_1_24?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-24</t>
-  </si>
-  <si>
-    <t>Lip Therapy Tinted Lip Balm Mini, Rosy,0.25 Ounce (Pack of 8)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Vaseline-Therapy-Rosy-0-25-Pack/dp/B00HC47QBI/ref=sr_1_25?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-25</t>
-  </si>
-  <si>
-    <t>Lip Therapy Rosy Lips, Cocoa Butter, Creme Brulee, Original - Vaseline Lip Balm, Tinted and Clear Lip Gloss Set, 2 of Each, 0.25 Oz Ea (8 Piece Set)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Vaseline-Lip-Therapy-Original-Pack/dp/B0167K3UOO/ref=sr_1_8?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-8</t>
+    <t>https://www.amazon.com/Vaseline-Lip-Therapy-Original-Pack/dp/B0167K3UOO/ref=sr_1_8?crid=2SWWYZEHIEC34&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lraomo698bpNskGoWU1Rx9-OIF7TCEzjalK0Ws_DTJWCFLNKQQ1jsdGPq0MbgC1EvrrjZ3b7DioJ_SUa1NLrHyGYXaB1g3U9340bL78NZVWfTS6uM59HrxmBhtQFlqBWxjrgjqnW0QZ2DKT7a_pR4MxFJEXSU7X_JM42PTzvPesuECYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.GHqO6JS6jgmOM8VBYajnNsZT7CiKD2AhLQPFT2i-dxQ&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711036233&amp;sprefix=cetaphil+lotion%2Caps%2C355&amp;sr=8-8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0OTE5NjYzNzM3OTg5MDgwOjE3MTEwMzYyMzM6c3BfbXRmOjMwMDEwMzU1NTIwODQwMjo6MDo6&amp;url=%2FVaseline-Lip-Therapy-Original-Pack%2Fdp%2FB0167K3UOO%2Fref%3Dsr_1_20_sspa%3Fcrid%3D2SWWYZEHIEC34%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lraomo698bpNskGoWU1Rx9-OIF7TCEzjalK0Ws_DTJWCFLNKQQ1jsdGPq0MbgC1EvrrjZ3b7DioJ_SUa1NLrHyGYXaB1g3U9340bL78NZVWfTS6uM59HrxmBhtQFlqBWxjrgjqnW0QZ2DKT7a_pR4MxFJEXSU7X_JM42PTzvPesuECYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.GHqO6JS6jgmOM8VBYajnNsZT7CiKD2AhLQPFT2i-dxQ%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711036233%26sprefix%3Dcetaphil%2Blotion%252Caps%252C355%26sr%3D8-20-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Lip Therapy Original – Mini Vaseline Lip Balm, Hydrating Petroleum Jelly, Clear Lip Gloss, Travel-Size, 0.25 Oz Ea (Pack of 6)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozODYzNjAwMzUxMTMyMDgwOjE3MTEwMjQ2OTI6c3BfYXRmOjMwMDEzNDQzNTE2NDgwMjo6MDo6&amp;url=%2FVaseline-Original-Petrolatum-Moisturizer-Petroleum%2Fdp%2FB0BLP85Y75%2Fref%3Dsr_1_1_sspa%3Fcrid%3D1HX3CY7O8RIBV%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711024692%26sprefix%3Dvase%252Caps%252C371%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Vaseline Lip Therapy Original – Mini Vaseline Lip Balm, Hydrating Petroleum Jelly, Clear Lip Gloss, Travel-Size, 0.25 Oz Ea (Pack of 6)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0OTg1MjI3Mjk2NjM5MDgwOjE3MTEwMjQ2OTI6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDEzNDQzNTE2NDgwMjo6MDo6&amp;url=%2FVaseline-Original-Petrolatum-Moisturizer-Petroleum%2Fdp%2FB0BLP85Y75%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%253Aamzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%26crid%3D1HX3CY7O8RIBV%26cv_ct_cx%3DVaseline%2BLip%2BTherapy%26dib%3DeyJ2IjoiMSJ9.Y8Vc9MU8hvoApKGi8BevQE3g1MVdJTMQmYUbGYXSahwJM-m27Vec2lEs5n4iTdsc.FK4x3tM3jy7N9uhyYf2xJ85LqMkajCzzCrvEGTjXaZk%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26pd_rd_i%3DB0BLP85Y75%26pd_rd_r%3Dc4a28026-0f8b-45db-8314-464816754045%26pd_rd_w%3DoJHRf%26pd_rd_wg%3Dt0mY5%26pf_rd_p%3Dd4fdc453-1595-4f7b-ba6a-eb2ac554591f%26pf_rd_r%3DM4MXAGZCXVD2552T7VYN%26qid%3D1711024692%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dvase%252Caps%252C371%26sr%3D1-1-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Cruelty-Free Lip Treatment for Severely Chapped Lips - Extreme Dry Lip Moisturizer - Overnight Balm for Cracked Lips - Made with Kukui Oil, Shea Butter, Grapeseed Oil - Clear Formula - Full Size(15g)</t>
-  </si>
-  <si>
-    <t>https://aax-us-iad.amazon.com/x/c/RDikcp0iUw1Rmc801R86_rEAAAGOYQTeiAEAAAH2AQBvbm9fdHhuX2JpZDQgICBvbm9fdHhuX2ltcDEgICDqyAiy/https://www.amazon.com/Treatment-Hanalei-Grapeseed-Cruelty-Paraben/dp/B01FRN3P0Q/ref=sxin_35_sbv_search_btf?content-id=amzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f%3Aamzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;crid=1HX3CY7O8RIBV&amp;cv_ct_cx=Vaseline+Lip+Therapy&amp;dib=eyJ2IjoiMSJ9.wIw1M1OpUaIFTWUMVXtApg.-3zIi8PgVl1j_f_S2KryAa5_E_zN_5IO1CImb0O48IQ&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;pd_rd_i=B01FRN3P0Q&amp;pd_rd_r=c4a28026-0f8b-45db-8314-464816754045&amp;pd_rd_w=rIALW&amp;pd_rd_wg=t0mY5&amp;pf_rd_p=c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;pf_rd_r=M4MXAGZCXVD2552T7VYN&amp;qid=1711024692&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=vase%2Caps%2C371&amp;sr=1-1-5190daf0-67e3-427c-bea6-c72c1df98776</t>
-  </si>
-  <si>
-    <t>Lip Mask, Overnight Lip Treatment Enriched With Skin Softening Coconut Oil and Hydrating Shea Butter</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozODYzNjAwMzUxMTMyMDgwOjE3MTEwMjQ2OTI6c3BfbXRmOjIwMDEyODQzMzcyOTM5ODo6MDo6&amp;url=%2FMario-Badescu-Overnight-Treatment-Softening%2Fdp%2FB0B7VSL515%2Fref%3Dsr_1_19_sspa%3Fcrid%3D1HX3CY7O8RIBV%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711024692%26sprefix%3Dvase%252Caps%252C371%26sr%3D8-19-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0OTE5NjYzNzM3OTg5MDgwOjE3MTEwMzYyMzM6c3BfbXRmOjMwMDEzNDQzMjEyNzQwMjo6MDo6&amp;url=%2FVaseline-Original-Petrolatum-Moisturizer-Petroleum%2Fdp%2FB0BLP85Y75%2Fref%3Dsr_1_21_sspa%3Fcrid%3D2SWWYZEHIEC34%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lraomo698bpNskGoWU1Rx9-OIF7TCEzjalK0Ws_DTJWCFLNKQQ1jsdGPq0MbgC1EvrrjZ3b7DioJ_SUa1NLrHyGYXaB1g3U9340bL78NZVWfTS6uM59HrxmBhtQFlqBWxjrgjqnW0QZ2DKT7a_pR4MxFJEXSU7X_JM42PTzvPesuECYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.GHqO6JS6jgmOM8VBYajnNsZT7CiKD2AhLQPFT2i-dxQ%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711036233%26sprefix%3Dcetaphil%2Blotion%252Caps%252C355%26sr%3D8-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Julep It's Balm: Tinted Lip Balm + Buildable Lip Color - Vintage Mauve - Natural Gloss Finish - Hydrating Vitamin E Core - Vegan</t>
+  </si>
+  <si>
+    <t>4.1 out of 5 stars</t>
+  </si>
+  <si>
+    <t>https://aax-us-iad.amazon.com/x/c/RATnCdL8_ydcZJlQaVDyqO4AAAGOYbT3LgEAAAH2AQBvbm9fdHhuX2JpZDcgICBvbm9fdHhuX2ltcDEgICDls_sw/https://www.amazon.com/Julep-Its-Balm-Buildable-Hydrating/dp/B01FSJV3XK/ref=sxin_34_sbv_search_btf?content-id=amzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f%3Aamzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;crid=2SWWYZEHIEC34&amp;cv_ct_cx=Vaseline+Lip+Therapy&amp;dib=eyJ2IjoiMSJ9.bJ7hMlPUJcTRx908a19wag.7ROR4I54wLv76NSXPJKd83c9cAxil17FY033PqWfC3w&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;pd_rd_i=B01FSJV3XK&amp;pd_rd_r=bf1ead3e-e21e-43f0-afca-a383774b3dcc&amp;pd_rd_w=hpR0Z&amp;pd_rd_wg=fHPMs&amp;pf_rd_p=c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;pf_rd_r=73JCH9FSRTD7E6DM7N90&amp;qid=1711036233&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=cetaphil+lotion%2Caps%2C355&amp;sr=1-1-5190daf0-67e3-427c-bea6-c72c1df98776</t>
+  </si>
+  <si>
+    <t>Lip Sunscreen Moisturizing and Repair Package SPF 30 - Summer Long Lasting Moisturized, Smooth and Repaired Lips - 3 Flavors (Pack of 6: 2 moisturizing+ 2 repairing+ 2 SPF)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0OTE5NjYzNzM3OTg5MDgwOjE3MTEwMzYyMzM6c3BfbXRmOjMwMDA4NDAwMzc1MzIwMjo6MDo6&amp;url=%2FTANUOYI-Sunscreen-Moisturizing-Repair-Package%2Fdp%2FB0CL68L5VF%2Fref%3Dsr_1_22_sspa%3Fcrid%3D2SWWYZEHIEC34%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lraomo698bpNskGoWU1Rx9-OIF7TCEzjalK0Ws_DTJWCFLNKQQ1jsdGPq0MbgC1EvrrjZ3b7DioJ_SUa1NLrHyGYXaB1g3U9340bL78NZVWfTS6uM59HrxmBhtQFlqBWxjrgjqnW0QZ2DKT7a_pR4MxFJEXSU7X_JM42PTzvPesuECYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.GHqO6JS6jgmOM8VBYajnNsZT7CiKD2AhLQPFT2i-dxQ%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711036233%26sprefix%3Dcetaphil%2Blotion%252Caps%252C355%26sr%3D8-22-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Cliganic USDA Organic Lip Balm Set - 6 Flavors - 100% Natural Moisturizer for Cracked &amp; Dry Lips</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Cliganic-USDA-Organic-Lip-Balm/dp/B07X62WVM4/ref=sxin_35_cpf_saw-CPFPecos-dsk-lmlk-asin?content-id=amzn1.sym.5fd35f2d-c1de-4678-ba9f-54569b4fdcb7%3Aamzn1.sym.5fd35f2d-c1de-4678-ba9f-54569b4fdcb7&amp;crid=2SWWYZEHIEC34&amp;cv_ct_cx=Vaseline+Lip+Therapy&amp;dib=eyJ2IjoiMSJ9.KjKc0sGwplgZAAYjLKu7CLkJKILgLhikAoAE2fWkarMEeBFmwJwd8U1OYQRO5_JUvwxw8ASUyBCsGBsHOCQcfaSSNwThj2omJcESjna53pY.8cJtnCDLAomZnMX-w6Fv5rdzbJvSB8_nUduo-dgjtu0&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;pd_rd_i=B07X62WVM4&amp;pd_rd_r=bf1ead3e-e21e-43f0-afca-a383774b3dcc&amp;pd_rd_w=atjXM&amp;pd_rd_wg=fHPMs&amp;pf_rd_p=5fd35f2d-c1de-4678-ba9f-54569b4fdcb7&amp;pf_rd_r=73JCH9FSRTD7E6DM7N90&amp;qid=1711036233&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=cetaphil+lotion%2Caps%2C355&amp;sr=1-2-88bb4e7b-fb79-43dc-9dec-6da196f88672</t>
+  </si>
+  <si>
+    <t>Honest Beauty Tinted Lip Balm | Antioxidant-rich Acai Extracts + Avocado Oil | EWG Certified, Vegan, Cruelty Free | Dragon Fruit</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Honest-Beauty-Moisture-Paraben-Silicone/dp/B07NTS4RDR/ref=sxin_35_cpf_saw-CPFPecos-dsk-lmlk-asin?content-id=amzn1.sym.5fd35f2d-c1de-4678-ba9f-54569b4fdcb7%3Aamzn1.sym.5fd35f2d-c1de-4678-ba9f-54569b4fdcb7&amp;crid=2SWWYZEHIEC34&amp;cv_ct_cx=Vaseline+Lip+Therapy&amp;dib=eyJ2IjoiMSJ9.KjKc0sGwplgZAAYjLKu7CLkJKILgLhikAoAE2fWkarMEeBFmwJwd8U1OYQRO5_JUvwxw8ASUyBCsGBsHOCQcfaSSNwThj2omJcESjna53pY.8cJtnCDLAomZnMX-w6Fv5rdzbJvSB8_nUduo-dgjtu0&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;pd_rd_i=B07NTS4RDR&amp;pd_rd_r=bf1ead3e-e21e-43f0-afca-a383774b3dcc&amp;pd_rd_w=atjXM&amp;pd_rd_wg=fHPMs&amp;pf_rd_p=5fd35f2d-c1de-4678-ba9f-54569b4fdcb7&amp;pf_rd_r=73JCH9FSRTD7E6DM7N90&amp;qid=1711036233&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=cetaphil+lotion%2Caps%2C355&amp;sr=1-3-88bb4e7b-fb79-43dc-9dec-6da196f88672</t>
+  </si>
+  <si>
+    <t>Sky Organics Organic Lip Balm with Beeswax and a Rich Nourishing Blend of Plant Oils, Moisturizing Lips Balms to Lock In Moisture and Keep Lips Feeling Soft and Smooth, Four Assorted Flavors, 4pk.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Sky-Organics-Certified-Assorted-Moisturize/dp/B07XZBZJL1/ref=sxin_35_cpf_saw-CPFPecos-dsk-lmlk-asin?content-id=amzn1.sym.5fd35f2d-c1de-4678-ba9f-54569b4fdcb7%3Aamzn1.sym.5fd35f2d-c1de-4678-ba9f-54569b4fdcb7&amp;crid=2SWWYZEHIEC34&amp;cv_ct_cx=Vaseline+Lip+Therapy&amp;dib=eyJ2IjoiMSJ9.KjKc0sGwplgZAAYjLKu7CLkJKILgLhikAoAE2fWkarMEeBFmwJwd8U1OYQRO5_JUvwxw8ASUyBCsGBsHOCQcfaSSNwThj2omJcESjna53pY.8cJtnCDLAomZnMX-w6Fv5rdzbJvSB8_nUduo-dgjtu0&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;pd_rd_i=B07XZBZJL1&amp;pd_rd_r=bf1ead3e-e21e-43f0-afca-a383774b3dcc&amp;pd_rd_w=atjXM&amp;pd_rd_wg=fHPMs&amp;pf_rd_p=5fd35f2d-c1de-4678-ba9f-54569b4fdcb7&amp;pf_rd_r=73JCH9FSRTD7E6DM7N90&amp;qid=1711036233&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=cetaphil+lotion%2Caps%2C355&amp;sr=1-5-88bb4e7b-fb79-43dc-9dec-6da196f88672</t>
   </si>
   <si>
     <t>Lip Therapy Lip Balm, Creme Brulee 0.25 oz (Pack of 4)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vaseline-Therapy-Balm-Creme-Brulee/dp/B01IAF03MG/ref=sr_1_17?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-17</t>
-  </si>
-  <si>
-    <t>Lip Therapy Lip Balm, Rosy Lips 0.6 oz (Pack of 3)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Vaseline-Therapy-Balm-Rosy-Lips/dp/B01IAFK5Q0/ref=sr_1_23?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-23</t>
-  </si>
-  <si>
-    <t>Lip Sunscreen Moisturizing and Repair Package SPF 30 - Summer Long Lasting Moisturized, Smooth and Repaired Lips - 3 Flavors (Pack of 6: 2 moisturizing+ 2 repairing+ 2 SPF)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozODYzNjAwMzUxMTMyMDgwOjE3MTEwMjQ2OTI6c3BfbXRmOjMwMDA4NDAwMzc1MzIwMjo6MDo6&amp;url=%2FTANUOYI-Sunscreen-Moisturizing-Repair-Package%2Fdp%2FB0CL68L5VF%2Fref%3Dsr_1_27_sspa%3Fcrid%3D1HX3CY7O8RIBV%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711024692%26sprefix%3Dvase%252Caps%252C371%26sr%3D8-27-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/Vaseline-Therapy-Balm-Creme-Brulee/dp/B01IAF03MG/ref=sr_1_18?crid=2SWWYZEHIEC34&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lraomo698bpNskGoWU1Rx9-OIF7TCEzjalK0Ws_DTJWCFLNKQQ1jsdGPq0MbgC1EvrrjZ3b7DioJ_SUa1NLrHyGYXaB1g3U9340bL78NZVWfTS6uM59HrxmBhtQFlqBWxjrgjqnW0QZ2DKT7a_pR4MxFJEXSU7X_JM42PTzvPesuECYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.GHqO6JS6jgmOM8VBYajnNsZT7CiKD2AhLQPFT2i-dxQ&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711036233&amp;sprefix=cetaphil+lotion%2Caps%2C355&amp;sr=8-18</t>
   </si>
   <si>
     <t>Lip Therapy Cocoa Butter.25 oz (Pack of 4)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vaseline-Therapy-Cocoa-Butter-25-Pack/dp/B00H8BNEFW/ref=sr_1_4?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-4</t>
+    <t>https://www.amazon.com/Vaseline-Therapy-Cocoa-Butter-25-Pack/dp/B00H8BNEFW/ref=sr_1_4?crid=2SWWYZEHIEC34&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lraomo698bpNskGoWU1Rx9-OIF7TCEzjalK0Ws_DTJWCFLNKQQ1jsdGPq0MbgC1EvrrjZ3b7DioJ_SUa1NLrHyGYXaB1g3U9340bL78NZVWfTS6uM59HrxmBhtQFlqBWxjrgjqnW0QZ2DKT7a_pR4MxFJEXSU7X_JM42PTzvPesuECYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.GHqO6JS6jgmOM8VBYajnNsZT7CiKD2AhLQPFT2i-dxQ&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711036233&amp;sprefix=cetaphil+lotion%2Caps%2C355&amp;sr=8-4</t>
+  </si>
+  <si>
+    <t>Lip Therapy Stick with Petroleum Jelly (Original, Aloe Vera, Rosy Lips, Cocoa Butter)- 4pk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Vaseline-Therapy-Petroleum-Original-Butter/dp/B07K8YD5V9/ref=sr_1_10?crid=2SWWYZEHIEC34&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lraomo698bpNskGoWU1Rx9-OIF7TCEzjalK0Ws_DTJWCFLNKQQ1jsdGPq0MbgC1EvrrjZ3b7DioJ_SUa1NLrHyGYXaB1g3U9340bL78NZVWfTS6uM59HrxmBhtQFlqBWxjrgjqnW0QZ2DKT7a_pR4MxFJEXSU7X_JM42PTzvPesuECYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.GHqO6JS6jgmOM8VBYajnNsZT7CiKD2AhLQPFT2i-dxQ&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711036233&amp;sprefix=cetaphil+lotion%2Caps%2C355&amp;sr=8-10</t>
   </si>
   <si>
     <t>Rosy Lip Therapy Size .25oz pack of 3</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vaseline-Rosy-Therapy-Size-25oz/dp/B00THKESN4/ref=sr_1_11?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-11</t>
-  </si>
-  <si>
-    <t>Lip Therapy Stick with Petroleum Jelly (Original, Aloe Vera, Rosy Lips, Cocoa Butter)- 4pk</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Vaseline-Therapy-Petroleum-Original-Butter/dp/B07K8YD5V9/ref=sr_1_9?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-9</t>
+    <t>https://www.amazon.com/Vaseline-Rosy-Therapy-Size-25oz/dp/B00THKESN4/ref=sr_1_15?crid=2SWWYZEHIEC34&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lraomo698bpNskGoWU1Rx9-OIF7TCEzjalK0Ws_DTJWCFLNKQQ1jsdGPq0MbgC1EvrrjZ3b7DioJ_SUa1NLrHyGYXaB1g3U9340bL78NZVWfTS6uM59HrxmBhtQFlqBWxjrgjqnW0QZ2DKT7a_pR4MxFJEXSU7X_JM42PTzvPesuECYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.GHqO6JS6jgmOM8VBYajnNsZT7CiKD2AhLQPFT2i-dxQ&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711036233&amp;sprefix=cetaphil+lotion%2Caps%2C355&amp;sr=8-15</t>
   </si>
   <si>
     <t>Rosy Lips, Lip Therapy.25 OZ, (Pack of 3), Violet, 75.0Ounce</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vaseline-Rosy-Lips-Therapy-25-Pack/dp/B01JLVRHZ4/ref=sr_1_6?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-6</t>
+    <t>https://www.amazon.com/Vaseline-Rosy-Lips-Therapy-25-Pack/dp/B01JLVRHZ4/ref=sr_1_6?crid=2SWWYZEHIEC34&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lraomo698bpNskGoWU1Rx9-OIF7TCEzjalK0Ws_DTJWCFLNKQQ1jsdGPq0MbgC1EvrrjZ3b7DioJ_SUa1NLrHyGYXaB1g3U9340bL78NZVWfTS6uM59HrxmBhtQFlqBWxjrgjqnW0QZ2DKT7a_pR4MxFJEXSU7X_JM42PTzvPesuECYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.GHqO6JS6jgmOM8VBYajnNsZT7CiKD2AhLQPFT2i-dxQ&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711036233&amp;sprefix=cetaphil+lotion%2Caps%2C355&amp;sr=8-6</t>
   </si>
   <si>
     <t>Lip Therapy Stick with Petroleum Jelly - 3 Pack (Cocoa Butter)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vaseline-Therapy-Stick-Petroleum-Jelly/dp/B07M8JJ7V8/ref=sr_1_13?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-13</t>
+    <t>https://www.amazon.com/Vaseline-Therapy-Stick-Petroleum-Jelly/dp/B07M8JJ7V8/ref=sr_1_12?crid=2SWWYZEHIEC34&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lraomo698bpNskGoWU1Rx9-OIF7TCEzjalK0Ws_DTJWCFLNKQQ1jsdGPq0MbgC1EvrrjZ3b7DioJ_SUa1NLrHyGYXaB1g3U9340bL78NZVWfTS6uM59HrxmBhtQFlqBWxjrgjqnW0QZ2DKT7a_pR4MxFJEXSU7X_JM42PTzvPesuECYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.GHqO6JS6jgmOM8VBYajnNsZT7CiKD2AhLQPFT2i-dxQ&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711036233&amp;sprefix=cetaphil+lotion%2Caps%2C355&amp;sr=8-12</t>
   </si>
   <si>
     <t>Therapy Lip Balm, Aloe Vera 0.6 oz (Pack of 3)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vaseline-Therapy-Balm-Aloe-Vera/dp/B01IAFJYUI/ref=sr_1_15?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-15</t>
+    <t>https://www.amazon.com/Vaseline-Therapy-Balm-Aloe-Vera/dp/B01IAFJYUI/ref=sr_1_17?crid=2SWWYZEHIEC34&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lraomo698bpNskGoWU1Rx9-OIF7TCEzjalK0Ws_DTJWCFLNKQQ1jsdGPq0MbgC1EvrrjZ3b7DioJ_SUa1NLrHyGYXaB1g3U9340bL78NZVWfTS6uM59HrxmBhtQFlqBWxjrgjqnW0QZ2DKT7a_pR4MxFJEXSU7X_JM42PTzvPesuECYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.GHqO6JS6jgmOM8VBYajnNsZT7CiKD2AhLQPFT2i-dxQ&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711036233&amp;sprefix=cetaphil+lotion%2Caps%2C355&amp;sr=8-17</t>
   </si>
   <si>
     <t>Lip Therapy Variety 4-Pack – Cocoa Butter + Aloe Vera Moisturizing Lip Balm with Vitamin E, 16 Oz Ea</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vaseline-Therapy-Stick-Petroleum-Jelly/dp/B0B2GF9GKL/ref=sr_1_26?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-26</t>
+    <t>https://www.amazon.com/Vaseline-Therapy-Stick-Petroleum-Jelly/dp/B0B2GF9GKL/ref=sr_1_26?crid=2SWWYZEHIEC34&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lraomo698bpNskGoWU1Rx9-OIF7TCEzjalK0Ws_DTJWCFLNKQQ1jsdGPq0MbgC1EvrrjZ3b7DioJ_SUa1NLrHyGYXaB1g3U9340bL78NZVWfTS6uM59HrxmBhtQFlqBWxjrgjqnW0QZ2DKT7a_pR4MxFJEXSU7X_JM42PTzvPesuECYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.GHqO6JS6jgmOM8VBYajnNsZT7CiKD2AhLQPFT2i-dxQ&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711036233&amp;sprefix=cetaphil+lotion%2Caps%2C355&amp;sr=8-26</t>
+  </si>
+  <si>
+    <t>eos 100% Natural &amp; Organic Lip Balm Trio- Vanilla Bean, Sweet Mint, &amp; Strawberry Sorbet, Made for Sensitive Skin, Lip Care Products, 0.14 oz, 3-Pack</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/eos-Natural-Strawberry-Sensitive-Products/dp/B09NNYTTXK/ref=sxin_35_cpf_saw-CPFPecos-dsk-lmlk-asin?content-id=amzn1.sym.5fd35f2d-c1de-4678-ba9f-54569b4fdcb7%3Aamzn1.sym.5fd35f2d-c1de-4678-ba9f-54569b4fdcb7&amp;crid=2SWWYZEHIEC34&amp;cv_ct_cx=Vaseline+Lip+Therapy&amp;dib=eyJ2IjoiMSJ9.KjKc0sGwplgZAAYjLKu7CLkJKILgLhikAoAE2fWkarMEeBFmwJwd8U1OYQRO5_JUvwxw8ASUyBCsGBsHOCQcfaSSNwThj2omJcESjna53pY.8cJtnCDLAomZnMX-w6Fv5rdzbJvSB8_nUduo-dgjtu0&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;pd_rd_i=B09NNYTTXK&amp;pd_rd_r=bf1ead3e-e21e-43f0-afca-a383774b3dcc&amp;pd_rd_w=atjXM&amp;pd_rd_wg=fHPMs&amp;pf_rd_p=5fd35f2d-c1de-4678-ba9f-54569b4fdcb7&amp;pf_rd_r=73JCH9FSRTD7E6DM7N90&amp;qid=1711036233&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=cetaphil+lotion%2Caps%2C355&amp;sr=1-4-88bb4e7b-fb79-43dc-9dec-6da196f88672</t>
+  </si>
+  <si>
+    <t>Lip Therapy Care Aloe Fresh, Fast-Acting Nourishment, Ideal for Chapped, Dry, Cracked, or Damaged Lips, Lip Balm, 4-Pack, 0.16 Oz Each</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0OTE5NjYzNzM3OTg5MDgwOjE3MTEwMzYyMzM6c3BfbXRmOjMwMDA4Mzc1MjA2OTEwMjo6MDo6&amp;url=%2FVaseline-Therapy-Fast-Acting-Nourishment-Chapped%2Fdp%2FB0C1TFXXXR%2Fref%3Dsr_1_19_sspa%3Fcrid%3D2SWWYZEHIEC34%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lraomo698bpNskGoWU1Rx9-OIF7TCEzjalK0Ws_DTJWCFLNKQQ1jsdGPq0MbgC1EvrrjZ3b7DioJ_SUa1NLrHyGYXaB1g3U9340bL78NZVWfTS6uM59HrxmBhtQFlqBWxjrgjqnW0QZ2DKT7a_pR4MxFJEXSU7X_JM42PTzvPesuECYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.GHqO6JS6jgmOM8VBYajnNsZT7CiKD2AhLQPFT2i-dxQ%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711036233%26sprefix%3Dcetaphil%2Blotion%252Caps%252C355%26sr%3D8-19-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Lip Therapy | Vaseline Lip Balm | Lip Moisturizer for Very Dry Lips | Original | 20g</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Axe-Therapy-Petroleum-Jelly-Original/dp/B002GC9UZG/ref=sr_1_11?crid=2SWWYZEHIEC34&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lraomo698bpNskGoWU1Rx9-OIF7TCEzjalK0Ws_DTJWCFLNKQQ1jsdGPq0MbgC1EvrrjZ3b7DioJ_SUa1NLrHyGYXaB1g3U9340bL78NZVWfTS6uM59HrxmBhtQFlqBWxjrgjqnW0QZ2DKT7a_pR4MxFJEXSU7X_JM42PTzvPesuECYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.GHqO6JS6jgmOM8VBYajnNsZT7CiKD2AhLQPFT2i-dxQ&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711036233&amp;sprefix=cetaphil+lotion%2Caps%2C355&amp;sr=8-11</t>
+  </si>
+  <si>
+    <t>Lip Therapy Care Original, Fast-Acting Nourishment, Ideal for Chapped, Dry, Cracked, or Damaged Lips, Lip Balm, 0.16 Ounce (Pack of 4)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0OTE5NjYzNzM3OTg5MDgwOjE3MTEwMzYyMzM6c3BfYXRmOjMwMDA4Mzc1MjA2OTMwMjo6MDo6&amp;url=%2FVaseline-Therapy-Original-Fast-Acting-Nourishment%2Fdp%2FB0C1TFHMCT%2Fref%3Dsr_1_1_sspa%3Fcrid%3D2SWWYZEHIEC34%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lraomo698bpNskGoWU1Rx9-OIF7TCEzjalK0Ws_DTJWCFLNKQQ1jsdGPq0MbgC1EvrrjZ3b7DioJ_SUa1NLrHyGYXaB1g3U9340bL78NZVWfTS6uM59HrxmBhtQFlqBWxjrgjqnW0QZ2DKT7a_pR4MxFJEXSU7X_JM42PTzvPesuECYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.GHqO6JS6jgmOM8VBYajnNsZT7CiKD2AhLQPFT2i-dxQ%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711036233%26sprefix%3Dcetaphil%2Blotion%252Caps%252C355%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Vaseline-Therapy-Original-Fast-Acting-Nourishment/dp/B0C1TFHMCT/ref=sr_1_3?crid=2SWWYZEHIEC34&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lraomo698bpNskGoWU1Rx9-OIF7TCEzjalK0Ws_DTJWCFLNKQQ1jsdGPq0MbgC1EvrrjZ3b7DioJ_SUa1NLrHyGYXaB1g3U9340bL78NZVWfTS6uM59HrxmBhtQFlqBWxjrgjqnW0QZ2DKT7a_pR4MxFJEXSU7X_JM42PTzvPesuECYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.GHqO6JS6jgmOM8VBYajnNsZT7CiKD2AhLQPFT2i-dxQ&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711036233&amp;sprefix=cetaphil+lotion%2Caps%2C355&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>Lip Therapy | Vaseline Lip Balm | Lip Moisturizer for Very Dry Lips | Cocoa Butter | 20g</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Therapy-Petroleum-Jelly-Cocoa-Butter/dp/B004M9Q8HE/ref=sr_1_13?crid=2SWWYZEHIEC34&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lraomo698bpNskGoWU1Rx9-OIF7TCEzjalK0Ws_DTJWCFLNKQQ1jsdGPq0MbgC1EvrrjZ3b7DioJ_SUa1NLrHyGYXaB1g3U9340bL78NZVWfTS6uM59HrxmBhtQFlqBWxjrgjqnW0QZ2DKT7a_pR4MxFJEXSU7X_JM42PTzvPesuECYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.GHqO6JS6jgmOM8VBYajnNsZT7CiKD2AhLQPFT2i-dxQ&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711036233&amp;sprefix=cetaphil+lotion%2Caps%2C355&amp;sr=8-13</t>
+  </si>
+  <si>
+    <t>eos 100% Natural &amp; Organic Lip Balm Sphere- Vanilla Bean, All-day Moisture, Dermatologist Recommended for Sensitive Skin, Lip Care Products, 0.25 oz</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/eos-Natural-Organic-Sphere-Balm/dp/B07XVSJC8K/ref=sxin_35_cpf_saw-CPFPecos-dsk-lmlk-asin?content-id=amzn1.sym.5fd35f2d-c1de-4678-ba9f-54569b4fdcb7%3Aamzn1.sym.5fd35f2d-c1de-4678-ba9f-54569b4fdcb7&amp;crid=2SWWYZEHIEC34&amp;cv_ct_cx=Vaseline+Lip+Therapy&amp;dib=eyJ2IjoiMSJ9.KjKc0sGwplgZAAYjLKu7CLkJKILgLhikAoAE2fWkarMEeBFmwJwd8U1OYQRO5_JUvwxw8ASUyBCsGBsHOCQcfaSSNwThj2omJcESjna53pY.8cJtnCDLAomZnMX-w6Fv5rdzbJvSB8_nUduo-dgjtu0&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;pd_rd_i=B07XVSJC8K&amp;pd_rd_r=bf1ead3e-e21e-43f0-afca-a383774b3dcc&amp;pd_rd_w=atjXM&amp;pd_rd_wg=fHPMs&amp;pf_rd_p=5fd35f2d-c1de-4678-ba9f-54569b4fdcb7&amp;pf_rd_r=73JCH9FSRTD7E6DM7N90&amp;qid=1711036233&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=cetaphil+lotion%2Caps%2C355&amp;sr=1-1-88bb4e7b-fb79-43dc-9dec-6da196f88672</t>
+  </si>
+  <si>
+    <t>Lip Therapy Lip Balm Mini, Cocoa Butter, 0.25 oz</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Vaseline-Therapy-Balm-Cocoa-Butter/dp/B008CCO6LW/ref=sr_1_9?crid=2SWWYZEHIEC34&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lraomo698bpNskGoWU1Rx9-OIF7TCEzjalK0Ws_DTJWCFLNKQQ1jsdGPq0MbgC1EvrrjZ3b7DioJ_SUa1NLrHyGYXaB1g3U9340bL78NZVWfTS6uM59HrxmBhtQFlqBWxjrgjqnW0QZ2DKT7a_pR4MxFJEXSU7X_JM42PTzvPesuECYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.GHqO6JS6jgmOM8VBYajnNsZT7CiKD2AhLQPFT2i-dxQ&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711036233&amp;sprefix=cetaphil+lotion%2Caps%2C355&amp;sr=8-9</t>
   </si>
   <si>
     <t>Lip Therapy Care Rosy, Fast-Acting Nourishment, Ideal for Chapped, Dry, Cracked, or Damaged Lips, Lip Balm, 4-Pack, 0.16 Oz Each</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vaseline-Therapy-Fast-Acting-Nourishment-Chapped/dp/B0BZQP7V3B/ref=sr_1_7?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozODYzNjAwMzUxMTMyMDgwOjE3MTEwMjQ2OTI6c3BfbXRmOjMwMDA4Mzc1MjA2OTIwMjo6MDo6&amp;url=%2FVaseline-Therapy-Fast-Acting-Nourishment-Chapped%2Fdp%2FB0BZQP7V3B%2Fref%3Dsr_1_20_sspa%3Fcrid%3D1HX3CY7O8RIBV%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711024692%26sprefix%3Dvase%252Caps%252C371%26sr%3D8-20-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Vaseline Lip Therapy Care Rosy, Fast-Acting Nourishment, Ideal for Chapped, Dry, Cracked, or Damaged Lips, Lip Balm, 4-Pack, 0.16 Oz Each</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0OTg1MjI3Mjk2NjM5MDgwOjE3MTEwMjQ2OTI6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDA4Mzc1MjA2OTIwMjo6NDo6&amp;url=%2FVaseline-Therapy-Fast-Acting-Nourishment-Chapped%2Fdp%2FB0BZQP7V3B%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%253Aamzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%26crid%3D1HX3CY7O8RIBV%26cv_ct_cx%3DVaseline%2BLip%2BTherapy%26dib%3DeyJ2IjoiMSJ9.Y8Vc9MU8hvoApKGi8BevQE3g1MVdJTMQmYUbGYXSahwJM-m27Vec2lEs5n4iTdsc.FK4x3tM3jy7N9uhyYf2xJ85LqMkajCzzCrvEGTjXaZk%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26pd_rd_i%3DB0BZQP7V3B%26pd_rd_r%3Dc4a28026-0f8b-45db-8314-464816754045%26pd_rd_w%3DoJHRf%26pd_rd_wg%3Dt0mY5%26pf_rd_p%3Dd4fdc453-1595-4f7b-ba6a-eb2ac554591f%26pf_rd_r%3DM4MXAGZCXVD2552T7VYN%26qid%3D1711024692%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dvase%252Caps%252C371%26sr%3D1-4-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Lip Therapy Care Aloe Fresh, Fast-Acting Nourishment, Ideal for Chapped, Dry, Cracked, or Damaged Lips, Lip Balm, 4-Pack, 0.16 Oz Each</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozODYzNjAwMzUxMTMyMDgwOjE3MTEwMjQ2OTI6c3BfbXRmOjMwMDA4Mzc1MjA2OTEwMjo6MDo6&amp;url=%2FVaseline-Therapy-Fast-Acting-Nourishment-Chapped%2Fdp%2FB0C1TFXXXR%2Fref%3Dsr_1_21_sspa%3Fcrid%3D1HX3CY7O8RIBV%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711024692%26sprefix%3Dvase%252Caps%252C371%26sr%3D8-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Vaseline Lip Therapy Care Aloe Fresh, Fast-Acting Nourishment, Ideal for Chapped, Dry, Cracked, or Damaged Lips, Lip Balm, 4-Pack, 0.16 Oz Each</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0OTg1MjI3Mjk2NjM5MDgwOjE3MTEwMjQ2OTI6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDA4Mzc1MjA2OTEwMjo6Mjo6&amp;url=%2FVaseline-Therapy-Fast-Acting-Nourishment-Chapped%2Fdp%2FB0C1TFXXXR%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%253Aamzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%26crid%3D1HX3CY7O8RIBV%26cv_ct_cx%3DVaseline%2BLip%2BTherapy%26dib%3DeyJ2IjoiMSJ9.Y8Vc9MU8hvoApKGi8BevQE3g1MVdJTMQmYUbGYXSahwJM-m27Vec2lEs5n4iTdsc.FK4x3tM3jy7N9uhyYf2xJ85LqMkajCzzCrvEGTjXaZk%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26pd_rd_i%3DB0C1TFXXXR%26pd_rd_r%3Dc4a28026-0f8b-45db-8314-464816754045%26pd_rd_w%3DoJHRf%26pd_rd_wg%3Dt0mY5%26pf_rd_p%3Dd4fdc453-1595-4f7b-ba6a-eb2ac554591f%26pf_rd_r%3DM4MXAGZCXVD2552T7VYN%26qid%3D1711024692%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dvase%252Caps%252C371%26sr%3D1-3-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Lip Therapy | Vaseline Lip Balm | Lip Moisturizer for Very Dry Lips | Original | 20g</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Axe-Therapy-Petroleum-Jelly-Original/dp/B002GC9UZG/ref=sr_1_10?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-10</t>
-  </si>
-  <si>
-    <t>Lip Therapy Care Original, Fast-Acting Nourishment, Ideal for Chapped, Dry, Cracked, or Damaged Lips, Lip Balm, 0.16 Ounce (Pack of 4)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Vaseline-Therapy-Original-Fast-Acting-Nourishment/dp/B0C1TFHMCT/ref=sr_1_3?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-3</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozODYzNjAwMzUxMTMyMDgwOjE3MTEwMjQ2OTI6c3BfbXRmOjMwMDA4Mzc1MjA2OTMwMjo6MDo6&amp;url=%2FVaseline-Therapy-Original-Fast-Acting-Nourishment%2Fdp%2FB0C1TFHMCT%2Fref%3Dsr_1_14_sspa%3Fcrid%3D1HX3CY7O8RIBV%26dib%3DeyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26qid%3D1711024692%26sprefix%3Dvase%252Caps%252C371%26sr%3D8-14-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Vaseline Lip Therapy Care Original, Fast-Acting Nourishment, Ideal for Chapped, Dry, Cracked, or Damaged Lips, Lip Balm, 0.16 Ounce (Pack of 4)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0OTg1MjI3Mjk2NjM5MDgwOjE3MTEwMjQ2OTI6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDA4Mzc1MjA2OTMwMjo6MTo6&amp;url=%2FVaseline-Therapy-Original-Fast-Acting-Nourishment%2Fdp%2FB0C1TFHMCT%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%253Aamzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%26crid%3D1HX3CY7O8RIBV%26cv_ct_cx%3DVaseline%2BLip%2BTherapy%26dib%3DeyJ2IjoiMSJ9.Y8Vc9MU8hvoApKGi8BevQE3g1MVdJTMQmYUbGYXSahwJM-m27Vec2lEs5n4iTdsc.FK4x3tM3jy7N9uhyYf2xJ85LqMkajCzzCrvEGTjXaZk%26dib_tag%3Dse%26keywords%3DVaseline%2BLip%2BTherapy%26pd_rd_i%3DB0C1TFHMCT%26pd_rd_r%3Dc4a28026-0f8b-45db-8314-464816754045%26pd_rd_w%3DoJHRf%26pd_rd_wg%3Dt0mY5%26pf_rd_p%3Dd4fdc453-1595-4f7b-ba6a-eb2ac554591f%26pf_rd_r%3DM4MXAGZCXVD2552T7VYN%26qid%3D1711024692%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dvase%252Caps%252C371%26sr%3D1-2-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Lip Therapy | Vaseline Lip Balm | Lip Moisturizer for Very Dry Lips | Cocoa Butter | 20g</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Therapy-Petroleum-Jelly-Cocoa-Butter/dp/B004M9Q8HE/ref=sr_1_12?crid=1HX3CY7O8RIBV&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lrUBezJNvDr5Eit6SiV9Yi5JktIE2Zeb4oklKs_1RiTYsbAY1-EmYKhQM9Dfsuset1S3VDz_kN1jXwKGRiRS4GaAmIxLlbm-JP0MYl9sDnHGIS6uM59HrxmBhtQFlqBWxjh9eIAbU8qOQbtX1vB65F3x7_zExbxsPXW460cqHHABhCYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.IYL6DHamcvBULqoIvrHiCz04wdVbCbhAgfbobXrQltw&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711024692&amp;sprefix=vase%2Caps%2C371&amp;sr=8-12</t>
+    <t>https://www.amazon.com/Vaseline-Therapy-Fast-Acting-Nourishment-Chapped/dp/B0BZQP7V3B/ref=sr_1_7?crid=2SWWYZEHIEC34&amp;dib=eyJ2IjoiMSJ9.VjhHUIvdU5vWU39UpPQ4FSIM0EB8qSiPA-HaR4PsAOMFteWhRXc9SDRClzjLBaOOGt2Dm3glTx-XE0lcGx5lraomo698bpNskGoWU1Rx9-OIF7TCEzjalK0Ws_DTJWCFLNKQQ1jsdGPq0MbgC1EvrrjZ3b7DioJ_SUa1NLrHyGYXaB1g3U9340bL78NZVWfTS6uM59HrxmBhtQFlqBWxjrgjqnW0QZ2DKT7a_pR4MxFJEXSU7X_JM42PTzvPesuECYFo5VGHJgD6HEUueCoBh5FebOGqb0QdwcaT5daX46E.GHqO6JS6jgmOM8VBYajnNsZT7CiKD2AhLQPFT2i-dxQ&amp;dib_tag=se&amp;keywords=Vaseline+Lip+Therapy&amp;qid=1711036233&amp;sprefix=cetaphil+lotion%2Caps%2C355&amp;sr=8-7</t>
   </si>
 </sst>
 </file>
@@ -510,14 +539,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -837,539 +860,531 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52C2609-EAFC-4E0C-920D-36E5F6CB3F2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC0693D-FBF1-4D9F-9B13-0F2D64F7F22C}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="181" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="179.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="3">
-        <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="A2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="1">
+        <v>25.99</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1">
         <v>309</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>84</v>
+      <c r="E2" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="A3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="1">
         <v>24.99</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>269</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>86</v>
+      <c r="E3" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="1">
         <v>22.74</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>305</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>88</v>
+      <c r="E4" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="3">
-        <v>22.5</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="1">
+        <v>20.9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>4754</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>90</v>
+      <c r="E5" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="A6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="1">
         <v>19.989999999999998</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="1">
         <v>146</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="E6" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="1">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="1">
+        <v>146</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="1">
         <v>16.989999999999998</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3">
-        <v>14235</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="3">
-        <v>16.989999999999998</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="1">
+        <v>14234</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="1">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="1">
+        <v>11088</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10.99</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>126</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9.99</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3">
-        <v>14235</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="3">
-        <v>15.99</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="D11" s="1">
+        <v>27089</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9.99</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1">
+        <v>18850</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="1">
+        <v>9.99</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1">
+        <v>14797</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="1">
+        <v>9.98</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1">
+        <v>21319</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4897</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="1">
+        <v>8.99</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4445</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="1">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="3">
-        <v>10879</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="D17" s="1">
+        <v>194</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="1">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1">
+        <v>14234</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="1">
+        <v>7.99</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1">
+        <v>7359</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="1">
+        <v>7.99</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="3">
-        <v>11.9</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="D20" s="1">
+        <v>998</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="1">
+        <v>7.85</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1954</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="1">
+        <v>7.69</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1">
+        <v>18618</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5.31</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3">
-        <v>890</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="3">
-        <v>11.44</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="D23" s="1">
+        <v>441</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4291</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1">
+        <v>948</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="1">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1">
+        <v>948</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1">
+        <v>6490</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="3">
-        <v>21319</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="3">
-        <v>11.26</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1923</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="3">
-        <v>10.99</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="3">
-        <v>126</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="3">
-        <v>9.68</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="3">
-        <v>5120</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="3">
-        <v>9.5500000000000007</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="3">
-        <v>194</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="3">
-        <v>8.99</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="3">
-        <v>4445</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="3">
-        <v>8.9600000000000009</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="3">
-        <v>14235</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="3">
-        <v>7.99</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="3">
-        <v>7359</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="3">
-        <v>7.99</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="3">
-        <v>998</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="3">
-        <v>7.85</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1954</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="3">
-        <v>5.44</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="D28" s="1">
+        <v>47038</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D30" s="1">
         <v>747</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B22" s="3">
-        <v>5.44</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="3">
-        <v>747</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23" s="3">
-        <v>5.44</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="3">
-        <v>747</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" s="3">
-        <v>5.31</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="3">
-        <v>441</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B25" s="3">
-        <v>5.31</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="3">
-        <v>441</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B26" s="3">
-        <v>5.18</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="3">
-        <v>4291</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B27" s="3">
-        <v>5</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="3">
-        <v>948</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" s="3">
-        <v>5</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="3">
-        <v>948</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B29" s="3">
-        <v>5</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="3">
-        <v>948</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B30" s="3">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="3">
-        <v>6490</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>138</v>
+      <c r="E30" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FE2290-6202-4D76-80DF-17E0E4A96981}">
-  <dimension ref="A1:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F104D9F-DDE3-4103-B2E6-BC75A8EC10A9}">
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1400,213 +1415,207 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1">
-        <v>31.98</v>
+        <v>37.75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1">
+        <v>31.98</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1">
+        <v>240</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1">
+        <v>30.99</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="1">
         <v>28.99</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
         <v>7183</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="1">
-        <v>27.94</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1">
-        <v>935</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="1">
-        <v>27.94</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1">
-        <v>935</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1">
-        <v>25.32</v>
+        <v>27.94</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1">
-        <v>131</v>
+        <v>935</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1">
-        <v>21.99</v>
+        <v>23.99</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1">
-        <v>213</v>
+        <v>1338</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1">
-        <v>21.45</v>
+        <v>23.16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1">
-        <v>3137</v>
+        <v>131</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="1">
-        <v>19.989999999999998</v>
+        <v>23.16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>8745</v>
+        <v>131</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1">
-        <v>19.989999999999998</v>
+        <v>21.99</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="1">
-        <v>8745</v>
+        <v>213</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" s="1">
-        <v>18.89</v>
+        <v>21.45</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1">
-        <v>1440</v>
+        <v>3137</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1">
-        <v>18.89</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="1">
+        <v>18.89</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1">
         <v>1440</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="1">
-        <v>18.5</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="1">
-        <v>49389</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B14" s="1">
         <v>17.28</v>
@@ -1618,170 +1627,222 @@
         <v>1708</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B15" s="1">
+        <v>16.78</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1">
+        <v>7043</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="1">
         <v>16.47</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="1">
-        <v>935</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="1">
-        <v>14.13</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="1">
-        <v>9252</v>
+        <v>935</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1">
-        <v>12.87</v>
+        <v>15.25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1">
-        <v>4902</v>
+        <v>3351</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B18" s="1">
-        <v>12.47</v>
+        <v>13.6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1">
-        <v>992</v>
+        <v>9252</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B19" s="1">
-        <v>12.23</v>
+        <v>12.97</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1">
-        <v>24858</v>
+        <v>405</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B20" s="1">
-        <v>12.23</v>
+        <v>12.87</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="1">
-        <v>24858</v>
+        <v>4902</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B21" s="1">
-        <v>11.88</v>
+        <v>12.47</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1">
-        <v>1203</v>
+        <v>992</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B22" s="1">
-        <v>9.9700000000000006</v>
+        <v>12.23</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="1">
-        <v>1937</v>
+        <v>24858</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B23" s="1">
-        <v>8.99</v>
+        <v>12.23</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1">
-        <v>8418</v>
+        <v>24858</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="1">
+        <v>11.88</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1203</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="1">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1938</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="1">
+        <v>4.99</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1445</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327C6A55-1F21-48E7-B556-C77F5A9DAA1B}">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC55449-1D6C-41BE-97B2-FC291DAB061B}">
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1817,7 +1878,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>64.63</v>
+        <v>63.97</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -1834,13 +1895,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>44.95</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1">
-        <v>49</v>
+        <v>847</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
@@ -1851,13 +1912,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>43.3</v>
+        <v>44.95</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1">
-        <v>169</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -1880,35 +1941,35 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="1">
-        <v>39.99</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="1">
-        <v>3</v>
+        <v>966</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="1">
-        <v>27.29</v>
+        <v>29.99</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1">
-        <v>35</v>
+        <v>318</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>21</v>
@@ -1919,144 +1980,162 @@
         <v>22</v>
       </c>
       <c r="B8" s="1">
-        <v>25.5</v>
+        <v>27.29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1">
-        <v>472</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="1">
-        <v>24.99</v>
+        <v>25.5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1">
-        <v>5089</v>
+        <v>472</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="1">
-        <v>21.89</v>
+        <v>24.99</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5089</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="1">
-        <v>3133</v>
-      </c>
-      <c r="E10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1">
+        <v>23.99</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1">
+        <v>92</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" s="1">
-        <v>21.7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1">
-        <v>46746</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1">
+        <v>21.89</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="1">
-        <v>21.1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D12" s="1">
-        <v>252</v>
+        <v>3133</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="1">
-        <v>17.670000000000002</v>
+        <v>21.8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1">
-        <v>15246</v>
+        <v>252</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="1">
-        <v>15.7</v>
+        <v>18.95</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1">
-        <v>7584</v>
+        <v>1635</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="1">
-        <v>14.23</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1">
-        <v>2126</v>
+        <v>15246</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1">
+        <v>7.99</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3080</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6ED823-E5B4-4E47-89EC-A652F22CD347}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E54652-F0C2-4D4F-BA84-D0CAAA2EC128}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
